--- a/JEFES & RS.xlsx
+++ b/JEFES & RS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\OneDrive - Salotto, S.A. de C.V\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\ARCHIVOS\al_maletin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830B5737-6E70-43C8-AA10-A875BED70E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F259EA6-008E-4773-B601-C390979E5D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jefes" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="1105">
   <si>
     <t>Encargados de Producción</t>
   </si>
@@ -3303,6 +3303,69 @@
   </si>
   <si>
     <t>Ingreso a laborar en Zarkin.</t>
+  </si>
+  <si>
+    <t>Marcos Elias baja el 22-06-2020</t>
+  </si>
+  <si>
+    <t>Jorge Suarez baja el 08-04-2016</t>
+  </si>
+  <si>
+    <t>Calle 18 No. 2539, entre calle 3 y 5. Zona Industrial (2553, 2555, 2567, 2571)</t>
+  </si>
+  <si>
+    <t>GRUPO AMARELO, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>Calle 16 No. 2770, Zona Industrial. Guadalajara, Jal. CP 44940</t>
+  </si>
+  <si>
+    <t>GAM-981218-4X3</t>
+  </si>
+  <si>
+    <t>R1426392103</t>
+  </si>
+  <si>
+    <t>Lirios No. 628, Fracc. Los Girasoles, Zapopan, Jalisco.</t>
+  </si>
+  <si>
+    <t>LITERAS Y COMEDORES, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>Rogelio Alvarado G.</t>
+  </si>
+  <si>
+    <t>Sistemas enseño clipper</t>
+  </si>
+  <si>
+    <t>Cot. Rinconada las palmas, Av. Oasis 1916-36, Zapopan, Jalisco. Tel Casa 3834-6848</t>
+  </si>
+  <si>
+    <t>Miguel Meza</t>
+  </si>
+  <si>
+    <t>Produccion.</t>
+  </si>
+  <si>
+    <t>Tel. 3812-9673</t>
+  </si>
+  <si>
+    <t>Joel Gomez Renteria</t>
+  </si>
+  <si>
+    <t>Planeacion / Almacen Partes</t>
+  </si>
+  <si>
+    <t>Dos Bocas No. 1711, Fracc. 18 de Marzo. Tel 3645-4442 Cel. 044-33-3107-0831</t>
+  </si>
+  <si>
+    <t>Laura Margarita Vargas Hernandez</t>
+  </si>
+  <si>
+    <t>Planeacion.</t>
+  </si>
+  <si>
+    <t>Marqueza de Calderon No. 3421-203, Jardines del Nilo. Tel. 3680-4149</t>
   </si>
 </sst>
 </file>
@@ -3316,7 +3379,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     <numFmt numFmtId="167" formatCode="[$-80A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3368,6 +3431,11 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3470,7 +3538,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3524,9 +3592,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3557,24 +3622,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3596,15 +3643,6 @@
     </xf>
     <xf numFmtId="44" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3629,6 +3667,48 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3764,7 +3844,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1076326</xdr:colOff>
+      <xdr:colOff>904876</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>134255</xdr:rowOff>
     </xdr:to>
@@ -4083,34 +4163,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
+      <c r="A3" s="54">
         <v>43550</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
@@ -4766,7 +4846,7 @@
       <c r="E43" s="11" t="s">
         <v>1068</v>
       </c>
-      <c r="F43" s="42" t="s">
+      <c r="F43" s="33" t="s">
         <v>1069</v>
       </c>
     </row>
@@ -4809,11 +4889,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E5A11B-5847-4351-9046-BB2BED0377A1}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4826,34 +4906,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
+      <c r="A3" s="54">
         <v>43186</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
@@ -4876,122 +4956,122 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="25" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G7" s="20"/>
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="25" t="s">
         <v>60</v>
       </c>
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="25" t="s">
         <v>63</v>
       </c>
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="25" t="s">
         <v>65</v>
       </c>
       <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="25" t="s">
         <v>68</v>
       </c>
       <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="25" t="s">
         <v>71</v>
       </c>
       <c r="G12" s="20"/>
@@ -4999,16 +5079,16 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="25" t="s">
         <v>73</v>
       </c>
       <c r="G13" s="20"/>
@@ -5016,576 +5096,576 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="25" t="s">
         <v>77</v>
       </c>
       <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="25" t="s">
         <v>79</v>
       </c>
       <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="25" t="s">
         <v>81</v>
       </c>
       <c r="G16" s="20"/>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="25" t="s">
         <v>84</v>
       </c>
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="25" t="s">
         <v>87</v>
       </c>
       <c r="G18" s="20"/>
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="25" t="s">
         <v>89</v>
       </c>
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="25" t="s">
         <v>92</v>
       </c>
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="25" t="s">
         <v>95</v>
       </c>
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="25" t="s">
         <v>101</v>
       </c>
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="25" t="s">
         <v>103</v>
       </c>
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="25" t="s">
         <v>105</v>
       </c>
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="25" t="s">
         <v>108</v>
       </c>
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="25" t="s">
         <v>111</v>
       </c>
       <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="25" t="s">
         <v>114</v>
       </c>
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="25"/>
       <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="25" t="s">
         <v>118</v>
       </c>
       <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="28"/>
+      <c r="F32" s="25"/>
       <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="25" t="s">
         <v>121</v>
       </c>
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="25" t="s">
         <v>124</v>
       </c>
       <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="26" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="25" t="s">
         <v>127</v>
       </c>
       <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="26" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="F36" s="25" t="s">
         <v>130</v>
       </c>
       <c r="G36" s="20"/>
     </row>
     <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F37" s="28"/>
+      <c r="F37" s="25"/>
       <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="26" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="25" t="s">
         <v>134</v>
       </c>
       <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="26" t="s">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="25" t="s">
         <v>136</v>
       </c>
       <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26" t="s">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="F40" s="28"/>
+      <c r="F40" s="25"/>
       <c r="G40" s="20"/>
     </row>
     <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26" t="s">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F41" s="28" t="s">
+      <c r="F41" s="25" t="s">
         <v>140</v>
       </c>
       <c r="G41" s="20"/>
     </row>
     <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26" t="s">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="F42" s="25" t="s">
         <v>143</v>
       </c>
       <c r="G42" s="20"/>
     </row>
     <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="26" t="s">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="25" t="s">
         <v>146</v>
       </c>
       <c r="G43" s="20"/>
     </row>
     <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="26" t="s">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F44" s="25" t="s">
         <v>148</v>
       </c>
       <c r="G44" s="20"/>
     </row>
     <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="26" t="s">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E45" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F45" s="25" t="s">
         <v>150</v>
       </c>
       <c r="G45" s="20"/>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="26" t="s">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="F46" s="28" t="s">
+      <c r="F46" s="25" t="s">
         <v>154</v>
       </c>
       <c r="G46" s="20"/>
     </row>
     <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26" t="s">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="E47" s="27" t="s">
+      <c r="E47" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F47" s="28" t="s">
+      <c r="F47" s="25" t="s">
         <v>156</v>
       </c>
       <c r="G47" s="20"/>
     </row>
     <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="26" t="s">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="F48" s="28" t="s">
+      <c r="F48" s="25" t="s">
         <v>159</v>
       </c>
       <c r="G48" s="20"/>
     </row>
     <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="26" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="28" t="s">
+      <c r="F49" s="25" t="s">
         <v>161</v>
       </c>
       <c r="G49" s="20"/>
     </row>
     <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="26" t="s">
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="E50" s="27" t="s">
+      <c r="E50" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="F50" s="25" t="s">
         <v>163</v>
       </c>
       <c r="G50" s="20"/>
     </row>
     <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="26" t="s">
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="E51" s="27" t="s">
+      <c r="E51" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F51" s="28" t="s">
+      <c r="F51" s="25" t="s">
         <v>165</v>
       </c>
       <c r="G51" s="20"/>
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="26" t="s">
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="F52" s="28" t="s">
+      <c r="F52" s="25" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5593,13 +5673,13 @@
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="22"/>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="25" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5607,13 +5687,13 @@
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="F54" s="23" t="s">
+      <c r="F54" s="25" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5621,13 +5701,13 @@
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="F55" s="25" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5635,13 +5715,13 @@
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="22"/>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="F56" s="23" t="s">
+      <c r="F56" s="25" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5649,39 +5729,39 @@
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="22"/>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="E57" s="22" t="s">
+      <c r="E57" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="F57" s="23"/>
+      <c r="F57" s="25"/>
     </row>
     <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="22"/>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="E58" s="22" t="s">
+      <c r="E58" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="23" t="s">
+      <c r="F58" s="25" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="22"/>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="E59" s="22" t="s">
+      <c r="E59" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="25" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5689,13 +5769,13 @@
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="22"/>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F60" s="23" t="s">
+      <c r="F60" s="25" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5703,9 +5783,117 @@
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="23"/>
+      <c r="D61" s="49" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E61" s="24"/>
+      <c r="F61" s="25"/>
+    </row>
+    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="49" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E62" s="24"/>
+      <c r="F62" s="25"/>
+    </row>
+    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="25"/>
+    </row>
+    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="25"/>
+    </row>
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="23" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="23" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="23" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="23" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="25"/>
+    </row>
+    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="25"/>
+    </row>
+    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5724,253 +5912,272 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="62" customWidth="1"/>
     <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="43"/>
-      <c r="B1" s="50" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="43"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="43"/>
-      <c r="B2" s="51" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="57" t="s">
         <v>1067</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="52">
+      <c r="A3" s="34"/>
+      <c r="B3" s="58">
         <v>44683</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="46" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="37" t="s">
         <v>1072</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="38" t="s">
         <v>1073</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="39" t="s">
         <v>1074</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="39" t="s">
         <v>1075</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="39" t="s">
         <v>1076</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35">
         <v>32203</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="41" t="s">
         <v>1080</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="53" t="s">
+      <c r="D5" s="42" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="41" t="s">
         <v>1083</v>
       </c>
-      <c r="H5" s="43"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="53" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="41" t="s">
         <v>1081</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="43"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="43"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="35">
+        <v>36147</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="55" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="43" t="s">
         <v>1082</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="43"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="43"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="34"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="43"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="35">
+        <v>35811</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="43"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="43"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="43"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="43"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
-      <c r="B15" s="45">
+      <c r="A15" s="34"/>
+      <c r="B15" s="36">
         <v>38134</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="45" t="s">
         <v>1071</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="43"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="53" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="53" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="41" t="s">
         <v>1077</v>
       </c>
-      <c r="H16" s="43"/>
+      <c r="H16" s="34"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="53" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="43"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="30"/>
-      <c r="C18" s="58" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="46" t="s">
         <v>1066</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="46" t="s">
         <v>1078</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60" t="s">
+      <c r="E18" s="47"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="48" t="s">
         <v>1079</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="30"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
+      <c r="F19" s="61"/>
       <c r="G19" s="20"/>
     </row>
   </sheetData>
@@ -5990,8 +6197,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="B2:J161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6000,7 +6207,7 @@
       <c r="B2" t="s">
         <v>1063</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="32" t="s">
         <v>1064</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -6008,10 +6215,10 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="28" t="s">
         <v>194</v>
       </c>
       <c r="D4" t="s">
@@ -6026,1311 +6233,1311 @@
       <c r="G4" t="s">
         <v>198</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="30" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="28" t="s">
         <v>203</v>
       </c>
       <c r="D5" t="s">
         <v>204</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="28" t="s">
         <v>206</v>
       </c>
       <c r="G5" t="s">
         <v>207</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="29">
         <v>750907900001</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="30" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="28" t="s">
         <v>211</v>
       </c>
       <c r="D6" t="s">
         <v>204</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="28" t="s">
         <v>213</v>
       </c>
       <c r="G6" t="s">
         <v>214</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="29">
         <v>750907900002</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="30" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="28" t="s">
         <v>218</v>
       </c>
       <c r="D7" t="s">
         <v>204</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="28" t="s">
         <v>220</v>
       </c>
       <c r="G7" t="s">
         <v>221</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="29">
         <v>750907900003</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="30" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="28" t="s">
         <v>225</v>
       </c>
       <c r="D8" t="s">
         <v>204</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="28" t="s">
         <v>227</v>
       </c>
       <c r="G8" t="s">
         <v>228</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="29">
         <v>750907900004</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="30" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="28" t="s">
         <v>232</v>
       </c>
       <c r="D9" t="s">
         <v>204</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="28" t="s">
         <v>234</v>
       </c>
       <c r="G9" t="s">
         <v>235</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="29">
         <v>750907900005</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="30" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="28" t="s">
         <v>239</v>
       </c>
       <c r="D10" t="s">
         <v>204</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="28" t="s">
         <v>241</v>
       </c>
       <c r="G10" t="s">
         <v>235</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="29">
         <v>750907900006</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="30" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="28" t="s">
         <v>244</v>
       </c>
       <c r="D11" t="s">
         <v>204</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="28" t="s">
         <v>246</v>
       </c>
       <c r="G11" t="s">
         <v>247</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="29">
         <v>750907900007</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="30" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="28" t="s">
         <v>251</v>
       </c>
       <c r="D12" t="s">
         <v>252</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="28" t="s">
         <v>254</v>
       </c>
       <c r="G12" t="s">
         <v>255</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="29">
         <v>750907900008</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="28" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="28" t="s">
         <v>259</v>
       </c>
       <c r="D13" t="s">
         <v>252</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="28" t="s">
         <v>261</v>
       </c>
       <c r="G13" t="s">
         <v>262</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="29">
         <v>750907900009</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="30" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="28" t="s">
         <v>266</v>
       </c>
       <c r="D14" t="s">
         <v>252</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="28" t="s">
         <v>268</v>
       </c>
       <c r="G14" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="29">
         <v>750907900010</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="30" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="28" t="s">
         <v>273</v>
       </c>
       <c r="D15" t="s">
         <v>252</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="28" t="s">
         <v>275</v>
       </c>
       <c r="G15" t="s">
         <v>276</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="29">
         <v>750907900011</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="30" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="28" t="s">
         <v>280</v>
       </c>
       <c r="D16" t="s">
         <v>252</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="28" t="s">
         <v>206</v>
       </c>
       <c r="G16" t="s">
         <v>282</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="29">
         <v>750907900012</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="30" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="28" t="s">
         <v>286</v>
       </c>
       <c r="D17" t="s">
         <v>252</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="28" t="s">
         <v>213</v>
       </c>
       <c r="G17" t="s">
         <v>288</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="29">
         <v>750907900013</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J17" s="30" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="28" t="s">
         <v>292</v>
       </c>
       <c r="D18" t="s">
         <v>252</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="28" t="s">
         <v>220</v>
       </c>
       <c r="G18" t="s">
         <v>294</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="29">
         <v>750907900014</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="J18" s="30" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="28" t="s">
         <v>298</v>
       </c>
       <c r="D19" t="s">
         <v>252</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="28" t="s">
         <v>227</v>
       </c>
       <c r="G19" t="s">
         <v>300</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="29">
         <v>750907900015</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="J19" s="30" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="28" t="s">
         <v>304</v>
       </c>
       <c r="D20" t="s">
         <v>252</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="28" t="s">
         <v>234</v>
       </c>
       <c r="G20" t="s">
         <v>306</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="29">
         <v>750907900016</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="J20" s="30" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="28" t="s">
         <v>310</v>
       </c>
       <c r="D21" t="s">
         <v>252</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="28" t="s">
         <v>241</v>
       </c>
       <c r="G21" t="s">
         <v>312</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="29">
         <v>750907900017</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="30" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="28" t="s">
         <v>316</v>
       </c>
       <c r="D22" t="s">
         <v>252</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="28" t="s">
         <v>318</v>
       </c>
       <c r="G22" t="s">
         <v>319</v>
       </c>
-      <c r="H22" s="31" t="s">
+      <c r="H22" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="I22" s="32">
+      <c r="I22" s="29">
         <v>750907900018</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="J22" s="30" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="28" t="s">
         <v>323</v>
       </c>
       <c r="D23" t="s">
         <v>252</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="28" t="s">
         <v>325</v>
       </c>
       <c r="G23" t="s">
         <v>326</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="I23" s="32">
+      <c r="I23" s="29">
         <v>750907900019</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="J23" s="30" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="28" t="s">
         <v>330</v>
       </c>
       <c r="D24" t="s">
         <v>252</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="28" t="s">
         <v>246</v>
       </c>
       <c r="G24" t="s">
         <v>332</v>
       </c>
-      <c r="H24" s="31" t="s">
+      <c r="H24" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="I24" s="32">
+      <c r="I24" s="29">
         <v>750907900020</v>
       </c>
-      <c r="J24" s="33" t="s">
+      <c r="J24" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="28" t="s">
         <v>336</v>
       </c>
       <c r="D25" t="s">
         <v>252</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="28" t="s">
         <v>338</v>
       </c>
       <c r="G25" t="s">
         <v>339</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H25" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="29">
         <v>750907900021</v>
       </c>
-      <c r="J25" s="33" t="s">
+      <c r="J25" s="30" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="28" t="s">
         <v>343</v>
       </c>
       <c r="D26" t="s">
         <v>252</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="28" t="s">
         <v>345</v>
       </c>
       <c r="G26" t="s">
         <v>346</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="H26" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="I26" s="32">
+      <c r="I26" s="29">
         <v>750907900022</v>
       </c>
-      <c r="J26" s="33" t="s">
+      <c r="J26" s="30" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="28" t="s">
         <v>350</v>
       </c>
       <c r="D27" t="s">
         <v>252</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="28" t="s">
         <v>352</v>
       </c>
       <c r="G27" t="s">
         <v>353</v>
       </c>
-      <c r="H27" s="31" t="s">
+      <c r="H27" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="I27" s="32">
+      <c r="I27" s="29">
         <v>750907900023</v>
       </c>
-      <c r="J27" s="33" t="s">
+      <c r="J27" s="30" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="28" t="s">
         <v>357</v>
       </c>
       <c r="D28" t="s">
         <v>252</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="28" t="s">
         <v>359</v>
       </c>
       <c r="G28" t="s">
         <v>360</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="H28" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="I28" s="32">
+      <c r="I28" s="29">
         <v>750907900024</v>
       </c>
-      <c r="J28" s="33" t="s">
+      <c r="J28" s="30" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="28" t="s">
         <v>364</v>
       </c>
       <c r="D29" t="s">
         <v>365</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F29" s="28" t="s">
         <v>206</v>
       </c>
       <c r="G29" t="s">
         <v>367</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="28" t="s">
         <v>368</v>
       </c>
-      <c r="I29" s="32">
+      <c r="I29" s="29">
         <v>750907900025</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="J29" s="30" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="28" t="s">
         <v>371</v>
       </c>
       <c r="D30" t="s">
         <v>365</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="28" t="s">
         <v>372</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="28" t="s">
         <v>213</v>
       </c>
       <c r="G30" t="s">
         <v>373</v>
       </c>
-      <c r="H30" s="31" t="s">
+      <c r="H30" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="I30" s="32">
+      <c r="I30" s="29">
         <v>750907900026</v>
       </c>
-      <c r="J30" s="33" t="s">
+      <c r="J30" s="30" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="28" t="s">
         <v>376</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="28" t="s">
         <v>377</v>
       </c>
       <c r="D31" t="s">
         <v>365</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="28" t="s">
         <v>234</v>
       </c>
       <c r="G31" t="s">
         <v>379</v>
       </c>
-      <c r="H31" s="31" t="s">
+      <c r="H31" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="I31" s="32">
+      <c r="I31" s="29">
         <v>750907900027</v>
       </c>
-      <c r="J31" s="33" t="s">
+      <c r="J31" s="30" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="28" t="s">
         <v>383</v>
       </c>
       <c r="D32" t="s">
         <v>365</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="28" t="s">
         <v>384</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="28" t="s">
         <v>241</v>
       </c>
       <c r="G32" t="s">
         <v>385</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H32" s="28" t="s">
         <v>386</v>
       </c>
-      <c r="I32" s="32">
+      <c r="I32" s="29">
         <v>750907900028</v>
       </c>
-      <c r="J32" s="33" t="s">
+      <c r="J32" s="30" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="28" t="s">
         <v>389</v>
       </c>
       <c r="D33" t="s">
         <v>365</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="28" t="s">
         <v>390</v>
       </c>
-      <c r="F33" s="31" t="s">
+      <c r="F33" s="28" t="s">
         <v>318</v>
       </c>
       <c r="G33" t="s">
         <v>391</v>
       </c>
-      <c r="H33" s="31" t="s">
+      <c r="H33" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="I33" s="32">
+      <c r="I33" s="29">
         <v>750907900029</v>
       </c>
-      <c r="J33" s="33" t="s">
+      <c r="J33" s="30" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="28" t="s">
         <v>395</v>
       </c>
       <c r="D34" t="s">
         <v>365</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="F34" s="28" t="s">
         <v>246</v>
       </c>
       <c r="G34" t="s">
         <v>397</v>
       </c>
-      <c r="H34" s="31" t="s">
+      <c r="H34" s="28" t="s">
         <v>398</v>
       </c>
-      <c r="I34" s="32">
+      <c r="I34" s="29">
         <v>750907900030</v>
       </c>
-      <c r="J34" s="33" t="s">
+      <c r="J34" s="30" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="28" t="s">
         <v>401</v>
       </c>
       <c r="D35" t="s">
         <v>402</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="28" t="s">
         <v>403</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="F35" s="28" t="s">
         <v>254</v>
       </c>
       <c r="G35" t="s">
         <v>404</v>
       </c>
-      <c r="H35" s="31" t="s">
+      <c r="H35" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="I35" s="32">
+      <c r="I35" s="29">
         <v>750907900031</v>
       </c>
-      <c r="J35" s="33" t="s">
+      <c r="J35" s="30" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="28" t="s">
         <v>408</v>
       </c>
       <c r="D36" t="s">
         <v>402</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="F36" s="31" t="s">
+      <c r="F36" s="28" t="s">
         <v>261</v>
       </c>
       <c r="G36" t="s">
         <v>410</v>
       </c>
-      <c r="H36" s="31" t="s">
+      <c r="H36" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="I36" s="32">
+      <c r="I36" s="29">
         <v>750907900032</v>
       </c>
-      <c r="J36" s="33" t="s">
+      <c r="J36" s="30" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="28" t="s">
         <v>414</v>
       </c>
       <c r="D37" t="s">
         <v>402</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="F37" s="31" t="s">
+      <c r="F37" s="28" t="s">
         <v>268</v>
       </c>
       <c r="G37" t="s">
         <v>416</v>
       </c>
-      <c r="H37" s="31" t="s">
+      <c r="H37" s="28" t="s">
         <v>417</v>
       </c>
-      <c r="I37" s="32">
+      <c r="I37" s="29">
         <v>750907900033</v>
       </c>
-      <c r="J37" s="33" t="s">
+      <c r="J37" s="30" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="28" t="s">
         <v>420</v>
       </c>
       <c r="D38" t="s">
         <v>402</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="28" t="s">
         <v>421</v>
       </c>
-      <c r="F38" s="31" t="s">
+      <c r="F38" s="28" t="s">
         <v>275</v>
       </c>
       <c r="G38" t="s">
         <v>422</v>
       </c>
-      <c r="H38" s="31" t="s">
+      <c r="H38" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="I38" s="32">
+      <c r="I38" s="29">
         <v>750907900034</v>
       </c>
-      <c r="J38" s="33"/>
+      <c r="J38" s="30"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="28" t="s">
         <v>424</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="28" t="s">
         <v>425</v>
       </c>
       <c r="D39" t="s">
         <v>402</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="28" t="s">
         <v>426</v>
       </c>
-      <c r="F39" s="31" t="s">
+      <c r="F39" s="28" t="s">
         <v>206</v>
       </c>
       <c r="G39" t="s">
         <v>427</v>
       </c>
-      <c r="H39" s="31" t="s">
+      <c r="H39" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="I39" s="32">
+      <c r="I39" s="29">
         <v>750907900035</v>
       </c>
-      <c r="J39" s="33"/>
+      <c r="J39" s="30"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="28" t="s">
         <v>429</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="28" t="s">
         <v>430</v>
       </c>
       <c r="D40" t="s">
         <v>402</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="28" t="s">
         <v>431</v>
       </c>
-      <c r="F40" s="31" t="s">
+      <c r="F40" s="28" t="s">
         <v>213</v>
       </c>
       <c r="G40" t="s">
         <v>432</v>
       </c>
-      <c r="H40" s="31" t="s">
+      <c r="H40" s="28" t="s">
         <v>433</v>
       </c>
-      <c r="I40" s="32">
+      <c r="I40" s="29">
         <v>750907900036</v>
       </c>
-      <c r="J40" s="33"/>
+      <c r="J40" s="30"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="28" t="s">
         <v>434</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="28" t="s">
         <v>435</v>
       </c>
       <c r="D41" t="s">
         <v>402</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E41" s="28" t="s">
         <v>436</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="28" t="s">
         <v>437</v>
       </c>
       <c r="G41" t="s">
         <v>438</v>
       </c>
-      <c r="H41" s="31" t="s">
+      <c r="H41" s="28" t="s">
         <v>439</v>
       </c>
-      <c r="I41" s="32">
+      <c r="I41" s="29">
         <v>750907900037</v>
       </c>
-      <c r="J41" s="33"/>
+      <c r="J41" s="30"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="28" t="s">
         <v>441</v>
       </c>
       <c r="D42" t="s">
         <v>402</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="F42" s="31" t="s">
+      <c r="F42" s="28" t="s">
         <v>443</v>
       </c>
       <c r="G42" t="s">
         <v>444</v>
       </c>
-      <c r="H42" s="31" t="s">
+      <c r="H42" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="I42" s="32">
+      <c r="I42" s="29">
         <v>750907900038</v>
       </c>
-      <c r="J42" s="33"/>
+      <c r="J42" s="30"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="28" t="s">
         <v>446</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="28" t="s">
         <v>447</v>
       </c>
       <c r="D43" t="s">
         <v>402</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="28" t="s">
         <v>448</v>
       </c>
-      <c r="F43" s="31" t="s">
+      <c r="F43" s="28" t="s">
         <v>246</v>
       </c>
       <c r="G43" t="s">
         <v>444</v>
       </c>
-      <c r="H43" s="31" t="s">
+      <c r="H43" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="I43" s="32">
+      <c r="I43" s="29">
         <v>750907900039</v>
       </c>
-      <c r="J43" s="33"/>
+      <c r="J43" s="30"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="28" t="s">
         <v>451</v>
       </c>
       <c r="D44" t="s">
         <v>402</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="F44" s="31" t="s">
+      <c r="F44" s="28" t="s">
         <v>453</v>
       </c>
       <c r="G44" t="s">
         <v>454</v>
       </c>
-      <c r="H44" s="31" t="s">
+      <c r="H44" s="28" t="s">
         <v>455</v>
       </c>
-      <c r="I44" s="32">
+      <c r="I44" s="29">
         <v>750907900040</v>
       </c>
-      <c r="J44" s="33"/>
+      <c r="J44" s="30"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="28" t="s">
         <v>456</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="28" t="s">
         <v>457</v>
       </c>
       <c r="D45" t="s">
         <v>402</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="E45" s="28" t="s">
         <v>458</v>
       </c>
-      <c r="F45" s="31" t="s">
+      <c r="F45" s="28" t="s">
         <v>459</v>
       </c>
       <c r="G45" t="s">
         <v>460</v>
       </c>
-      <c r="H45" s="31" t="s">
+      <c r="H45" s="28" t="s">
         <v>461</v>
       </c>
-      <c r="I45" s="32">
+      <c r="I45" s="29">
         <v>750907900041</v>
       </c>
-      <c r="J45" s="33"/>
+      <c r="J45" s="30"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="28" t="s">
         <v>463</v>
       </c>
       <c r="D46" t="s">
         <v>364</v>
       </c>
-      <c r="E46" s="31" t="s">
+      <c r="E46" s="28" t="s">
         <v>464</v>
       </c>
-      <c r="F46" s="31" t="s">
+      <c r="F46" s="28" t="s">
         <v>254</v>
       </c>
       <c r="G46" t="s">
         <v>465</v>
       </c>
-      <c r="H46" s="31" t="s">
+      <c r="H46" s="28" t="s">
         <v>466</v>
       </c>
-      <c r="I46" s="32">
+      <c r="I46" s="29">
         <v>750907900042</v>
       </c>
-      <c r="J46" s="33"/>
+      <c r="J46" s="30"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="28" t="s">
         <v>467</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="28" t="s">
         <v>402</v>
       </c>
       <c r="D47" t="s">
         <v>364</v>
       </c>
-      <c r="E47" s="31" t="s">
+      <c r="E47" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="F47" s="31" t="s">
+      <c r="F47" s="28" t="s">
         <v>261</v>
       </c>
       <c r="G47" t="s">
         <v>469</v>
       </c>
-      <c r="H47" s="31" t="s">
+      <c r="H47" s="28" t="s">
         <v>470</v>
       </c>
-      <c r="I47" s="32">
+      <c r="I47" s="29">
         <v>750907900043</v>
       </c>
-      <c r="J47" s="33"/>
+      <c r="J47" s="30"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="28" t="s">
         <v>471</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="28" t="s">
         <v>472</v>
       </c>
       <c r="D48" t="s">
         <v>364</v>
       </c>
-      <c r="E48" s="31" t="s">
+      <c r="E48" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="F48" s="31" t="s">
+      <c r="F48" s="28" t="s">
         <v>268</v>
       </c>
       <c r="G48" t="s">
         <v>474</v>
       </c>
-      <c r="H48" s="31" t="s">
+      <c r="H48" s="28" t="s">
         <v>475</v>
       </c>
-      <c r="I48" s="32">
+      <c r="I48" s="29">
         <v>750907900044</v>
       </c>
-      <c r="J48" s="33"/>
+      <c r="J48" s="30"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="28" t="s">
         <v>476</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="28" t="s">
         <v>477</v>
       </c>
       <c r="D49" t="s">
         <v>364</v>
       </c>
-      <c r="E49" s="31" t="s">
+      <c r="E49" s="28" t="s">
         <v>478</v>
       </c>
-      <c r="F49" s="31" t="s">
+      <c r="F49" s="28" t="s">
         <v>275</v>
       </c>
       <c r="G49" t="s">
         <v>479</v>
       </c>
-      <c r="H49" s="31" t="s">
+      <c r="H49" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="I49" s="32">
+      <c r="I49" s="29">
         <v>750907900045</v>
       </c>
-      <c r="J49" s="33"/>
+      <c r="J49" s="30"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="28" t="s">
         <v>481</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="28" t="s">
         <v>482</v>
       </c>
       <c r="D50" t="s">
         <v>364</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="E50" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="F50" s="31" t="s">
+      <c r="F50" s="28" t="s">
         <v>484</v>
       </c>
       <c r="G50" t="s">
@@ -7339,2891 +7546,2891 @@
       <c r="H50" t="s">
         <v>486</v>
       </c>
-      <c r="I50" s="32">
+      <c r="I50" s="29">
         <v>750907900046</v>
       </c>
-      <c r="J50" s="33"/>
+      <c r="J50" s="30"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="28" t="s">
         <v>488</v>
       </c>
       <c r="D51" t="s">
         <v>364</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="E51" s="28" t="s">
         <v>489</v>
       </c>
-      <c r="F51" s="31" t="s">
+      <c r="F51" s="28" t="s">
         <v>490</v>
       </c>
       <c r="G51" t="s">
         <v>491</v>
       </c>
-      <c r="H51" s="31" t="s">
+      <c r="H51" s="28" t="s">
         <v>492</v>
       </c>
-      <c r="I51" s="32">
+      <c r="I51" s="29">
         <v>750907900047</v>
       </c>
-      <c r="J51" s="33"/>
+      <c r="J51" s="30"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="28" t="s">
         <v>493</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="28" t="s">
         <v>494</v>
       </c>
       <c r="D52" t="s">
         <v>292</v>
       </c>
-      <c r="E52" s="31" t="s">
+      <c r="E52" s="28" t="s">
         <v>495</v>
       </c>
-      <c r="F52" s="31" t="s">
+      <c r="F52" s="28" t="s">
         <v>254</v>
       </c>
       <c r="G52" t="s">
         <v>496</v>
       </c>
-      <c r="H52" s="31" t="s">
+      <c r="H52" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="I52" s="32">
+      <c r="I52" s="29">
         <v>750907900048</v>
       </c>
-      <c r="J52" s="33"/>
+      <c r="J52" s="30"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="28" t="s">
         <v>498</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="28" t="s">
         <v>499</v>
       </c>
       <c r="D53" t="s">
         <v>292</v>
       </c>
-      <c r="E53" s="31" t="s">
+      <c r="E53" s="28" t="s">
         <v>500</v>
       </c>
-      <c r="F53" s="31" t="s">
+      <c r="F53" s="28" t="s">
         <v>261</v>
       </c>
       <c r="G53" t="s">
         <v>501</v>
       </c>
-      <c r="H53" s="31" t="s">
+      <c r="H53" s="28" t="s">
         <v>502</v>
       </c>
-      <c r="I53" s="32">
+      <c r="I53" s="29">
         <v>750907900049</v>
       </c>
-      <c r="J53" s="33"/>
+      <c r="J53" s="30"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="28" t="s">
         <v>503</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="28" t="s">
         <v>504</v>
       </c>
       <c r="D54" t="s">
         <v>292</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="E54" s="28" t="s">
         <v>505</v>
       </c>
-      <c r="F54" s="31" t="s">
+      <c r="F54" s="28" t="s">
         <v>268</v>
       </c>
       <c r="G54" t="s">
         <v>506</v>
       </c>
-      <c r="H54" s="31" t="s">
+      <c r="H54" s="28" t="s">
         <v>507</v>
       </c>
-      <c r="I54" s="32">
+      <c r="I54" s="29">
         <v>750907900050</v>
       </c>
-      <c r="J54" s="33"/>
+      <c r="J54" s="30"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="28" t="s">
         <v>508</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="28" t="s">
         <v>509</v>
       </c>
       <c r="D55" t="s">
         <v>292</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="28" t="s">
         <v>510</v>
       </c>
-      <c r="F55" s="31" t="s">
+      <c r="F55" s="28" t="s">
         <v>275</v>
       </c>
       <c r="G55" t="s">
         <v>506</v>
       </c>
-      <c r="H55" s="31" t="s">
+      <c r="H55" s="28" t="s">
         <v>511</v>
       </c>
-      <c r="I55" s="32">
+      <c r="I55" s="29">
         <v>750907900051</v>
       </c>
-      <c r="J55" s="33"/>
+      <c r="J55" s="30"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="28" t="s">
         <v>513</v>
       </c>
       <c r="D56" t="s">
         <v>292</v>
       </c>
-      <c r="E56" s="31" t="s">
+      <c r="E56" s="28" t="s">
         <v>514</v>
       </c>
-      <c r="F56" s="31" t="s">
+      <c r="F56" s="28" t="s">
         <v>484</v>
       </c>
       <c r="G56" t="s">
         <v>506</v>
       </c>
-      <c r="H56" s="31" t="s">
+      <c r="H56" s="28" t="s">
         <v>515</v>
       </c>
-      <c r="I56" s="32">
+      <c r="I56" s="29">
         <v>750907900052</v>
       </c>
-      <c r="J56" s="33"/>
+      <c r="J56" s="30"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="28" t="s">
         <v>516</v>
       </c>
-      <c r="C57" s="34">
+      <c r="C57" s="31">
         <v>171</v>
       </c>
       <c r="D57" t="s">
         <v>517</v>
       </c>
-      <c r="E57" s="31" t="s">
+      <c r="E57" s="28" t="s">
         <v>518</v>
       </c>
-      <c r="F57" s="31" t="s">
+      <c r="F57" s="28" t="s">
         <v>254</v>
       </c>
       <c r="G57" t="s">
         <v>519</v>
       </c>
-      <c r="H57" s="31" t="s">
+      <c r="H57" s="28" t="s">
         <v>520</v>
       </c>
-      <c r="I57" s="32">
+      <c r="I57" s="29">
         <v>750907900053</v>
       </c>
-      <c r="J57" s="33"/>
+      <c r="J57" s="30"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="28" t="s">
         <v>521</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="28" t="s">
         <v>522</v>
       </c>
       <c r="D58" t="s">
         <v>517</v>
       </c>
-      <c r="E58" s="31" t="s">
+      <c r="E58" s="28" t="s">
         <v>523</v>
       </c>
-      <c r="F58" s="31" t="s">
+      <c r="F58" s="28" t="s">
         <v>261</v>
       </c>
       <c r="G58" t="s">
         <v>524</v>
       </c>
-      <c r="H58" s="31" t="s">
+      <c r="H58" s="28" t="s">
         <v>525</v>
       </c>
-      <c r="I58" s="32">
+      <c r="I58" s="29">
         <v>750907900054</v>
       </c>
-      <c r="J58" s="33"/>
+      <c r="J58" s="30"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="28" t="s">
         <v>526</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="28" t="s">
         <v>527</v>
       </c>
       <c r="D59" t="s">
         <v>517</v>
       </c>
-      <c r="E59" s="31" t="s">
+      <c r="E59" s="28" t="s">
         <v>528</v>
       </c>
-      <c r="F59" s="31" t="s">
+      <c r="F59" s="28" t="s">
         <v>268</v>
       </c>
       <c r="G59" t="s">
         <v>529</v>
       </c>
-      <c r="H59" s="31" t="s">
+      <c r="H59" s="28" t="s">
         <v>530</v>
       </c>
-      <c r="I59" s="32">
+      <c r="I59" s="29">
         <v>750907900055</v>
       </c>
-      <c r="J59" s="33" t="s">
+      <c r="J59" s="30" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="28" t="s">
         <v>532</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="28" t="s">
         <v>533</v>
       </c>
       <c r="D60" t="s">
         <v>517</v>
       </c>
-      <c r="E60" s="31" t="s">
+      <c r="E60" s="28" t="s">
         <v>534</v>
       </c>
-      <c r="F60" s="31" t="s">
+      <c r="F60" s="28" t="s">
         <v>275</v>
       </c>
       <c r="G60" t="s">
         <v>535</v>
       </c>
-      <c r="H60" s="31" t="s">
+      <c r="H60" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="I60" s="32">
+      <c r="I60" s="29">
         <v>750907900056</v>
       </c>
-      <c r="J60" s="33" t="s">
+      <c r="J60" s="30" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="28" t="s">
         <v>538</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="28" t="s">
         <v>539</v>
       </c>
       <c r="D61" t="s">
         <v>540</v>
       </c>
-      <c r="E61" s="31" t="s">
+      <c r="E61" s="28" t="s">
         <v>541</v>
       </c>
-      <c r="F61" s="31" t="s">
+      <c r="F61" s="28" t="s">
         <v>254</v>
       </c>
       <c r="G61" t="s">
         <v>542</v>
       </c>
-      <c r="H61" s="31" t="s">
+      <c r="H61" s="28" t="s">
         <v>543</v>
       </c>
-      <c r="I61" s="32">
+      <c r="I61" s="29">
         <v>750907900057</v>
       </c>
-      <c r="J61" s="33" t="s">
+      <c r="J61" s="30" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="28" t="s">
         <v>546</v>
       </c>
       <c r="D62" t="s">
         <v>540</v>
       </c>
-      <c r="E62" s="31" t="s">
+      <c r="E62" s="28" t="s">
         <v>547</v>
       </c>
-      <c r="F62" s="31" t="s">
+      <c r="F62" s="28" t="s">
         <v>261</v>
       </c>
       <c r="G62" t="s">
         <v>548</v>
       </c>
-      <c r="H62" s="31" t="s">
+      <c r="H62" s="28" t="s">
         <v>549</v>
       </c>
-      <c r="I62" s="32">
+      <c r="I62" s="29">
         <v>750907900058</v>
       </c>
-      <c r="J62" s="33" t="s">
+      <c r="J62" s="30" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="28" t="s">
         <v>551</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="28" t="s">
         <v>552</v>
       </c>
       <c r="D63" t="s">
         <v>540</v>
       </c>
-      <c r="E63" s="31" t="s">
+      <c r="E63" s="28" t="s">
         <v>553</v>
       </c>
-      <c r="F63" s="31" t="s">
+      <c r="F63" s="28" t="s">
         <v>268</v>
       </c>
       <c r="G63" t="s">
         <v>554</v>
       </c>
-      <c r="H63" s="31" t="s">
+      <c r="H63" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="I63" s="32">
+      <c r="I63" s="29">
         <v>750907900059</v>
       </c>
-      <c r="J63" s="33" t="s">
+      <c r="J63" s="30" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="28" t="s">
         <v>558</v>
       </c>
       <c r="D64" t="s">
         <v>540</v>
       </c>
-      <c r="E64" s="31" t="s">
+      <c r="E64" s="28" t="s">
         <v>559</v>
       </c>
-      <c r="F64" s="31" t="s">
+      <c r="F64" s="28" t="s">
         <v>275</v>
       </c>
       <c r="G64" t="s">
         <v>554</v>
       </c>
-      <c r="H64" s="31" t="s">
+      <c r="H64" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="I64" s="32">
+      <c r="I64" s="29">
         <v>750907900060</v>
       </c>
-      <c r="J64" s="33" t="s">
+      <c r="J64" s="30" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="28" t="s">
         <v>562</v>
       </c>
       <c r="D65" t="s">
         <v>540</v>
       </c>
-      <c r="E65" s="31" t="s">
+      <c r="E65" s="28" t="s">
         <v>563</v>
       </c>
-      <c r="F65" s="31" t="s">
+      <c r="F65" s="28" t="s">
         <v>206</v>
       </c>
       <c r="G65" t="s">
         <v>564</v>
       </c>
-      <c r="H65" s="31" t="s">
+      <c r="H65" s="28" t="s">
         <v>565</v>
       </c>
-      <c r="I65" s="32">
+      <c r="I65" s="29">
         <v>750907900061</v>
       </c>
-      <c r="J65" s="33"/>
+      <c r="J65" s="30"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="28" t="s">
         <v>567</v>
       </c>
       <c r="D66" t="s">
         <v>540</v>
       </c>
-      <c r="E66" s="31" t="s">
+      <c r="E66" s="28" t="s">
         <v>568</v>
       </c>
-      <c r="F66" s="31" t="s">
+      <c r="F66" s="28" t="s">
         <v>213</v>
       </c>
       <c r="G66" t="s">
         <v>569</v>
       </c>
-      <c r="H66" s="31" t="s">
+      <c r="H66" s="28" t="s">
         <v>570</v>
       </c>
-      <c r="I66" s="32">
+      <c r="I66" s="29">
         <v>750907900062</v>
       </c>
-      <c r="J66" s="33"/>
+      <c r="J66" s="30"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="28" t="s">
         <v>571</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="28" t="s">
         <v>572</v>
       </c>
       <c r="D67" t="s">
         <v>540</v>
       </c>
-      <c r="E67" s="31" t="s">
+      <c r="E67" s="28" t="s">
         <v>573</v>
       </c>
-      <c r="F67" s="31" t="s">
+      <c r="F67" s="28" t="s">
         <v>234</v>
       </c>
       <c r="G67" t="s">
         <v>574</v>
       </c>
-      <c r="H67" s="31" t="s">
+      <c r="H67" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="I67" s="32">
+      <c r="I67" s="29">
         <v>750907900063</v>
       </c>
-      <c r="J67" s="33"/>
+      <c r="J67" s="30"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="28" t="s">
         <v>576</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="28" t="s">
         <v>577</v>
       </c>
       <c r="D68" t="s">
         <v>540</v>
       </c>
-      <c r="E68" s="31" t="s">
+      <c r="E68" s="28" t="s">
         <v>578</v>
       </c>
-      <c r="F68" s="31" t="s">
+      <c r="F68" s="28" t="s">
         <v>241</v>
       </c>
       <c r="G68" t="s">
         <v>579</v>
       </c>
-      <c r="H68" s="31" t="s">
+      <c r="H68" s="28" t="s">
         <v>580</v>
       </c>
-      <c r="I68" s="32">
+      <c r="I68" s="29">
         <v>750907900064</v>
       </c>
-      <c r="J68" s="33" t="s">
+      <c r="J68" s="30" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="28" t="s">
         <v>582</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="28" t="s">
         <v>583</v>
       </c>
       <c r="D69" t="s">
         <v>540</v>
       </c>
-      <c r="E69" s="31" t="s">
+      <c r="E69" s="28" t="s">
         <v>584</v>
       </c>
-      <c r="F69" s="31" t="s">
+      <c r="F69" s="28" t="s">
         <v>437</v>
       </c>
       <c r="G69" t="s">
         <v>585</v>
       </c>
-      <c r="H69" s="31" t="s">
+      <c r="H69" s="28" t="s">
         <v>586</v>
       </c>
-      <c r="I69" s="32">
+      <c r="I69" s="29">
         <v>750907900065</v>
       </c>
-      <c r="J69" s="33" t="s">
+      <c r="J69" s="30" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="28" t="s">
         <v>588</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="28" t="s">
         <v>589</v>
       </c>
       <c r="D70" t="s">
         <v>540</v>
       </c>
-      <c r="E70" s="31" t="s">
+      <c r="E70" s="28" t="s">
         <v>590</v>
       </c>
-      <c r="F70" s="31" t="s">
+      <c r="F70" s="28" t="s">
         <v>443</v>
       </c>
       <c r="G70" t="s">
         <v>591</v>
       </c>
-      <c r="H70" s="31" t="s">
+      <c r="H70" s="28" t="s">
         <v>592</v>
       </c>
-      <c r="I70" s="32">
+      <c r="I70" s="29">
         <v>750907900066</v>
       </c>
-      <c r="J70" s="33" t="s">
+      <c r="J70" s="30" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="28" t="s">
         <v>594</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="28" t="s">
         <v>595</v>
       </c>
       <c r="D71" t="s">
         <v>540</v>
       </c>
-      <c r="E71" s="31" t="s">
+      <c r="E71" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="F71" s="31" t="s">
+      <c r="F71" s="28" t="s">
         <v>325</v>
       </c>
       <c r="G71" t="s">
         <v>597</v>
       </c>
-      <c r="H71" s="31" t="s">
+      <c r="H71" s="28" t="s">
         <v>598</v>
       </c>
-      <c r="I71" s="32">
+      <c r="I71" s="29">
         <v>750907900067</v>
       </c>
-      <c r="J71" s="33" t="s">
+      <c r="J71" s="30" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="28" t="s">
         <v>600</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C72" s="28" t="s">
         <v>601</v>
       </c>
       <c r="D72" t="s">
         <v>540</v>
       </c>
-      <c r="E72" s="31" t="s">
+      <c r="E72" s="28" t="s">
         <v>602</v>
       </c>
-      <c r="F72" s="31" t="s">
+      <c r="F72" s="28" t="s">
         <v>246</v>
       </c>
       <c r="G72" t="s">
         <v>603</v>
       </c>
-      <c r="H72" s="31" t="s">
+      <c r="H72" s="28" t="s">
         <v>604</v>
       </c>
-      <c r="I72" s="32">
+      <c r="I72" s="29">
         <v>750907900068</v>
       </c>
-      <c r="J72" s="33" t="s">
+      <c r="J72" s="30" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="28" t="s">
         <v>606</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="C73" s="28" t="s">
         <v>607</v>
       </c>
       <c r="D73" t="s">
         <v>540</v>
       </c>
-      <c r="E73" s="31" t="s">
+      <c r="E73" s="28" t="s">
         <v>608</v>
       </c>
-      <c r="F73" s="31" t="s">
+      <c r="F73" s="28" t="s">
         <v>338</v>
       </c>
       <c r="G73" t="s">
         <v>609</v>
       </c>
-      <c r="H73" s="31" t="s">
+      <c r="H73" s="28" t="s">
         <v>610</v>
       </c>
-      <c r="I73" s="32">
+      <c r="I73" s="29">
         <v>750907900069</v>
       </c>
-      <c r="J73" s="33" t="s">
+      <c r="J73" s="30" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="28" t="s">
         <v>612</v>
       </c>
-      <c r="C74" s="31" t="s">
+      <c r="C74" s="28" t="s">
         <v>613</v>
       </c>
       <c r="D74" t="s">
         <v>614</v>
       </c>
-      <c r="E74" s="31" t="s">
+      <c r="E74" s="28" t="s">
         <v>615</v>
       </c>
-      <c r="F74" s="31" t="s">
+      <c r="F74" s="28" t="s">
         <v>254</v>
       </c>
       <c r="G74" t="s">
         <v>616</v>
       </c>
-      <c r="H74" s="31" t="s">
+      <c r="H74" s="28" t="s">
         <v>617</v>
       </c>
-      <c r="I74" s="32">
+      <c r="I74" s="29">
         <v>750907900070</v>
       </c>
-      <c r="J74" s="33" t="s">
+      <c r="J74" s="30" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="28" t="s">
         <v>619</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="28" t="s">
         <v>620</v>
       </c>
       <c r="D75" t="s">
         <v>614</v>
       </c>
-      <c r="E75" s="31" t="s">
+      <c r="E75" s="28" t="s">
         <v>621</v>
       </c>
-      <c r="F75" s="31" t="s">
+      <c r="F75" s="28" t="s">
         <v>261</v>
       </c>
       <c r="G75" t="s">
         <v>622</v>
       </c>
-      <c r="H75" s="31" t="s">
+      <c r="H75" s="28" t="s">
         <v>623</v>
       </c>
-      <c r="I75" s="32">
+      <c r="I75" s="29">
         <v>750907900071</v>
       </c>
-      <c r="J75" s="33" t="s">
+      <c r="J75" s="30" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="28" t="s">
         <v>625</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="28" t="s">
         <v>626</v>
       </c>
       <c r="D76" t="s">
         <v>614</v>
       </c>
-      <c r="E76" s="31" t="s">
+      <c r="E76" s="28" t="s">
         <v>627</v>
       </c>
-      <c r="F76" s="31" t="s">
+      <c r="F76" s="28" t="s">
         <v>268</v>
       </c>
       <c r="G76" t="s">
         <v>628</v>
       </c>
-      <c r="H76" s="31" t="s">
+      <c r="H76" s="28" t="s">
         <v>629</v>
       </c>
-      <c r="I76" s="32">
+      <c r="I76" s="29">
         <v>750907900072</v>
       </c>
-      <c r="J76" s="33" t="s">
+      <c r="J76" s="30" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="28" t="s">
         <v>631</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="28" t="s">
         <v>517</v>
       </c>
       <c r="D77" t="s">
         <v>614</v>
       </c>
-      <c r="E77" s="31" t="s">
+      <c r="E77" s="28" t="s">
         <v>632</v>
       </c>
-      <c r="F77" s="31" t="s">
+      <c r="F77" s="28" t="s">
         <v>275</v>
       </c>
       <c r="G77" t="s">
         <v>633</v>
       </c>
-      <c r="H77" s="31" t="s">
+      <c r="H77" s="28" t="s">
         <v>634</v>
       </c>
-      <c r="I77" s="32">
+      <c r="I77" s="29">
         <v>750907900073</v>
       </c>
-      <c r="J77" s="33" t="s">
+      <c r="J77" s="30" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="28" t="s">
         <v>636</v>
       </c>
-      <c r="C78" s="31" t="s">
+      <c r="C78" s="28" t="s">
         <v>637</v>
       </c>
       <c r="D78" t="s">
         <v>638</v>
       </c>
-      <c r="E78" s="31" t="s">
+      <c r="E78" s="28" t="s">
         <v>639</v>
       </c>
-      <c r="F78" s="31" t="s">
+      <c r="F78" s="28" t="s">
         <v>254</v>
       </c>
       <c r="G78" t="s">
         <v>640</v>
       </c>
-      <c r="H78" s="31" t="s">
+      <c r="H78" s="28" t="s">
         <v>641</v>
       </c>
-      <c r="I78" s="32">
+      <c r="I78" s="29">
         <v>750907900074</v>
       </c>
-      <c r="J78" s="33" t="s">
+      <c r="J78" s="30" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="28" t="s">
         <v>643</v>
       </c>
-      <c r="C79" s="31" t="s">
+      <c r="C79" s="28" t="s">
         <v>644</v>
       </c>
       <c r="D79" t="s">
         <v>638</v>
       </c>
-      <c r="E79" s="31" t="s">
+      <c r="E79" s="28" t="s">
         <v>645</v>
       </c>
-      <c r="F79" s="31" t="s">
+      <c r="F79" s="28" t="s">
         <v>261</v>
       </c>
       <c r="G79" t="s">
         <v>646</v>
       </c>
-      <c r="H79" s="31" t="s">
+      <c r="H79" s="28" t="s">
         <v>647</v>
       </c>
-      <c r="I79" s="32">
+      <c r="I79" s="29">
         <v>750907900075</v>
       </c>
-      <c r="J79" s="33" t="s">
+      <c r="J79" s="30" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="31" t="s">
+      <c r="B80" s="28" t="s">
         <v>649</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="28" t="s">
         <v>650</v>
       </c>
       <c r="D80" t="s">
         <v>638</v>
       </c>
-      <c r="E80" s="31" t="s">
+      <c r="E80" s="28" t="s">
         <v>651</v>
       </c>
-      <c r="F80" s="31" t="s">
+      <c r="F80" s="28" t="s">
         <v>268</v>
       </c>
       <c r="G80" t="s">
         <v>652</v>
       </c>
-      <c r="H80" s="31" t="s">
+      <c r="H80" s="28" t="s">
         <v>653</v>
       </c>
-      <c r="I80" s="32">
+      <c r="I80" s="29">
         <v>750907900076</v>
       </c>
-      <c r="J80" s="33"/>
+      <c r="J80" s="30"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="28" t="s">
         <v>654</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C81" s="28" t="s">
         <v>655</v>
       </c>
       <c r="D81" t="s">
         <v>638</v>
       </c>
-      <c r="E81" s="31" t="s">
+      <c r="E81" s="28" t="s">
         <v>656</v>
       </c>
-      <c r="F81" s="31" t="s">
+      <c r="F81" s="28" t="s">
         <v>275</v>
       </c>
       <c r="G81" t="s">
         <v>657</v>
       </c>
-      <c r="H81" s="31" t="s">
+      <c r="H81" s="28" t="s">
         <v>658</v>
       </c>
-      <c r="I81" s="32">
+      <c r="I81" s="29">
         <v>750907900077</v>
       </c>
-      <c r="J81" s="33" t="s">
+      <c r="J81" s="30" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="28" t="s">
         <v>660</v>
       </c>
-      <c r="C82" s="31" t="s">
+      <c r="C82" s="28" t="s">
         <v>661</v>
       </c>
       <c r="D82" t="s">
         <v>323</v>
       </c>
-      <c r="E82" s="31" t="s">
+      <c r="E82" s="28" t="s">
         <v>662</v>
       </c>
-      <c r="F82" s="31" t="s">
+      <c r="F82" s="28" t="s">
         <v>254</v>
       </c>
       <c r="G82" t="s">
         <v>663</v>
       </c>
-      <c r="H82" s="31" t="s">
+      <c r="H82" s="28" t="s">
         <v>664</v>
       </c>
-      <c r="I82" s="32">
+      <c r="I82" s="29">
         <v>750907900078</v>
       </c>
-      <c r="J82" s="33"/>
+      <c r="J82" s="30"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="28" t="s">
         <v>665</v>
       </c>
-      <c r="C83" s="34">
+      <c r="C83" s="31">
         <v>180</v>
       </c>
       <c r="D83" t="s">
         <v>323</v>
       </c>
-      <c r="E83" s="31" t="s">
+      <c r="E83" s="28" t="s">
         <v>666</v>
       </c>
-      <c r="F83" s="31" t="s">
+      <c r="F83" s="28" t="s">
         <v>261</v>
       </c>
       <c r="G83" t="s">
         <v>667</v>
       </c>
-      <c r="H83" s="31" t="s">
+      <c r="H83" s="28" t="s">
         <v>668</v>
       </c>
-      <c r="I83" s="32">
+      <c r="I83" s="29">
         <v>750221203789</v>
       </c>
-      <c r="J83" s="33" t="s">
+      <c r="J83" s="30" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="28" t="s">
         <v>670</v>
       </c>
-      <c r="C84" s="31" t="s">
+      <c r="C84" s="28" t="s">
         <v>671</v>
       </c>
       <c r="D84" t="s">
         <v>323</v>
       </c>
-      <c r="E84" s="31" t="s">
+      <c r="E84" s="28" t="s">
         <v>672</v>
       </c>
-      <c r="F84" s="31" t="s">
+      <c r="F84" s="28" t="s">
         <v>268</v>
       </c>
       <c r="G84" t="s">
         <v>673</v>
       </c>
-      <c r="H84" s="31" t="s">
+      <c r="H84" s="28" t="s">
         <v>674</v>
       </c>
-      <c r="I84" s="32"/>
-      <c r="J84" s="33"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="30"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="28" t="s">
         <v>675</v>
       </c>
-      <c r="C85" s="31" t="s">
+      <c r="C85" s="28" t="s">
         <v>676</v>
       </c>
       <c r="D85" t="s">
         <v>323</v>
       </c>
-      <c r="E85" s="31" t="s">
+      <c r="E85" s="28" t="s">
         <v>677</v>
       </c>
-      <c r="F85" s="31" t="s">
+      <c r="F85" s="28" t="s">
         <v>275</v>
       </c>
       <c r="G85" t="s">
         <v>678</v>
       </c>
-      <c r="H85" s="31" t="s">
+      <c r="H85" s="28" t="s">
         <v>679</v>
       </c>
-      <c r="I85" s="32"/>
-      <c r="J85" s="33"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="30"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="28" t="s">
         <v>680</v>
       </c>
-      <c r="C86" s="31" t="s">
+      <c r="C86" s="28" t="s">
         <v>681</v>
       </c>
       <c r="D86" t="s">
         <v>323</v>
       </c>
-      <c r="E86" s="31" t="s">
+      <c r="E86" s="28" t="s">
         <v>682</v>
       </c>
-      <c r="F86" s="31" t="s">
+      <c r="F86" s="28" t="s">
         <v>206</v>
       </c>
       <c r="G86" t="s">
         <v>683</v>
       </c>
-      <c r="H86" s="31" t="s">
+      <c r="H86" s="28" t="s">
         <v>684</v>
       </c>
-      <c r="I86" s="32"/>
-      <c r="J86" s="33"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="30"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="28" t="s">
         <v>685</v>
       </c>
-      <c r="C87" s="31" t="s">
+      <c r="C87" s="28" t="s">
         <v>686</v>
       </c>
       <c r="D87" t="s">
         <v>323</v>
       </c>
-      <c r="E87" s="31" t="s">
+      <c r="E87" s="28" t="s">
         <v>687</v>
       </c>
-      <c r="F87" s="31" t="s">
+      <c r="F87" s="28" t="s">
         <v>213</v>
       </c>
       <c r="G87" t="s">
         <v>688</v>
       </c>
-      <c r="H87" s="31" t="s">
+      <c r="H87" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="I87" s="32"/>
-      <c r="J87" s="33"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="30"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="28" t="s">
         <v>690</v>
       </c>
-      <c r="C88" s="31" t="s">
+      <c r="C88" s="28" t="s">
         <v>691</v>
       </c>
       <c r="D88" t="s">
         <v>323</v>
       </c>
-      <c r="E88" s="31" t="s">
+      <c r="E88" s="28" t="s">
         <v>692</v>
       </c>
-      <c r="F88" s="31" t="s">
+      <c r="F88" s="28" t="s">
         <v>220</v>
       </c>
       <c r="G88" t="s">
         <v>693</v>
       </c>
-      <c r="H88" s="31" t="s">
+      <c r="H88" s="28" t="s">
         <v>694</v>
       </c>
-      <c r="I88" s="32"/>
-      <c r="J88" s="33"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="30"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B89" s="31" t="s">
+      <c r="B89" s="28" t="s">
         <v>695</v>
       </c>
-      <c r="C89" s="31" t="s">
+      <c r="C89" s="28" t="s">
         <v>696</v>
       </c>
       <c r="D89" t="s">
         <v>323</v>
       </c>
-      <c r="E89" s="31" t="s">
+      <c r="E89" s="28" t="s">
         <v>697</v>
       </c>
-      <c r="F89" s="31" t="s">
+      <c r="F89" s="28" t="s">
         <v>227</v>
       </c>
       <c r="G89" t="s">
         <v>698</v>
       </c>
-      <c r="H89" s="31" t="s">
+      <c r="H89" s="28" t="s">
         <v>699</v>
       </c>
-      <c r="I89" s="32"/>
-      <c r="J89" s="33"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="30"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="28" t="s">
         <v>700</v>
       </c>
-      <c r="C90" s="31" t="s">
+      <c r="C90" s="28" t="s">
         <v>701</v>
       </c>
       <c r="D90" t="s">
         <v>323</v>
       </c>
-      <c r="E90" s="31" t="s">
+      <c r="E90" s="28" t="s">
         <v>702</v>
       </c>
-      <c r="F90" s="31" t="s">
+      <c r="F90" s="28" t="s">
         <v>234</v>
       </c>
       <c r="G90" t="s">
         <v>703</v>
       </c>
-      <c r="H90" s="31" t="s">
+      <c r="H90" s="28" t="s">
         <v>704</v>
       </c>
-      <c r="I90" s="32"/>
-      <c r="J90" s="33"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="30"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="28" t="s">
         <v>705</v>
       </c>
-      <c r="C91" s="31" t="s">
+      <c r="C91" s="28" t="s">
         <v>706</v>
       </c>
       <c r="D91" t="s">
         <v>323</v>
       </c>
-      <c r="E91" s="31" t="s">
+      <c r="E91" s="28" t="s">
         <v>707</v>
       </c>
-      <c r="F91" s="31" t="s">
+      <c r="F91" s="28" t="s">
         <v>241</v>
       </c>
       <c r="G91" t="s">
         <v>708</v>
       </c>
-      <c r="H91" s="31" t="s">
+      <c r="H91" s="28" t="s">
         <v>709</v>
       </c>
-      <c r="I91" s="32"/>
-      <c r="J91" s="33"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="30"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="28" t="s">
         <v>710</v>
       </c>
-      <c r="C92" s="31" t="s">
+      <c r="C92" s="28" t="s">
         <v>711</v>
       </c>
       <c r="D92" t="s">
         <v>323</v>
       </c>
-      <c r="E92" s="31" t="s">
+      <c r="E92" s="28" t="s">
         <v>712</v>
       </c>
-      <c r="F92" s="31" t="s">
+      <c r="F92" s="28" t="s">
         <v>437</v>
       </c>
       <c r="G92" t="s">
         <v>713</v>
       </c>
-      <c r="H92" s="31" t="s">
+      <c r="H92" s="28" t="s">
         <v>714</v>
       </c>
-      <c r="I92" s="32"/>
-      <c r="J92" s="33"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="30"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B93" s="31" t="s">
+      <c r="B93" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="C93" s="31" t="s">
+      <c r="C93" s="28" t="s">
         <v>716</v>
       </c>
       <c r="D93" t="s">
         <v>323</v>
       </c>
-      <c r="E93" s="31" t="s">
+      <c r="E93" s="28" t="s">
         <v>717</v>
       </c>
-      <c r="F93" s="31" t="s">
+      <c r="F93" s="28" t="s">
         <v>443</v>
       </c>
       <c r="G93" t="s">
         <v>718</v>
       </c>
-      <c r="H93" s="31" t="s">
+      <c r="H93" s="28" t="s">
         <v>719</v>
       </c>
-      <c r="I93" s="32"/>
-      <c r="J93" s="33"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="30"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B94" s="31" t="s">
+      <c r="B94" s="28" t="s">
         <v>720</v>
       </c>
-      <c r="C94" s="31" t="s">
+      <c r="C94" s="28" t="s">
         <v>721</v>
       </c>
       <c r="D94" t="s">
         <v>323</v>
       </c>
-      <c r="E94" s="31" t="s">
+      <c r="E94" s="28" t="s">
         <v>722</v>
       </c>
-      <c r="F94" s="31" t="s">
+      <c r="F94" s="28" t="s">
         <v>318</v>
       </c>
       <c r="G94" t="s">
         <v>723</v>
       </c>
-      <c r="H94" s="31" t="s">
+      <c r="H94" s="28" t="s">
         <v>724</v>
       </c>
-      <c r="I94" s="32"/>
-      <c r="J94" s="33"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="30"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B95" s="31" t="s">
+      <c r="B95" s="28" t="s">
         <v>725</v>
       </c>
-      <c r="C95" s="31" t="s">
+      <c r="C95" s="28" t="s">
         <v>726</v>
       </c>
       <c r="D95" t="s">
         <v>323</v>
       </c>
-      <c r="E95" s="31" t="s">
+      <c r="E95" s="28" t="s">
         <v>727</v>
       </c>
-      <c r="F95" s="31" t="s">
+      <c r="F95" s="28" t="s">
         <v>325</v>
       </c>
       <c r="G95" t="s">
         <v>728</v>
       </c>
-      <c r="H95" s="31" t="s">
+      <c r="H95" s="28" t="s">
         <v>729</v>
       </c>
-      <c r="I95" s="32"/>
-      <c r="J95" s="33"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="30"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B96" s="31" t="s">
+      <c r="B96" s="28" t="s">
         <v>730</v>
       </c>
-      <c r="C96" s="31" t="s">
+      <c r="C96" s="28" t="s">
         <v>731</v>
       </c>
       <c r="D96" t="s">
         <v>323</v>
       </c>
-      <c r="E96" s="31" t="s">
+      <c r="E96" s="28" t="s">
         <v>732</v>
       </c>
-      <c r="F96" s="31" t="s">
+      <c r="F96" s="28" t="s">
         <v>246</v>
       </c>
       <c r="G96" t="s">
         <v>733</v>
       </c>
-      <c r="H96" s="31" t="s">
+      <c r="H96" s="28" t="s">
         <v>734</v>
       </c>
-      <c r="I96" s="32"/>
-      <c r="J96" s="33"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="30"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B97" s="31" t="s">
+      <c r="B97" s="28" t="s">
         <v>735</v>
       </c>
-      <c r="C97" s="31" t="s">
+      <c r="C97" s="28" t="s">
         <v>736</v>
       </c>
       <c r="D97" t="s">
         <v>323</v>
       </c>
-      <c r="E97" s="31" t="s">
+      <c r="E97" s="28" t="s">
         <v>737</v>
       </c>
-      <c r="F97" s="31" t="s">
+      <c r="F97" s="28" t="s">
         <v>338</v>
       </c>
       <c r="G97" t="s">
         <v>738</v>
       </c>
-      <c r="H97" s="31" t="s">
+      <c r="H97" s="28" t="s">
         <v>739</v>
       </c>
-      <c r="I97" s="32"/>
-      <c r="J97" s="33"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="30"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B98" s="31" t="s">
+      <c r="B98" s="28" t="s">
         <v>740</v>
       </c>
-      <c r="C98" s="31" t="s">
+      <c r="C98" s="28" t="s">
         <v>741</v>
       </c>
       <c r="D98" t="s">
         <v>323</v>
       </c>
-      <c r="E98" s="31" t="s">
+      <c r="E98" s="28" t="s">
         <v>742</v>
       </c>
-      <c r="F98" s="31" t="s">
+      <c r="F98" s="28" t="s">
         <v>359</v>
       </c>
       <c r="G98" t="s">
         <v>743</v>
       </c>
-      <c r="H98" s="31" t="s">
+      <c r="H98" s="28" t="s">
         <v>744</v>
       </c>
-      <c r="I98" s="32"/>
-      <c r="J98" s="33"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="30"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B99" s="31" t="s">
+      <c r="B99" s="28" t="s">
         <v>745</v>
       </c>
-      <c r="C99" s="31" t="s">
+      <c r="C99" s="28" t="s">
         <v>746</v>
       </c>
       <c r="D99" t="s">
         <v>747</v>
       </c>
-      <c r="E99" s="31" t="s">
+      <c r="E99" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="F99" s="31" t="s">
+      <c r="F99" s="28" t="s">
         <v>254</v>
       </c>
       <c r="G99" t="s">
         <v>749</v>
       </c>
-      <c r="H99" s="31" t="s">
+      <c r="H99" s="28" t="s">
         <v>750</v>
       </c>
-      <c r="I99" s="32"/>
-      <c r="J99" s="33"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="30"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B100" s="31" t="s">
+      <c r="B100" s="28" t="s">
         <v>751</v>
       </c>
-      <c r="C100" s="31" t="s">
+      <c r="C100" s="28" t="s">
         <v>752</v>
       </c>
       <c r="D100" t="s">
         <v>747</v>
       </c>
-      <c r="E100" s="31" t="s">
+      <c r="E100" s="28" t="s">
         <v>753</v>
       </c>
-      <c r="F100" s="31" t="s">
+      <c r="F100" s="28" t="s">
         <v>261</v>
       </c>
       <c r="G100" t="s">
         <v>754</v>
       </c>
-      <c r="H100" s="31" t="s">
+      <c r="H100" s="28" t="s">
         <v>755</v>
       </c>
-      <c r="I100" s="32"/>
-      <c r="J100" s="33"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="30"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B101" s="31" t="s">
+      <c r="B101" s="28" t="s">
         <v>756</v>
       </c>
-      <c r="C101" s="31" t="s">
+      <c r="C101" s="28" t="s">
         <v>757</v>
       </c>
       <c r="D101" t="s">
         <v>747</v>
       </c>
-      <c r="E101" s="31" t="s">
+      <c r="E101" s="28" t="s">
         <v>758</v>
       </c>
-      <c r="F101" s="31" t="s">
+      <c r="F101" s="28" t="s">
         <v>268</v>
       </c>
       <c r="G101" t="s">
         <v>759</v>
       </c>
-      <c r="H101" s="31" t="s">
+      <c r="H101" s="28" t="s">
         <v>760</v>
       </c>
-      <c r="I101" s="32"/>
-      <c r="J101" s="33"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="30"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B102" s="31" t="s">
+      <c r="B102" s="28" t="s">
         <v>761</v>
       </c>
-      <c r="C102" s="31" t="s">
+      <c r="C102" s="28" t="s">
         <v>762</v>
       </c>
       <c r="D102" t="s">
         <v>747</v>
       </c>
-      <c r="E102" s="31" t="s">
+      <c r="E102" s="28" t="s">
         <v>763</v>
       </c>
-      <c r="F102" s="31" t="s">
+      <c r="F102" s="28" t="s">
         <v>275</v>
       </c>
       <c r="G102" t="s">
         <v>764</v>
       </c>
-      <c r="H102" s="31" t="s">
+      <c r="H102" s="28" t="s">
         <v>765</v>
       </c>
-      <c r="I102" s="32"/>
-      <c r="J102" s="33"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="30"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B103" s="31" t="s">
+      <c r="B103" s="28" t="s">
         <v>766</v>
       </c>
-      <c r="C103" s="31" t="s">
+      <c r="C103" s="28" t="s">
         <v>638</v>
       </c>
       <c r="D103" t="s">
         <v>747</v>
       </c>
-      <c r="E103" s="31" t="s">
+      <c r="E103" s="28" t="s">
         <v>767</v>
       </c>
-      <c r="F103" s="31" t="s">
+      <c r="F103" s="28" t="s">
         <v>206</v>
       </c>
       <c r="G103" t="s">
         <v>768</v>
       </c>
-      <c r="H103" s="31" t="s">
+      <c r="H103" s="28" t="s">
         <v>769</v>
       </c>
-      <c r="I103" s="32"/>
-      <c r="J103" s="33"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="30"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B104" s="31" t="s">
+      <c r="B104" s="28" t="s">
         <v>770</v>
       </c>
-      <c r="C104" s="31" t="s">
+      <c r="C104" s="28" t="s">
         <v>771</v>
       </c>
       <c r="D104" t="s">
         <v>747</v>
       </c>
-      <c r="E104" s="31" t="s">
+      <c r="E104" s="28" t="s">
         <v>772</v>
       </c>
-      <c r="F104" s="31" t="s">
+      <c r="F104" s="28" t="s">
         <v>213</v>
       </c>
       <c r="G104" t="s">
         <v>773</v>
       </c>
-      <c r="H104" s="31" t="s">
+      <c r="H104" s="28" t="s">
         <v>774</v>
       </c>
-      <c r="I104" s="32"/>
-      <c r="J104" s="33"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="30"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B105" s="31" t="s">
+      <c r="B105" s="28" t="s">
         <v>775</v>
       </c>
-      <c r="C105" s="31" t="s">
+      <c r="C105" s="28" t="s">
         <v>776</v>
       </c>
       <c r="D105" t="s">
         <v>747</v>
       </c>
-      <c r="E105" s="31" t="s">
+      <c r="E105" s="28" t="s">
         <v>777</v>
       </c>
-      <c r="F105" s="31" t="s">
+      <c r="F105" s="28" t="s">
         <v>234</v>
       </c>
       <c r="G105" t="s">
         <v>778</v>
       </c>
-      <c r="H105" s="31" t="s">
+      <c r="H105" s="28" t="s">
         <v>779</v>
       </c>
-      <c r="I105" s="32"/>
-      <c r="J105" s="33"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="30"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B106" s="31" t="s">
+      <c r="B106" s="28" t="s">
         <v>780</v>
       </c>
-      <c r="C106" s="31" t="s">
+      <c r="C106" s="28" t="s">
         <v>781</v>
       </c>
       <c r="D106" t="s">
         <v>747</v>
       </c>
-      <c r="E106" s="31" t="s">
+      <c r="E106" s="28" t="s">
         <v>782</v>
       </c>
-      <c r="F106" s="31" t="s">
+      <c r="F106" s="28" t="s">
         <v>241</v>
       </c>
       <c r="G106" t="s">
         <v>783</v>
       </c>
-      <c r="H106" s="31" t="s">
+      <c r="H106" s="28" t="s">
         <v>784</v>
       </c>
-      <c r="I106" s="32"/>
-      <c r="J106" s="33"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="30"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B107" s="31" t="s">
+      <c r="B107" s="28" t="s">
         <v>785</v>
       </c>
-      <c r="C107" s="31" t="s">
+      <c r="C107" s="28" t="s">
         <v>786</v>
       </c>
       <c r="D107" t="s">
         <v>747</v>
       </c>
-      <c r="E107" s="31" t="s">
+      <c r="E107" s="28" t="s">
         <v>787</v>
       </c>
-      <c r="F107" s="31" t="s">
+      <c r="F107" s="28" t="s">
         <v>325</v>
       </c>
       <c r="G107" t="s">
         <v>788</v>
       </c>
-      <c r="H107" s="31" t="s">
+      <c r="H107" s="28" t="s">
         <v>789</v>
       </c>
-      <c r="I107" s="32"/>
-      <c r="J107" s="33"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="30"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B108" s="31" t="s">
+      <c r="B108" s="28" t="s">
         <v>790</v>
       </c>
-      <c r="C108" s="31" t="s">
+      <c r="C108" s="28" t="s">
         <v>791</v>
       </c>
       <c r="D108" t="s">
         <v>747</v>
       </c>
-      <c r="E108" s="31" t="s">
+      <c r="E108" s="28" t="s">
         <v>792</v>
       </c>
-      <c r="F108" s="31" t="s">
+      <c r="F108" s="28" t="s">
         <v>246</v>
       </c>
       <c r="G108" t="s">
         <v>793</v>
       </c>
-      <c r="H108" s="31" t="s">
+      <c r="H108" s="28" t="s">
         <v>794</v>
       </c>
-      <c r="I108" s="32"/>
-      <c r="J108" s="33"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="30"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B109" s="31" t="s">
+      <c r="B109" s="28" t="s">
         <v>795</v>
       </c>
-      <c r="C109" s="31" t="s">
+      <c r="C109" s="28" t="s">
         <v>796</v>
       </c>
       <c r="D109" t="s">
         <v>747</v>
       </c>
-      <c r="E109" s="31" t="s">
+      <c r="E109" s="28" t="s">
         <v>797</v>
       </c>
-      <c r="F109" s="31" t="s">
+      <c r="F109" s="28" t="s">
         <v>345</v>
       </c>
       <c r="G109" t="s">
         <v>798</v>
       </c>
-      <c r="H109" s="31" t="s">
+      <c r="H109" s="28" t="s">
         <v>799</v>
       </c>
-      <c r="I109" s="32"/>
-      <c r="J109" s="33"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="30"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B110" s="31" t="s">
+      <c r="B110" s="28" t="s">
         <v>800</v>
       </c>
-      <c r="C110" s="31" t="s">
+      <c r="C110" s="28" t="s">
         <v>801</v>
       </c>
       <c r="D110" t="s">
         <v>747</v>
       </c>
-      <c r="E110" s="31" t="s">
+      <c r="E110" s="28" t="s">
         <v>802</v>
       </c>
-      <c r="F110" s="31" t="s">
+      <c r="F110" s="28" t="s">
         <v>352</v>
       </c>
       <c r="G110" t="s">
         <v>803</v>
       </c>
-      <c r="H110" s="31" t="s">
+      <c r="H110" s="28" t="s">
         <v>804</v>
       </c>
-      <c r="I110" s="32"/>
-      <c r="J110" s="33"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="30"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B111" s="31" t="s">
+      <c r="B111" s="28" t="s">
         <v>805</v>
       </c>
-      <c r="C111" s="31" t="s">
+      <c r="C111" s="28" t="s">
         <v>806</v>
       </c>
       <c r="D111" t="s">
         <v>336</v>
       </c>
-      <c r="E111" s="31" t="s">
+      <c r="E111" s="28" t="s">
         <v>807</v>
       </c>
-      <c r="F111" s="31" t="s">
+      <c r="F111" s="28" t="s">
         <v>254</v>
       </c>
       <c r="G111" t="s">
         <v>808</v>
       </c>
-      <c r="H111" s="31" t="s">
+      <c r="H111" s="28" t="s">
         <v>809</v>
       </c>
-      <c r="I111" s="32"/>
-      <c r="J111" s="33"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="30"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B112" s="31" t="s">
+      <c r="B112" s="28" t="s">
         <v>810</v>
       </c>
-      <c r="C112" s="31" t="s">
+      <c r="C112" s="28" t="s">
         <v>811</v>
       </c>
       <c r="D112" t="s">
         <v>336</v>
       </c>
-      <c r="E112" s="31" t="s">
+      <c r="E112" s="28" t="s">
         <v>812</v>
       </c>
-      <c r="F112" s="31" t="s">
+      <c r="F112" s="28" t="s">
         <v>261</v>
       </c>
       <c r="G112" t="s">
         <v>813</v>
       </c>
-      <c r="H112" s="31" t="s">
+      <c r="H112" s="28" t="s">
         <v>814</v>
       </c>
-      <c r="I112" s="32"/>
-      <c r="J112" s="33"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="30"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B113" s="31" t="s">
+      <c r="B113" s="28" t="s">
         <v>815</v>
       </c>
-      <c r="C113" s="31" t="s">
+      <c r="C113" s="28" t="s">
         <v>816</v>
       </c>
       <c r="D113" t="s">
         <v>336</v>
       </c>
-      <c r="E113" s="31" t="s">
+      <c r="E113" s="28" t="s">
         <v>817</v>
       </c>
-      <c r="F113" s="31" t="s">
+      <c r="F113" s="28" t="s">
         <v>268</v>
       </c>
       <c r="G113" t="s">
         <v>818</v>
       </c>
-      <c r="H113" s="31" t="s">
+      <c r="H113" s="28" t="s">
         <v>819</v>
       </c>
-      <c r="I113" s="32"/>
-      <c r="J113" s="33"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="30"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B114" s="31" t="s">
+      <c r="B114" s="28" t="s">
         <v>820</v>
       </c>
-      <c r="C114" s="31" t="s">
+      <c r="C114" s="28" t="s">
         <v>821</v>
       </c>
       <c r="D114" t="s">
         <v>336</v>
       </c>
-      <c r="E114" s="31" t="s">
+      <c r="E114" s="28" t="s">
         <v>822</v>
       </c>
-      <c r="F114" s="31" t="s">
+      <c r="F114" s="28" t="s">
         <v>275</v>
       </c>
       <c r="G114" t="s">
         <v>823</v>
       </c>
-      <c r="H114" s="31" t="s">
+      <c r="H114" s="28" t="s">
         <v>824</v>
       </c>
-      <c r="I114" s="32"/>
-      <c r="J114" s="33"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="30"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B115" s="31" t="s">
+      <c r="B115" s="28" t="s">
         <v>825</v>
       </c>
-      <c r="C115" s="31" t="s">
+      <c r="C115" s="28" t="s">
         <v>252</v>
       </c>
       <c r="D115" t="s">
         <v>826</v>
       </c>
-      <c r="E115" s="31" t="s">
+      <c r="E115" s="28" t="s">
         <v>827</v>
       </c>
-      <c r="F115" s="31" t="s">
+      <c r="F115" s="28" t="s">
         <v>254</v>
       </c>
       <c r="G115" t="s">
         <v>828</v>
       </c>
-      <c r="H115" s="31" t="s">
+      <c r="H115" s="28" t="s">
         <v>829</v>
       </c>
-      <c r="I115" s="32"/>
-      <c r="J115" s="33"/>
+      <c r="I115" s="29"/>
+      <c r="J115" s="30"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B116" s="31" t="s">
+      <c r="B116" s="28" t="s">
         <v>830</v>
       </c>
-      <c r="C116" s="31" t="s">
+      <c r="C116" s="28" t="s">
         <v>831</v>
       </c>
       <c r="D116" t="s">
         <v>826</v>
       </c>
-      <c r="E116" s="31" t="s">
+      <c r="E116" s="28" t="s">
         <v>832</v>
       </c>
-      <c r="F116" s="31" t="s">
+      <c r="F116" s="28" t="s">
         <v>261</v>
       </c>
       <c r="G116" t="s">
         <v>833</v>
       </c>
-      <c r="H116" s="31" t="s">
+      <c r="H116" s="28" t="s">
         <v>834</v>
       </c>
-      <c r="I116" s="32"/>
-      <c r="J116" s="33"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="30"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B117" s="31" t="s">
+      <c r="B117" s="28" t="s">
         <v>835</v>
       </c>
-      <c r="C117" s="31" t="s">
+      <c r="C117" s="28" t="s">
         <v>204</v>
       </c>
       <c r="D117" t="s">
         <v>826</v>
       </c>
-      <c r="E117" s="31" t="s">
+      <c r="E117" s="28" t="s">
         <v>836</v>
       </c>
-      <c r="F117" s="31" t="s">
+      <c r="F117" s="28" t="s">
         <v>268</v>
       </c>
       <c r="G117" t="s">
         <v>837</v>
       </c>
-      <c r="H117" s="31" t="s">
+      <c r="H117" s="28" t="s">
         <v>838</v>
       </c>
-      <c r="I117" s="32"/>
-      <c r="J117" s="33"/>
+      <c r="I117" s="29"/>
+      <c r="J117" s="30"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B118" s="31" t="s">
+      <c r="B118" s="28" t="s">
         <v>839</v>
       </c>
-      <c r="C118" s="31" t="s">
+      <c r="C118" s="28" t="s">
         <v>747</v>
       </c>
       <c r="D118" t="s">
         <v>826</v>
       </c>
-      <c r="E118" s="31" t="s">
+      <c r="E118" s="28" t="s">
         <v>840</v>
       </c>
-      <c r="F118" s="31" t="s">
+      <c r="F118" s="28" t="s">
         <v>275</v>
       </c>
       <c r="G118" t="s">
         <v>841</v>
       </c>
-      <c r="H118" s="31" t="s">
+      <c r="H118" s="28" t="s">
         <v>842</v>
       </c>
-      <c r="I118" s="32"/>
-      <c r="J118" s="33"/>
+      <c r="I118" s="29"/>
+      <c r="J118" s="30"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B119" s="31" t="s">
+      <c r="B119" s="28" t="s">
         <v>843</v>
       </c>
-      <c r="C119" s="31" t="s">
+      <c r="C119" s="28" t="s">
         <v>844</v>
       </c>
       <c r="D119" t="s">
         <v>826</v>
       </c>
-      <c r="E119" s="31" t="s">
+      <c r="E119" s="28" t="s">
         <v>845</v>
       </c>
-      <c r="F119" s="31" t="s">
+      <c r="F119" s="28" t="s">
         <v>846</v>
       </c>
       <c r="G119" t="s">
         <v>847</v>
       </c>
-      <c r="H119" s="31" t="s">
+      <c r="H119" s="28" t="s">
         <v>848</v>
       </c>
-      <c r="I119" s="32"/>
-      <c r="J119" s="33"/>
+      <c r="I119" s="29"/>
+      <c r="J119" s="30"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B120" s="31" t="s">
+      <c r="B120" s="28" t="s">
         <v>849</v>
       </c>
-      <c r="C120" s="31" t="s">
+      <c r="C120" s="28" t="s">
         <v>850</v>
       </c>
       <c r="D120" t="s">
         <v>851</v>
       </c>
-      <c r="E120" s="31" t="s">
+      <c r="E120" s="28" t="s">
         <v>852</v>
       </c>
-      <c r="F120" s="31" t="s">
+      <c r="F120" s="28" t="s">
         <v>254</v>
       </c>
       <c r="G120" t="s">
         <v>853</v>
       </c>
-      <c r="H120" s="31" t="s">
+      <c r="H120" s="28" t="s">
         <v>854</v>
       </c>
-      <c r="I120" s="32"/>
-      <c r="J120" s="33"/>
+      <c r="I120" s="29"/>
+      <c r="J120" s="30"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B121" s="31" t="s">
+      <c r="B121" s="28" t="s">
         <v>855</v>
       </c>
-      <c r="C121" s="31" t="s">
+      <c r="C121" s="28" t="s">
         <v>856</v>
       </c>
       <c r="D121" t="s">
         <v>851</v>
       </c>
-      <c r="E121" s="31" t="s">
+      <c r="E121" s="28" t="s">
         <v>857</v>
       </c>
-      <c r="F121" s="31" t="s">
+      <c r="F121" s="28" t="s">
         <v>261</v>
       </c>
       <c r="G121" t="s">
         <v>858</v>
       </c>
-      <c r="H121" s="31" t="s">
+      <c r="H121" s="28" t="s">
         <v>859</v>
       </c>
-      <c r="I121" s="32"/>
-      <c r="J121" s="33"/>
+      <c r="I121" s="29"/>
+      <c r="J121" s="30"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B122" s="31" t="s">
+      <c r="B122" s="28" t="s">
         <v>860</v>
       </c>
-      <c r="C122" s="31" t="s">
+      <c r="C122" s="28" t="s">
         <v>861</v>
       </c>
       <c r="D122" t="s">
         <v>851</v>
       </c>
-      <c r="E122" s="31" t="s">
+      <c r="E122" s="28" t="s">
         <v>862</v>
       </c>
-      <c r="F122" s="31" t="s">
+      <c r="F122" s="28" t="s">
         <v>268</v>
       </c>
       <c r="G122" t="s">
         <v>863</v>
       </c>
-      <c r="H122" s="31" t="s">
+      <c r="H122" s="28" t="s">
         <v>864</v>
       </c>
-      <c r="I122" s="32"/>
-      <c r="J122" s="33"/>
+      <c r="I122" s="29"/>
+      <c r="J122" s="30"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B123" s="31" t="s">
+      <c r="B123" s="28" t="s">
         <v>865</v>
       </c>
-      <c r="C123" s="31" t="s">
+      <c r="C123" s="28" t="s">
         <v>866</v>
       </c>
       <c r="D123" t="s">
         <v>851</v>
       </c>
-      <c r="E123" s="31" t="s">
+      <c r="E123" s="28" t="s">
         <v>867</v>
       </c>
-      <c r="F123" s="31" t="s">
+      <c r="F123" s="28" t="s">
         <v>275</v>
       </c>
       <c r="G123" t="s">
         <v>868</v>
       </c>
-      <c r="H123" s="31" t="s">
+      <c r="H123" s="28" t="s">
         <v>869</v>
       </c>
-      <c r="I123" s="32"/>
-      <c r="J123" s="33"/>
+      <c r="I123" s="29"/>
+      <c r="J123" s="30"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B124" s="31" t="s">
+      <c r="B124" s="28" t="s">
         <v>870</v>
       </c>
-      <c r="C124" s="31" t="s">
+      <c r="C124" s="28" t="s">
         <v>871</v>
       </c>
       <c r="D124" t="s">
         <v>856</v>
       </c>
-      <c r="E124" s="31" t="s">
+      <c r="E124" s="28" t="s">
         <v>872</v>
       </c>
-      <c r="F124" s="31" t="s">
+      <c r="F124" s="28" t="s">
         <v>254</v>
       </c>
       <c r="G124" t="s">
         <v>873</v>
       </c>
-      <c r="H124" s="31" t="s">
+      <c r="H124" s="28" t="s">
         <v>874</v>
       </c>
-      <c r="I124" s="32"/>
-      <c r="J124" s="33"/>
+      <c r="I124" s="29"/>
+      <c r="J124" s="30"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B125" s="31" t="s">
+      <c r="B125" s="28" t="s">
         <v>875</v>
       </c>
-      <c r="C125" s="31" t="s">
+      <c r="C125" s="28" t="s">
         <v>876</v>
       </c>
       <c r="D125" t="s">
         <v>856</v>
       </c>
-      <c r="E125" s="31" t="s">
+      <c r="E125" s="28" t="s">
         <v>877</v>
       </c>
-      <c r="F125" s="31" t="s">
+      <c r="F125" s="28" t="s">
         <v>261</v>
       </c>
       <c r="G125" t="s">
         <v>878</v>
       </c>
-      <c r="H125" s="31" t="s">
+      <c r="H125" s="28" t="s">
         <v>879</v>
       </c>
-      <c r="I125" s="32"/>
-      <c r="J125" s="33"/>
+      <c r="I125" s="29"/>
+      <c r="J125" s="30"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B126" s="31" t="s">
+      <c r="B126" s="28" t="s">
         <v>880</v>
       </c>
-      <c r="C126" s="31" t="s">
+      <c r="C126" s="28" t="s">
         <v>881</v>
       </c>
       <c r="D126" t="s">
         <v>856</v>
       </c>
-      <c r="E126" s="31" t="s">
+      <c r="E126" s="28" t="s">
         <v>882</v>
       </c>
-      <c r="F126" s="31" t="s">
+      <c r="F126" s="28" t="s">
         <v>268</v>
       </c>
       <c r="G126" t="s">
         <v>883</v>
       </c>
-      <c r="H126" s="31" t="s">
+      <c r="H126" s="28" t="s">
         <v>884</v>
       </c>
-      <c r="I126" s="32"/>
-      <c r="J126" s="33"/>
+      <c r="I126" s="29"/>
+      <c r="J126" s="30"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B127" s="31" t="s">
+      <c r="B127" s="28" t="s">
         <v>885</v>
       </c>
-      <c r="C127" s="31" t="s">
+      <c r="C127" s="28" t="s">
         <v>886</v>
       </c>
       <c r="D127" t="s">
         <v>856</v>
       </c>
-      <c r="E127" s="31" t="s">
+      <c r="E127" s="28" t="s">
         <v>887</v>
       </c>
-      <c r="F127" s="31" t="s">
+      <c r="F127" s="28" t="s">
         <v>275</v>
       </c>
       <c r="G127" t="s">
         <v>888</v>
       </c>
-      <c r="H127" s="31" t="s">
+      <c r="H127" s="28" t="s">
         <v>889</v>
       </c>
-      <c r="I127" s="32"/>
-      <c r="J127" s="33"/>
+      <c r="I127" s="29"/>
+      <c r="J127" s="30"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B128" s="31" t="s">
+      <c r="B128" s="28" t="s">
         <v>890</v>
       </c>
-      <c r="C128" s="31" t="s">
+      <c r="C128" s="28" t="s">
         <v>891</v>
       </c>
       <c r="D128" t="s">
         <v>856</v>
       </c>
-      <c r="E128" s="31" t="s">
+      <c r="E128" s="28" t="s">
         <v>892</v>
       </c>
-      <c r="F128" s="31" t="s">
+      <c r="F128" s="28" t="s">
         <v>338</v>
       </c>
       <c r="G128" t="s">
         <v>893</v>
       </c>
-      <c r="H128" s="31" t="s">
+      <c r="H128" s="28" t="s">
         <v>894</v>
       </c>
-      <c r="I128" s="32"/>
-      <c r="J128" s="33"/>
+      <c r="I128" s="29"/>
+      <c r="J128" s="30"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B129" s="31" t="s">
+      <c r="B129" s="28" t="s">
         <v>895</v>
       </c>
-      <c r="C129" s="31" t="s">
+      <c r="C129" s="28" t="s">
         <v>896</v>
       </c>
       <c r="D129" t="s">
         <v>856</v>
       </c>
-      <c r="E129" s="31" t="s">
+      <c r="E129" s="28" t="s">
         <v>897</v>
       </c>
-      <c r="F129" s="31" t="s">
+      <c r="F129" s="28" t="s">
         <v>898</v>
       </c>
       <c r="G129" t="s">
         <v>899</v>
       </c>
-      <c r="H129" s="31" t="s">
+      <c r="H129" s="28" t="s">
         <v>900</v>
       </c>
-      <c r="I129" s="32"/>
-      <c r="J129" s="33"/>
+      <c r="I129" s="29"/>
+      <c r="J129" s="30"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B130" s="31" t="s">
+      <c r="B130" s="28" t="s">
         <v>901</v>
       </c>
-      <c r="C130" s="31" t="s">
+      <c r="C130" s="28" t="s">
         <v>902</v>
       </c>
       <c r="D130" t="s">
         <v>856</v>
       </c>
-      <c r="E130" s="31" t="s">
+      <c r="E130" s="28" t="s">
         <v>903</v>
       </c>
-      <c r="F130" s="31" t="s">
+      <c r="F130" s="28" t="s">
         <v>904</v>
       </c>
       <c r="G130" t="s">
         <v>905</v>
       </c>
-      <c r="H130" s="31" t="s">
+      <c r="H130" s="28" t="s">
         <v>906</v>
       </c>
-      <c r="I130" s="32"/>
-      <c r="J130" s="33"/>
+      <c r="I130" s="29"/>
+      <c r="J130" s="30"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B131" s="31" t="s">
+      <c r="B131" s="28" t="s">
         <v>907</v>
       </c>
-      <c r="C131" s="31" t="s">
+      <c r="C131" s="28" t="s">
         <v>908</v>
       </c>
       <c r="D131" t="s">
         <v>357</v>
       </c>
-      <c r="E131" s="31" t="s">
+      <c r="E131" s="28" t="s">
         <v>909</v>
       </c>
-      <c r="F131" s="31" t="s">
+      <c r="F131" s="28" t="s">
         <v>206</v>
       </c>
       <c r="G131" t="s">
         <v>910</v>
       </c>
-      <c r="H131" s="31" t="s">
+      <c r="H131" s="28" t="s">
         <v>911</v>
       </c>
-      <c r="I131" s="32"/>
-      <c r="J131" s="33"/>
+      <c r="I131" s="29"/>
+      <c r="J131" s="30"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B132" s="31" t="s">
+      <c r="B132" s="28" t="s">
         <v>912</v>
       </c>
-      <c r="C132" s="31" t="s">
+      <c r="C132" s="28" t="s">
         <v>913</v>
       </c>
       <c r="D132" t="s">
         <v>357</v>
       </c>
-      <c r="E132" s="31" t="s">
+      <c r="E132" s="28" t="s">
         <v>914</v>
       </c>
-      <c r="F132" s="31" t="s">
+      <c r="F132" s="28" t="s">
         <v>213</v>
       </c>
       <c r="G132" t="s">
         <v>915</v>
       </c>
-      <c r="H132" s="31" t="s">
+      <c r="H132" s="28" t="s">
         <v>916</v>
       </c>
-      <c r="I132" s="32"/>
-      <c r="J132" s="33"/>
+      <c r="I132" s="29"/>
+      <c r="J132" s="30"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B133" s="31" t="s">
+      <c r="B133" s="28" t="s">
         <v>917</v>
       </c>
-      <c r="C133" s="31" t="s">
+      <c r="C133" s="28" t="s">
         <v>540</v>
       </c>
       <c r="D133" t="s">
         <v>357</v>
       </c>
-      <c r="E133" s="31" t="s">
+      <c r="E133" s="28" t="s">
         <v>918</v>
       </c>
-      <c r="F133" s="31" t="s">
+      <c r="F133" s="28" t="s">
         <v>246</v>
       </c>
       <c r="G133" t="s">
         <v>919</v>
       </c>
-      <c r="H133" s="31" t="s">
+      <c r="H133" s="28" t="s">
         <v>920</v>
       </c>
-      <c r="I133" s="32"/>
-      <c r="J133" s="33"/>
+      <c r="I133" s="29"/>
+      <c r="J133" s="30"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B134" s="31" t="s">
+      <c r="B134" s="28" t="s">
         <v>921</v>
       </c>
-      <c r="C134" s="31" t="s">
+      <c r="C134" s="28" t="s">
         <v>922</v>
       </c>
       <c r="D134" t="s">
         <v>527</v>
       </c>
-      <c r="E134" s="31" t="s">
+      <c r="E134" s="28" t="s">
         <v>923</v>
       </c>
-      <c r="F134" s="31" t="s">
+      <c r="F134" s="28" t="s">
         <v>206</v>
       </c>
       <c r="G134" t="s">
         <v>924</v>
       </c>
-      <c r="H134" s="31" t="s">
+      <c r="H134" s="28" t="s">
         <v>925</v>
       </c>
-      <c r="I134" s="32"/>
-      <c r="J134" s="33"/>
+      <c r="I134" s="29"/>
+      <c r="J134" s="30"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B135" s="31" t="s">
+      <c r="B135" s="28" t="s">
         <v>926</v>
       </c>
-      <c r="C135" s="31" t="s">
+      <c r="C135" s="28" t="s">
         <v>851</v>
       </c>
       <c r="D135" t="s">
         <v>527</v>
       </c>
-      <c r="E135" s="31" t="s">
+      <c r="E135" s="28" t="s">
         <v>927</v>
       </c>
-      <c r="F135" s="31" t="s">
+      <c r="F135" s="28" t="s">
         <v>213</v>
       </c>
       <c r="G135" t="s">
         <v>928</v>
       </c>
-      <c r="H135" s="31" t="s">
+      <c r="H135" s="28" t="s">
         <v>929</v>
       </c>
-      <c r="I135" s="32"/>
-      <c r="J135" s="33"/>
+      <c r="I135" s="29"/>
+      <c r="J135" s="30"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B136" s="31" t="s">
+      <c r="B136" s="28" t="s">
         <v>930</v>
       </c>
-      <c r="C136" s="31" t="s">
+      <c r="C136" s="28" t="s">
         <v>931</v>
       </c>
       <c r="D136" t="s">
         <v>527</v>
       </c>
-      <c r="E136" s="31" t="s">
+      <c r="E136" s="28" t="s">
         <v>932</v>
       </c>
-      <c r="F136" s="31" t="s">
+      <c r="F136" s="28" t="s">
         <v>484</v>
       </c>
       <c r="G136" t="s">
         <v>933</v>
       </c>
-      <c r="H136" s="31" t="s">
+      <c r="H136" s="28" t="s">
         <v>934</v>
       </c>
-      <c r="I136" s="32"/>
-      <c r="J136" s="33"/>
+      <c r="I136" s="29"/>
+      <c r="J136" s="30"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B137" s="31" t="s">
+      <c r="B137" s="28" t="s">
         <v>935</v>
       </c>
-      <c r="C137" s="31" t="s">
+      <c r="C137" s="28" t="s">
         <v>936</v>
       </c>
       <c r="D137" t="s">
         <v>527</v>
       </c>
-      <c r="E137" s="31" t="s">
+      <c r="E137" s="28" t="s">
         <v>937</v>
       </c>
-      <c r="F137" s="31" t="s">
+      <c r="F137" s="28" t="s">
         <v>938</v>
       </c>
       <c r="G137" t="s">
         <v>939</v>
       </c>
-      <c r="H137" s="31" t="s">
+      <c r="H137" s="28" t="s">
         <v>940</v>
       </c>
-      <c r="I137" s="32"/>
-      <c r="J137" s="33"/>
+      <c r="I137" s="29"/>
+      <c r="J137" s="30"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B138" s="31" t="s">
+      <c r="B138" s="28" t="s">
         <v>941</v>
       </c>
-      <c r="C138" s="31" t="s">
+      <c r="C138" s="28" t="s">
         <v>942</v>
       </c>
       <c r="D138" t="s">
         <v>527</v>
       </c>
-      <c r="E138" s="31" t="s">
+      <c r="E138" s="28" t="s">
         <v>943</v>
       </c>
-      <c r="F138" s="31" t="s">
+      <c r="F138" s="28" t="s">
         <v>944</v>
       </c>
       <c r="G138" t="s">
         <v>945</v>
       </c>
-      <c r="H138" s="31" t="s">
+      <c r="H138" s="28" t="s">
         <v>946</v>
       </c>
-      <c r="I138" s="32"/>
-      <c r="J138" s="33"/>
+      <c r="I138" s="29"/>
+      <c r="J138" s="30"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B139" s="31" t="s">
+      <c r="B139" s="28" t="s">
         <v>947</v>
       </c>
-      <c r="C139" s="31" t="s">
+      <c r="C139" s="28" t="s">
         <v>948</v>
       </c>
       <c r="D139" t="s">
         <v>527</v>
       </c>
-      <c r="E139" s="31" t="s">
+      <c r="E139" s="28" t="s">
         <v>949</v>
       </c>
-      <c r="F139" s="31" t="s">
+      <c r="F139" s="28" t="s">
         <v>246</v>
       </c>
       <c r="G139" t="s">
         <v>950</v>
       </c>
-      <c r="H139" s="31" t="s">
+      <c r="H139" s="28" t="s">
         <v>951</v>
       </c>
-      <c r="I139" s="32"/>
-      <c r="J139" s="33"/>
+      <c r="I139" s="29"/>
+      <c r="J139" s="30"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B140" s="31" t="s">
+      <c r="B140" s="28" t="s">
         <v>952</v>
       </c>
-      <c r="C140" s="31" t="s">
+      <c r="C140" s="28" t="s">
         <v>953</v>
       </c>
       <c r="D140" t="s">
         <v>527</v>
       </c>
-      <c r="E140" s="31" t="s">
+      <c r="E140" s="28" t="s">
         <v>954</v>
       </c>
-      <c r="F140" s="31" t="s">
+      <c r="F140" s="28" t="s">
         <v>955</v>
       </c>
       <c r="G140" t="s">
         <v>956</v>
       </c>
-      <c r="H140" s="31" t="s">
+      <c r="H140" s="28" t="s">
         <v>957</v>
       </c>
-      <c r="I140" s="32"/>
-      <c r="J140" s="33"/>
+      <c r="I140" s="29"/>
+      <c r="J140" s="30"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B141" s="31" t="s">
+      <c r="B141" s="28" t="s">
         <v>958</v>
       </c>
-      <c r="C141" s="31" t="s">
+      <c r="C141" s="28" t="s">
         <v>959</v>
       </c>
       <c r="D141" t="s">
         <v>527</v>
       </c>
-      <c r="E141" s="31" t="s">
+      <c r="E141" s="28" t="s">
         <v>960</v>
       </c>
-      <c r="F141" s="31" t="s">
+      <c r="F141" s="28" t="s">
         <v>961</v>
       </c>
       <c r="G141" t="s">
         <v>962</v>
       </c>
-      <c r="H141" s="31" t="s">
+      <c r="H141" s="28" t="s">
         <v>963</v>
       </c>
-      <c r="I141" s="32"/>
-      <c r="J141" s="33"/>
+      <c r="I141" s="29"/>
+      <c r="J141" s="30"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B142" s="31" t="s">
+      <c r="B142" s="28" t="s">
         <v>964</v>
       </c>
-      <c r="C142" s="31" t="s">
+      <c r="C142" s="28" t="s">
         <v>965</v>
       </c>
       <c r="D142" t="s">
         <v>527</v>
       </c>
-      <c r="E142" s="31" t="s">
+      <c r="E142" s="28" t="s">
         <v>966</v>
       </c>
-      <c r="F142" s="31" t="s">
+      <c r="F142" s="28" t="s">
         <v>967</v>
       </c>
       <c r="G142" t="s">
         <v>968</v>
       </c>
-      <c r="H142" s="31" t="s">
+      <c r="H142" s="28" t="s">
         <v>969</v>
       </c>
-      <c r="I142" s="32"/>
-      <c r="J142" s="33"/>
+      <c r="I142" s="29"/>
+      <c r="J142" s="30"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B143" s="31" t="s">
+      <c r="B143" s="28" t="s">
         <v>970</v>
       </c>
-      <c r="C143" s="31" t="s">
+      <c r="C143" s="28" t="s">
         <v>971</v>
       </c>
       <c r="D143" t="s">
         <v>488</v>
       </c>
-      <c r="E143" s="31" t="s">
+      <c r="E143" s="28" t="s">
         <v>972</v>
       </c>
-      <c r="F143" s="31" t="s">
+      <c r="F143" s="28" t="s">
         <v>268</v>
       </c>
       <c r="G143" t="s">
         <v>973</v>
       </c>
-      <c r="H143" s="31" t="s">
+      <c r="H143" s="28" t="s">
         <v>974</v>
       </c>
-      <c r="I143" s="32"/>
-      <c r="J143" s="33"/>
+      <c r="I143" s="29"/>
+      <c r="J143" s="30"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B144" s="31" t="s">
+      <c r="B144" s="28" t="s">
         <v>975</v>
       </c>
-      <c r="C144" s="31" t="s">
+      <c r="C144" s="28" t="s">
         <v>976</v>
       </c>
       <c r="D144" t="s">
         <v>488</v>
       </c>
-      <c r="E144" s="31" t="s">
+      <c r="E144" s="28" t="s">
         <v>977</v>
       </c>
-      <c r="F144" s="31" t="s">
+      <c r="F144" s="28" t="s">
         <v>206</v>
       </c>
       <c r="G144" t="s">
         <v>978</v>
       </c>
-      <c r="H144" s="31" t="s">
+      <c r="H144" s="28" t="s">
         <v>979</v>
       </c>
-      <c r="I144" s="32"/>
-      <c r="J144" s="33"/>
+      <c r="I144" s="29"/>
+      <c r="J144" s="30"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B145" s="31" t="s">
+      <c r="B145" s="28" t="s">
         <v>980</v>
       </c>
-      <c r="C145" s="34">
+      <c r="C145" s="31">
         <v>181</v>
       </c>
       <c r="D145" t="s">
         <v>488</v>
       </c>
-      <c r="E145" s="31" t="s">
+      <c r="E145" s="28" t="s">
         <v>981</v>
       </c>
-      <c r="F145" s="31" t="s">
+      <c r="F145" s="28" t="s">
         <v>213</v>
       </c>
       <c r="G145" t="s">
         <v>982</v>
       </c>
-      <c r="H145" s="31" t="s">
+      <c r="H145" s="28" t="s">
         <v>983</v>
       </c>
-      <c r="I145" s="32"/>
-      <c r="J145" s="33"/>
+      <c r="I145" s="29"/>
+      <c r="J145" s="30"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B146" s="31" t="s">
+      <c r="B146" s="28" t="s">
         <v>984</v>
       </c>
-      <c r="C146" s="31" t="s">
+      <c r="C146" s="28" t="s">
         <v>985</v>
       </c>
       <c r="D146" t="s">
         <v>488</v>
       </c>
-      <c r="E146" s="31" t="s">
+      <c r="E146" s="28" t="s">
         <v>986</v>
       </c>
-      <c r="F146" s="31" t="s">
+      <c r="F146" s="28" t="s">
         <v>484</v>
       </c>
       <c r="G146" t="s">
         <v>987</v>
       </c>
-      <c r="H146" s="31" t="s">
+      <c r="H146" s="28" t="s">
         <v>988</v>
       </c>
-      <c r="I146" s="32"/>
-      <c r="J146" s="33"/>
+      <c r="I146" s="29"/>
+      <c r="J146" s="30"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B147" s="31" t="s">
+      <c r="B147" s="28" t="s">
         <v>989</v>
       </c>
-      <c r="C147" s="31" t="s">
+      <c r="C147" s="28" t="s">
         <v>826</v>
       </c>
       <c r="D147" t="s">
         <v>488</v>
       </c>
-      <c r="E147" s="31" t="s">
+      <c r="E147" s="28" t="s">
         <v>990</v>
       </c>
-      <c r="F147" s="31" t="s">
+      <c r="F147" s="28" t="s">
         <v>938</v>
       </c>
       <c r="G147" t="s">
         <v>991</v>
       </c>
-      <c r="H147" s="31" t="s">
+      <c r="H147" s="28" t="s">
         <v>992</v>
       </c>
-      <c r="I147" s="32"/>
-      <c r="J147" s="33"/>
+      <c r="I147" s="29"/>
+      <c r="J147" s="30"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B148" s="31" t="s">
+      <c r="B148" s="28" t="s">
         <v>993</v>
       </c>
-      <c r="C148" s="31" t="s">
+      <c r="C148" s="28" t="s">
         <v>614</v>
       </c>
       <c r="D148" t="s">
         <v>488</v>
       </c>
-      <c r="E148" s="31" t="s">
+      <c r="E148" s="28" t="s">
         <v>994</v>
       </c>
-      <c r="F148" s="31" t="s">
+      <c r="F148" s="28" t="s">
         <v>944</v>
       </c>
       <c r="G148" t="s">
         <v>995</v>
       </c>
-      <c r="H148" s="31" t="s">
+      <c r="H148" s="28" t="s">
         <v>996</v>
       </c>
-      <c r="I148" s="32"/>
-      <c r="J148" s="33"/>
+      <c r="I148" s="29"/>
+      <c r="J148" s="30"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B149" s="31" t="s">
+      <c r="B149" s="28" t="s">
         <v>997</v>
       </c>
-      <c r="C149" s="31" t="s">
+      <c r="C149" s="28" t="s">
         <v>365</v>
       </c>
       <c r="D149" t="s">
         <v>488</v>
       </c>
-      <c r="E149" s="31" t="s">
+      <c r="E149" s="28" t="s">
         <v>998</v>
       </c>
-      <c r="F149" s="31" t="s">
+      <c r="F149" s="28" t="s">
         <v>437</v>
       </c>
       <c r="G149" t="s">
         <v>999</v>
       </c>
-      <c r="H149" s="31" t="s">
+      <c r="H149" s="28" t="s">
         <v>1000</v>
       </c>
-      <c r="I149" s="32"/>
-      <c r="J149" s="33"/>
+      <c r="I149" s="29"/>
+      <c r="J149" s="30"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B150" s="31" t="s">
+      <c r="B150" s="28" t="s">
         <v>1001</v>
       </c>
-      <c r="C150" s="31" t="s">
+      <c r="C150" s="28" t="s">
         <v>1002</v>
       </c>
       <c r="D150" t="s">
         <v>488</v>
       </c>
-      <c r="E150" s="31" t="s">
+      <c r="E150" s="28" t="s">
         <v>1003</v>
       </c>
-      <c r="F150" s="31" t="s">
+      <c r="F150" s="28" t="s">
         <v>443</v>
       </c>
       <c r="G150" t="s">
         <v>1004</v>
       </c>
-      <c r="H150" s="31" t="s">
+      <c r="H150" s="28" t="s">
         <v>1005</v>
       </c>
-      <c r="I150" s="32"/>
-      <c r="J150" s="33"/>
+      <c r="I150" s="29"/>
+      <c r="J150" s="30"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B151" s="31" t="s">
+      <c r="B151" s="28" t="s">
         <v>1006</v>
       </c>
-      <c r="C151" s="31" t="s">
+      <c r="C151" s="28" t="s">
         <v>1007</v>
       </c>
       <c r="D151" t="s">
         <v>488</v>
       </c>
-      <c r="E151" s="31" t="s">
+      <c r="E151" s="28" t="s">
         <v>1008</v>
       </c>
-      <c r="F151" s="31" t="s">
+      <c r="F151" s="28" t="s">
         <v>246</v>
       </c>
       <c r="G151" t="s">
         <v>1009</v>
       </c>
-      <c r="H151" s="31" t="s">
+      <c r="H151" s="28" t="s">
         <v>1010</v>
       </c>
-      <c r="I151" s="32"/>
-      <c r="J151" s="33"/>
+      <c r="I151" s="29"/>
+      <c r="J151" s="30"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B152" s="31" t="s">
+      <c r="B152" s="28" t="s">
         <v>1011</v>
       </c>
-      <c r="C152" s="31" t="s">
+      <c r="C152" s="28" t="s">
         <v>1012</v>
       </c>
       <c r="D152" t="s">
         <v>488</v>
       </c>
-      <c r="E152" s="31" t="s">
+      <c r="E152" s="28" t="s">
         <v>1013</v>
       </c>
-      <c r="F152" s="31" t="s">
+      <c r="F152" s="28" t="s">
         <v>955</v>
       </c>
       <c r="G152" t="s">
         <v>1014</v>
       </c>
-      <c r="H152" s="31" t="s">
+      <c r="H152" s="28" t="s">
         <v>1015</v>
       </c>
-      <c r="I152" s="32"/>
-      <c r="J152" s="33"/>
+      <c r="I152" s="29"/>
+      <c r="J152" s="30"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B153" s="31" t="s">
+      <c r="B153" s="28" t="s">
         <v>1016</v>
       </c>
-      <c r="C153" s="31" t="s">
+      <c r="C153" s="28" t="s">
         <v>1017</v>
       </c>
       <c r="D153" t="s">
         <v>488</v>
       </c>
-      <c r="E153" s="31" t="s">
+      <c r="E153" s="28" t="s">
         <v>1018</v>
       </c>
-      <c r="F153" s="31" t="s">
+      <c r="F153" s="28" t="s">
         <v>961</v>
       </c>
       <c r="G153" t="s">
         <v>1019</v>
       </c>
-      <c r="H153" s="31" t="s">
+      <c r="H153" s="28" t="s">
         <v>1020</v>
       </c>
-      <c r="I153" s="32"/>
-      <c r="J153" s="33"/>
+      <c r="I153" s="29"/>
+      <c r="J153" s="30"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B154" s="31" t="s">
+      <c r="B154" s="28" t="s">
         <v>1021</v>
       </c>
-      <c r="C154" s="31" t="s">
+      <c r="C154" s="28" t="s">
         <v>1022</v>
       </c>
       <c r="D154" t="s">
         <v>488</v>
       </c>
-      <c r="E154" s="31" t="s">
+      <c r="E154" s="28" t="s">
         <v>1023</v>
       </c>
-      <c r="F154" s="31" t="s">
+      <c r="F154" s="28" t="s">
         <v>1024</v>
       </c>
       <c r="G154" t="s">
         <v>1025</v>
       </c>
-      <c r="H154" s="31" t="s">
+      <c r="H154" s="28" t="s">
         <v>1026</v>
       </c>
-      <c r="I154" s="32"/>
-      <c r="J154" s="33"/>
+      <c r="I154" s="29"/>
+      <c r="J154" s="30"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B155" s="31" t="s">
+      <c r="B155" s="28" t="s">
         <v>1027</v>
       </c>
-      <c r="C155" s="31" t="s">
+      <c r="C155" s="28" t="s">
         <v>1028</v>
       </c>
       <c r="D155" t="s">
         <v>488</v>
       </c>
-      <c r="E155" s="31" t="s">
+      <c r="E155" s="28" t="s">
         <v>1029</v>
       </c>
-      <c r="F155" s="31" t="s">
+      <c r="F155" s="28" t="s">
         <v>967</v>
       </c>
       <c r="G155" t="s">
         <v>1030</v>
       </c>
-      <c r="H155" s="31" t="s">
+      <c r="H155" s="28" t="s">
         <v>1031</v>
       </c>
-      <c r="I155" s="32"/>
-      <c r="J155" s="33"/>
+      <c r="I155" s="29"/>
+      <c r="J155" s="30"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B156" s="31" t="s">
+      <c r="B156" s="28" t="s">
         <v>1032</v>
       </c>
-      <c r="C156" s="31" t="s">
+      <c r="C156" s="28" t="s">
         <v>1033</v>
       </c>
       <c r="D156" t="s">
         <v>488</v>
       </c>
-      <c r="E156" s="31" t="s">
+      <c r="E156" s="28" t="s">
         <v>1034</v>
       </c>
-      <c r="F156" s="31" t="s">
+      <c r="F156" s="28" t="s">
         <v>1035</v>
       </c>
       <c r="G156" t="s">
         <v>1036</v>
       </c>
-      <c r="H156" s="31" t="s">
+      <c r="H156" s="28" t="s">
         <v>1037</v>
       </c>
-      <c r="I156" s="32"/>
-      <c r="J156" s="33"/>
+      <c r="I156" s="29"/>
+      <c r="J156" s="30"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B157" s="31" t="s">
+      <c r="B157" s="28" t="s">
         <v>1038</v>
       </c>
-      <c r="C157" s="31" t="s">
+      <c r="C157" s="28" t="s">
         <v>1039</v>
       </c>
       <c r="D157" t="s">
         <v>1007</v>
       </c>
-      <c r="E157" s="31" t="s">
+      <c r="E157" s="28" t="s">
         <v>1040</v>
       </c>
-      <c r="F157" s="31" t="s">
+      <c r="F157" s="28" t="s">
         <v>254</v>
       </c>
       <c r="G157" t="s">
         <v>1041</v>
       </c>
-      <c r="H157" s="31" t="s">
+      <c r="H157" s="28" t="s">
         <v>1042</v>
       </c>
-      <c r="I157" s="32"/>
-      <c r="J157" s="33"/>
+      <c r="I157" s="29"/>
+      <c r="J157" s="30"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B158" s="31" t="s">
+      <c r="B158" s="28" t="s">
         <v>1043</v>
       </c>
-      <c r="C158" s="31" t="s">
+      <c r="C158" s="28" t="s">
         <v>1044</v>
       </c>
       <c r="D158" t="s">
         <v>1007</v>
       </c>
-      <c r="E158" s="31" t="s">
+      <c r="E158" s="28" t="s">
         <v>1045</v>
       </c>
-      <c r="F158" s="31" t="s">
+      <c r="F158" s="28" t="s">
         <v>261</v>
       </c>
       <c r="G158" t="s">
         <v>1046</v>
       </c>
-      <c r="H158" s="31" t="s">
+      <c r="H158" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I158" s="32"/>
-      <c r="J158" s="33"/>
+      <c r="I158" s="29"/>
+      <c r="J158" s="30"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B159" s="31" t="s">
+      <c r="B159" s="28" t="s">
         <v>1048</v>
       </c>
-      <c r="C159" s="31" t="s">
+      <c r="C159" s="28" t="s">
         <v>1049</v>
       </c>
       <c r="D159" t="s">
         <v>1007</v>
       </c>
-      <c r="E159" s="31" t="s">
+      <c r="E159" s="28" t="s">
         <v>1050</v>
       </c>
-      <c r="F159" s="31" t="s">
+      <c r="F159" s="28" t="s">
         <v>268</v>
       </c>
       <c r="G159" t="s">
         <v>1051</v>
       </c>
-      <c r="H159" s="31" t="s">
+      <c r="H159" s="28" t="s">
         <v>1052</v>
       </c>
-      <c r="I159" s="32"/>
-      <c r="J159" s="33"/>
+      <c r="I159" s="29"/>
+      <c r="J159" s="30"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B160" s="31" t="s">
+      <c r="B160" s="28" t="s">
         <v>1053</v>
       </c>
-      <c r="C160" s="31" t="s">
+      <c r="C160" s="28" t="s">
         <v>1054</v>
       </c>
       <c r="D160" t="s">
         <v>1007</v>
       </c>
-      <c r="E160" s="31" t="s">
+      <c r="E160" s="28" t="s">
         <v>1055</v>
       </c>
-      <c r="F160" s="31" t="s">
+      <c r="F160" s="28" t="s">
         <v>275</v>
       </c>
       <c r="G160" t="s">
         <v>1056</v>
       </c>
-      <c r="H160" s="31" t="s">
+      <c r="H160" s="28" t="s">
         <v>1057</v>
       </c>
-      <c r="I160" s="32"/>
-      <c r="J160" s="33"/>
+      <c r="I160" s="29"/>
+      <c r="J160" s="30"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B161" s="31" t="s">
+      <c r="B161" s="28" t="s">
         <v>1058</v>
       </c>
-      <c r="C161" s="31" t="s">
+      <c r="C161" s="28" t="s">
         <v>1059</v>
       </c>
       <c r="D161" t="s">
         <v>286</v>
       </c>
-      <c r="E161" s="31" t="s">
+      <c r="E161" s="28" t="s">
         <v>1060</v>
       </c>
-      <c r="F161" s="31" t="s">
+      <c r="F161" s="28" t="s">
         <v>254</v>
       </c>
       <c r="G161" t="s">
         <v>1061</v>
       </c>
-      <c r="H161" s="31" t="s">
+      <c r="H161" s="28" t="s">
         <v>1062</v>
       </c>
-      <c r="I161" s="32"/>
-      <c r="J161" s="33"/>
+      <c r="I161" s="29"/>
+      <c r="J161" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JEFES & RS.xlsx
+++ b/JEFES & RS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\ARCHIVOS\al_maletin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F259EA6-008E-4773-B601-C390979E5D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA63C421-FC2F-4C98-B837-CD51F37060E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jefes" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="1113">
   <si>
     <t>Encargados de Producción</t>
   </si>
@@ -3323,9 +3323,6 @@
     <t>GAM-981218-4X3</t>
   </si>
   <si>
-    <t>R1426392103</t>
-  </si>
-  <si>
     <t>Lirios No. 628, Fracc. Los Girasoles, Zapopan, Jalisco.</t>
   </si>
   <si>
@@ -3366,6 +3363,33 @@
   </si>
   <si>
     <t>Marqueza de Calderon No. 3421-203, Jardines del Nilo. Tel. 3680-4149</t>
+  </si>
+  <si>
+    <t>MATERAZO INDUSTRIAL, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>CALDERA No. 2092 Alamo Industrial, Guadalajara, Jal. CP 44490</t>
+  </si>
+  <si>
+    <t>MIN-011005-PV3</t>
+  </si>
+  <si>
+    <t>C12-24299-10-1</t>
+  </si>
+  <si>
+    <t>R14-26392-10-3</t>
+  </si>
+  <si>
+    <t>Calle 14 No. 2783, Zona Industrial, Guadaljara, Jal. CP 44940</t>
+  </si>
+  <si>
+    <t>Corporativo Av. 8 Julio No. 2545</t>
+  </si>
+  <si>
+    <t>R12-5397-31-0</t>
+  </si>
+  <si>
+    <t>Av. Angel Leaño No. 401, Parque Industrial San Angel, Zapopan, Jal. CP 45200</t>
   </si>
 </sst>
 </file>
@@ -3538,7 +3562,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3625,13 +3649,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3644,19 +3661,10 @@
     <xf numFmtId="44" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3665,11 +3673,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
@@ -3689,26 +3706,20 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4148,9 +4159,9 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4163,34 +4174,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54">
+      <c r="A3" s="51">
         <v>43550</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
@@ -4834,11 +4845,11 @@
         <v>43893</v>
       </c>
       <c r="B43" s="6">
-        <v>44683</v>
+        <v>44896</v>
       </c>
       <c r="C43" s="15">
         <f t="shared" si="0"/>
-        <v>2.1643835616438358</v>
+        <v>2.7479452054794522</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>40</v>
@@ -4891,7 +4902,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
@@ -4906,34 +4917,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54">
+      <c r="A3" s="51">
         <v>43186</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
@@ -5783,7 +5794,7 @@
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="22"/>
-      <c r="D61" s="49" t="s">
+      <c r="D61" s="42" t="s">
         <v>1084</v>
       </c>
       <c r="E61" s="24"/>
@@ -5793,7 +5804,7 @@
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="22"/>
-      <c r="D62" s="49" t="s">
+      <c r="D62" s="42" t="s">
         <v>1085</v>
       </c>
       <c r="E62" s="24"/>
@@ -5820,13 +5831,13 @@
       <c r="B65" s="21"/>
       <c r="C65" s="22"/>
       <c r="D65" s="23" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E65" s="24" t="s">
         <v>1093</v>
       </c>
-      <c r="E65" s="24" t="s">
+      <c r="F65" s="25" t="s">
         <v>1094</v>
-      </c>
-      <c r="F65" s="25" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -5834,13 +5845,13 @@
       <c r="B66" s="21"/>
       <c r="C66" s="22"/>
       <c r="D66" s="23" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E66" s="24" t="s">
         <v>1096</v>
       </c>
-      <c r="E66" s="24" t="s">
+      <c r="F66" s="25" t="s">
         <v>1097</v>
-      </c>
-      <c r="F66" s="25" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.2">
@@ -5848,13 +5859,13 @@
       <c r="B67" s="21"/>
       <c r="C67" s="22"/>
       <c r="D67" s="23" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E67" s="24" t="s">
         <v>1099</v>
       </c>
-      <c r="E67" s="24" t="s">
+      <c r="F67" s="25" t="s">
         <v>1100</v>
-      </c>
-      <c r="F67" s="25" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.2">
@@ -5862,13 +5873,13 @@
       <c r="B68" s="21"/>
       <c r="C68" s="22"/>
       <c r="D68" s="23" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E68" s="24" t="s">
         <v>1102</v>
       </c>
-      <c r="E68" s="24" t="s">
+      <c r="F68" s="25" t="s">
         <v>1103</v>
-      </c>
-      <c r="F68" s="25" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -5910,11 +5921,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23A7864-C07B-4431-A5B4-1CD1FB7CCB3A}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5924,261 +5935,230 @@
     <col min="3" max="3" width="40.5703125" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="62" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="46" customWidth="1"/>
     <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="34"/>
-      <c r="B1" s="56" t="s">
+    <row r="1" spans="2:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="57" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+    </row>
+    <row r="2" spans="2:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B2" s="54" t="s">
         <v>1067</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="34"/>
-    </row>
-    <row r="3" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="58">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+    </row>
+    <row r="3" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="55">
         <v>44683</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="34"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="37" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+    </row>
+    <row r="4" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="34" t="s">
         <v>1072</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="35" t="s">
         <v>1073</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="36" t="s">
         <v>1074</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="36" t="s">
         <v>1075</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="36" t="s">
         <v>1076</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="34"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="26">
         <v>32203</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="38" t="s">
         <v>1080</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="39" t="s">
         <v>1086</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="41" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="38" t="s">
         <v>1083</v>
       </c>
-      <c r="H5" s="34"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="41" t="s">
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="38" t="s">
         <v>1081</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="34"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35">
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="39"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="26">
         <v>36147</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="39" t="s">
         <v>1087</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="39" t="s">
         <v>1088</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="39" t="s">
         <v>1089</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="56" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G7" s="39"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="39" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="39"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="26">
+        <v>37257</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G9" s="39"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="38" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="39"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="26">
+        <v>37645</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="56" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="26">
+        <v>35811</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D12" s="39" t="s">
         <v>1090</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="43" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="34"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35">
-        <v>35811</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="34"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="34"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="34"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="34"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="34"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="36">
+      <c r="E12" s="39"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="39"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="26">
         <v>38134</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C13" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D13" s="38" t="s">
         <v>1071</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E13" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="34"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="41" t="s">
+      <c r="F13" s="43"/>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="41" t="s">
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="38" t="s">
         <v>1077</v>
       </c>
-      <c r="H16" s="34"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="41" t="s">
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="34"/>
-    </row>
-    <row r="18" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="27"/>
-      <c r="C18" s="46" t="s">
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="39"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="27"/>
+      <c r="C16" s="40" t="s">
         <v>1066</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D16" s="40" t="s">
         <v>1078</v>
       </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="48" t="s">
+      <c r="E16" s="41"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="57" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="27"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="20"/>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="27"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/JEFES & RS.xlsx
+++ b/JEFES & RS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\ARCHIVOS\al_maletin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zarkin-my.sharepoint.com/personal/it_due_zarkin_onmicrosoft_com/Documents/Documentos/al_maletin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA63C421-FC2F-4C98-B837-CD51F37060E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{CA63C421-FC2F-4C98-B837-CD51F37060E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0FA49DF-DB94-4C99-9835-30BBFE1A99B8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="1114">
   <si>
     <t>Encargados de Producción</t>
   </si>
@@ -236,15 +236,9 @@
     <t>Gerente del Area (mart_grar@hotmail.com)</t>
   </si>
   <si>
-    <t>Laura Margarita Vargas.</t>
-  </si>
-  <si>
     <t>Almacen, Planeacion, Almacen</t>
   </si>
   <si>
-    <t>Empezo en Almacen con Claudia, pasa a Planeacion conmigo y se pasa a Almacen con Roberto Maldonado (lauram203@hotmail.com).</t>
-  </si>
-  <si>
     <t>Produccion</t>
   </si>
   <si>
@@ -395,9 +389,6 @@
     <t>Produccion Cojineria</t>
   </si>
   <si>
-    <t>Cojinero.</t>
-  </si>
-  <si>
     <t>Juan Rosas</t>
   </si>
   <si>
@@ -3359,12 +3350,6 @@
     <t>Laura Margarita Vargas Hernandez</t>
   </si>
   <si>
-    <t>Planeacion.</t>
-  </si>
-  <si>
-    <t>Marqueza de Calderon No. 3421-203, Jardines del Nilo. Tel. 3680-4149</t>
-  </si>
-  <si>
     <t>MATERAZO INDUSTRIAL, S.A. DE C.V.</t>
   </si>
   <si>
@@ -3390,6 +3375,24 @@
   </si>
   <si>
     <t>Av. Angel Leaño No. 401, Parque Industrial San Angel, Zapopan, Jal. CP 45200</t>
+  </si>
+  <si>
+    <t>Inicio en Lerma cuando estaba Eduardo Desavre.</t>
+  </si>
+  <si>
+    <t>Sistemas.</t>
+  </si>
+  <si>
+    <t>Ingreso cuando se implemento SAP</t>
+  </si>
+  <si>
+    <t>Juan Carlos Luna</t>
+  </si>
+  <si>
+    <t>Empezo en Almacen con Claudia, pasa a Planeacion conmigo y se pasa a Almacen con Roberto Maldonado (lauram203@hotmail.com). Marqueza de Calderon No. 3421-203, Jardines del Nilo. Tel. 3680-4149</t>
+  </si>
+  <si>
+    <t>Cojinero, y se paso a Iteknia.</t>
   </si>
 </sst>
 </file>
@@ -3495,7 +3498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -3555,6 +3558,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3562,7 +3602,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3616,21 +3656,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3638,9 +3663,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3673,9 +3695,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3687,6 +3706,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
@@ -3715,18 +3740,374 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -3891,6 +4272,25 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D826755A-EDB6-45E3-A2EC-EF30B26ABD3C}" name="Tabla1" displayName="Tabla1" ref="A4:F70" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="A4:F70" xr:uid="{D826755A-EDB6-45E3-A2EC-EF30B26ABD3C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:F70">
+    <sortCondition ref="D5:D70"/>
+    <sortCondition ref="E5:E70"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{E69625EC-FD2C-454E-BE75-C8324D8D5DCF}" name="Inicia" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{4C883071-1657-4628-86E4-2281766A4AAA}" name="Finaliza" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B5DB4BE5-BFA2-47DB-9400-F880D3C76506}" name="Años" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{46216E29-8214-4E8C-9A79-4CC988152F4F}" name="Colaborador" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{7BC910EA-1116-4E5C-AFF9-755BC94DF7DB}" name="Area" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{8A17EDCD-5BD3-4762-8D37-1DA72E8C8D43}" name="Notas" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4160,8 +4560,8 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4174,34 +4574,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51">
+      <c r="A3" s="46">
         <v>43550</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
@@ -4487,7 +4887,7 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -4623,11 +5023,11 @@
       <c r="B32" s="12"/>
       <c r="C32" s="15"/>
       <c r="D32" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -4791,7 +5191,7 @@
         <v>40</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>34</v>
@@ -4809,10 +5209,10 @@
         <v>7.1232876712328766E-2</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>34</v>
@@ -4836,7 +5236,7 @@
         <v>39</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -4845,20 +5245,20 @@
         <v>43893</v>
       </c>
       <c r="B43" s="6">
-        <v>44896</v>
+        <v>45833</v>
       </c>
       <c r="C43" s="15">
         <f t="shared" si="0"/>
-        <v>2.7479452054794522</v>
+        <v>5.3150684931506849</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>40</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>1069</v>
+        <v>1065</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -4900,1011 +5300,961 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E5A11B-5847-4351-9046-BB2BED0377A1}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+      <pane ySplit="4" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.140625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="6" width="64.140625" style="14" customWidth="1"/>
+    <col min="1" max="2" width="12.140625" style="72" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="53" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="53" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" style="53" customWidth="1"/>
+    <col min="6" max="6" width="64.140625" style="73" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="56">
+        <v>43186</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="I12" s="66"/>
+      <c r="K12" s="66"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="65"/>
+      <c r="I13" s="66"/>
+      <c r="K13" s="66"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E16" s="64" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I16" s="66"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="74" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="61">
+        <v>41244</v>
+      </c>
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E18" s="64" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I18" s="66"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="65"/>
+    </row>
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="63" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="65" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="61"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="61"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="74" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E29" s="64"/>
+      <c r="F29" s="65"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-    </row>
-    <row r="3" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51">
-        <v>43186</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23" t="s">
+      <c r="F34" s="65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="61"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="61"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="61"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="63" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F37" s="65" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="61"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="61"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" s="65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="61"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="65" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="61"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="61"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="61"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="65"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="61"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" s="61"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="61"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="65" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A48" s="61"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A49" s="61"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" s="65" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="61"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="61"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" s="65"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="61"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A53" s="61"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="65" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A54" s="61"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="63" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E54" s="64" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F54" s="65" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="61"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="61"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56" s="65" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="61"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" s="65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="61"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" s="65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="61"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" s="65"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="61"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" s="65" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A61" s="61"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E61" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F61" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="24" t="s">
+    </row>
+    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="61"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="F62" s="65" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="61"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="F63" s="65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="61"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F64" s="65"/>
+    </row>
+    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="61"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="F65" s="65" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="I12" s="10"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="I13" s="10"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="20"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="G34" s="20"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="G36" s="20"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="20"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G38" s="20"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23" t="s">
+      <c r="F66" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="E40" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="20"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="G41" s="20"/>
-    </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="G42" s="20"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="F43" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G43" s="20"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="G44" s="20"/>
-    </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="G45" s="20"/>
-    </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="G46" s="20"/>
-    </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="F47" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="G47" s="20"/>
-    </row>
-    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="G48" s="20"/>
-    </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="G49" s="20"/>
-    </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F50" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="G50" s="20"/>
-    </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="G51" s="20"/>
-    </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F55" s="25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="E56" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F56" s="25" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="F57" s="25"/>
-    </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="E58" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="E59" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F59" s="25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F60" s="25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="42" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="25"/>
-    </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="42" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="25"/>
-    </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="25"/>
-    </row>
-    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="25"/>
-    </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="23" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F65" s="25" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="23" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F66" s="25" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="23" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E67" s="24" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F67" s="25" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="23" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E68" s="24" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F68" s="25" t="s">
-        <v>1103</v>
-      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="61"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="65"/>
+    </row>
+    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="61"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="65"/>
     </row>
     <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="25"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="65"/>
     </row>
     <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="25"/>
-    </row>
-    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="25"/>
+      <c r="A70" s="67"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5915,6 +6265,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -5925,239 +6278,239 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="21" customWidth="1"/>
     <col min="3" max="3" width="40.5703125" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="46" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="39" customWidth="1"/>
     <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="2:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="54" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="B2" s="49" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="55">
+      <c r="B3" s="50">
         <v>44683</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="28" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>1072</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="F4" s="30" t="s">
         <v>1073</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="G4" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="21">
+        <v>32203</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="32" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="32" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="21">
+        <v>36147</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="33" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="21">
+        <v>37257</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="33"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="21">
+        <v>37645</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="40" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="21">
+        <v>35811</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="33"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="21">
+        <v>38134</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="32" t="s">
         <v>1074</v>
       </c>
-      <c r="E4" s="36" t="s">
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="33"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="22"/>
+      <c r="C16" s="34" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>1075</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="E16" s="35"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="41" t="s">
         <v>1076</v>
       </c>
-      <c r="G4" s="37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="26">
-        <v>32203</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="38" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C6" s="38" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="39"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="26">
-        <v>36147</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F7" s="56" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G7" s="39"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C8" s="39" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="39"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="26">
-        <v>37257</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>1107</v>
-      </c>
-      <c r="G9" s="39"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C10" s="38" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="39"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="26">
-        <v>37645</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="56" t="s">
-        <v>1111</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="26">
-        <v>35811</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="39"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="26">
-        <v>38134</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C14" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="38" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C15" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="39"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="27"/>
-      <c r="C16" s="40" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="57" t="s">
-        <v>1079</v>
-      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="27"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="45"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="20"/>
     </row>
   </sheetData>
@@ -6177,4240 +6530,4243 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="B2:J161"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="15" style="39" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>1064</v>
+        <v>1060</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>1061</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="F4" t="s">
         <v>194</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>195</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="H4" s="28" t="s">
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="C5" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="D5" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="28" t="s">
+      <c r="E5" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="F5" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>204</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="H5" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="I5" s="76">
+        <v>750907900001</v>
+      </c>
+      <c r="J5" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="C6" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="I5" s="29">
-        <v>750907900001</v>
-      </c>
-      <c r="J5" s="30" t="s">
+      <c r="D6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="28" t="s">
+      <c r="F6" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="G6" t="s">
         <v>211</v>
       </c>
-      <c r="D6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6" s="28" t="s">
+      <c r="H6" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="I6" s="76">
+        <v>750907900002</v>
+      </c>
+      <c r="J6" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="C7" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="I6" s="29">
-        <v>750907900002</v>
-      </c>
-      <c r="J6" s="30" t="s">
+      <c r="D7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="28" t="s">
+      <c r="F7" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="G7" t="s">
         <v>218</v>
       </c>
-      <c r="D7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="28" t="s">
+      <c r="H7" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="I7" s="76">
+        <v>750907900003</v>
+      </c>
+      <c r="J7" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="C8" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="I7" s="29">
-        <v>750907900003</v>
-      </c>
-      <c r="J7" s="30" t="s">
+      <c r="D8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="28" t="s">
+      <c r="F8" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="G8" t="s">
         <v>225</v>
       </c>
-      <c r="D8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" s="28" t="s">
+      <c r="H8" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="I8" s="76">
+        <v>750907900004</v>
+      </c>
+      <c r="J8" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="C9" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="I8" s="29">
-        <v>750907900004</v>
-      </c>
-      <c r="J8" s="30" t="s">
+      <c r="D9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="28" t="s">
+      <c r="F9" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="G9" t="s">
         <v>232</v>
       </c>
-      <c r="D9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" s="28" t="s">
+      <c r="H9" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="I9" s="76">
+        <v>750907900005</v>
+      </c>
+      <c r="J9" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="C10" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="I9" s="29">
-        <v>750907900005</v>
-      </c>
-      <c r="J9" s="30" t="s">
+      <c r="D10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="28" t="s">
+      <c r="F10" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="G10" t="s">
+        <v>232</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="I10" s="76">
+        <v>750907900006</v>
+      </c>
+      <c r="J10" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="28" t="s">
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="C11" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="G10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="I10" s="29">
-        <v>750907900006</v>
-      </c>
-      <c r="J10" s="30" t="s">
+      <c r="D11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="28" t="s">
+      <c r="F11" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="G11" t="s">
         <v>244</v>
       </c>
-      <c r="D11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" s="28" t="s">
+      <c r="H11" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="I11" s="76">
+        <v>750907900007</v>
+      </c>
+      <c r="J11" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="G11" t="s">
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="C12" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="I11" s="29">
-        <v>750907900007</v>
-      </c>
-      <c r="J11" s="30" t="s">
+      <c r="D12" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="28" t="s">
+      <c r="E12" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="F12" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
         <v>252</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="H12" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="I12" s="76">
+        <v>750907900008</v>
+      </c>
+      <c r="J12" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="G12" t="s">
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="C13" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="I12" s="29">
-        <v>750907900008</v>
-      </c>
-      <c r="J12" s="28" t="s">
+      <c r="D13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="28" t="s">
+      <c r="F13" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="G13" t="s">
         <v>259</v>
       </c>
-      <c r="D13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E13" s="28" t="s">
+      <c r="H13" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="I13" s="76">
+        <v>750907900009</v>
+      </c>
+      <c r="J13" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="G13" t="s">
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="C14" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="I13" s="29">
-        <v>750907900009</v>
-      </c>
-      <c r="J13" s="30" t="s">
+      <c r="D14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="28" t="s">
+      <c r="F14" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="G14" t="s">
         <v>266</v>
       </c>
-      <c r="D14" t="s">
-        <v>252</v>
-      </c>
-      <c r="E14" s="28" t="s">
+      <c r="H14" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="I14" s="76">
+        <v>750907900010</v>
+      </c>
+      <c r="J14" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="G14" t="s">
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="C15" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="I14" s="29">
-        <v>750907900010</v>
-      </c>
-      <c r="J14" s="30" t="s">
+      <c r="D15" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="28" t="s">
+      <c r="F15" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="G15" t="s">
         <v>273</v>
       </c>
-      <c r="D15" t="s">
-        <v>252</v>
-      </c>
-      <c r="E15" s="28" t="s">
+      <c r="H15" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="I15" s="76">
+        <v>750907900011</v>
+      </c>
+      <c r="J15" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="G15" t="s">
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="C16" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="I15" s="29">
-        <v>750907900011</v>
-      </c>
-      <c r="J15" s="30" t="s">
+      <c r="D16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="28" t="s">
+      <c r="F16" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" t="s">
         <v>279</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="H16" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="D16" t="s">
-        <v>252</v>
-      </c>
-      <c r="E16" s="28" t="s">
+      <c r="I16" s="76">
+        <v>750907900012</v>
+      </c>
+      <c r="J16" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="F16" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="G16" t="s">
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="C17" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="I16" s="29">
-        <v>750907900012</v>
-      </c>
-      <c r="J16" s="30" t="s">
+      <c r="D17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="28" t="s">
+      <c r="F17" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G17" t="s">
         <v>285</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="H17" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="D17" t="s">
-        <v>252</v>
-      </c>
-      <c r="E17" s="28" t="s">
+      <c r="I17" s="76">
+        <v>750907900013</v>
+      </c>
+      <c r="J17" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="F17" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="G17" t="s">
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="C18" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="I17" s="29">
-        <v>750907900013</v>
-      </c>
-      <c r="J17" s="30" t="s">
+      <c r="D18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="28" t="s">
+      <c r="F18" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G18" t="s">
         <v>291</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="H18" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="D18" t="s">
-        <v>252</v>
-      </c>
-      <c r="E18" s="28" t="s">
+      <c r="I18" s="76">
+        <v>750907900014</v>
+      </c>
+      <c r="J18" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="F18" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="G18" t="s">
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="C19" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I18" s="29">
-        <v>750907900014</v>
-      </c>
-      <c r="J18" s="30" t="s">
+      <c r="D19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="28" t="s">
+      <c r="F19" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" t="s">
         <v>297</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="H19" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="D19" t="s">
-        <v>252</v>
-      </c>
-      <c r="E19" s="28" t="s">
+      <c r="I19" s="76">
+        <v>750907900015</v>
+      </c>
+      <c r="J19" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="F19" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="G19" t="s">
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="C20" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="I19" s="29">
-        <v>750907900015</v>
-      </c>
-      <c r="J19" s="30" t="s">
+      <c r="D20" t="s">
+        <v>249</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="28" t="s">
+      <c r="F20" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" t="s">
         <v>303</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="H20" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="D20" t="s">
-        <v>252</v>
-      </c>
-      <c r="E20" s="28" t="s">
+      <c r="I20" s="76">
+        <v>750907900016</v>
+      </c>
+      <c r="J20" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="F20" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="G20" t="s">
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="C21" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="I20" s="29">
-        <v>750907900016</v>
-      </c>
-      <c r="J20" s="30" t="s">
+      <c r="D21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E21" s="23" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="28" t="s">
+      <c r="F21" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" t="s">
         <v>309</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="H21" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="D21" t="s">
-        <v>252</v>
-      </c>
-      <c r="E21" s="28" t="s">
+      <c r="I21" s="76">
+        <v>750907900017</v>
+      </c>
+      <c r="J21" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="F21" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="G21" t="s">
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="C22" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="I21" s="29">
-        <v>750907900017</v>
-      </c>
-      <c r="J21" s="30" t="s">
+      <c r="D22" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="23" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="28" t="s">
+      <c r="F22" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="G22" t="s">
         <v>316</v>
       </c>
-      <c r="D22" t="s">
-        <v>252</v>
-      </c>
-      <c r="E22" s="28" t="s">
+      <c r="H22" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="I22" s="76">
+        <v>750907900018</v>
+      </c>
+      <c r="J22" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="G22" t="s">
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="C23" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="I22" s="29">
-        <v>750907900018</v>
-      </c>
-      <c r="J22" s="30" t="s">
+      <c r="D23" t="s">
+        <v>249</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="28" t="s">
+      <c r="F23" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="G23" t="s">
         <v>323</v>
       </c>
-      <c r="D23" t="s">
-        <v>252</v>
-      </c>
-      <c r="E23" s="28" t="s">
+      <c r="H23" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="I23" s="76">
+        <v>750907900019</v>
+      </c>
+      <c r="J23" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="G23" t="s">
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="C24" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="I23" s="29">
-        <v>750907900019</v>
-      </c>
-      <c r="J23" s="30" t="s">
+      <c r="D24" t="s">
+        <v>249</v>
+      </c>
+      <c r="E24" s="23" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="28" t="s">
+      <c r="F24" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" t="s">
         <v>329</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="H24" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="D24" t="s">
-        <v>252</v>
-      </c>
-      <c r="E24" s="28" t="s">
+      <c r="I24" s="76">
+        <v>750907900020</v>
+      </c>
+      <c r="J24" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="F24" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G24" t="s">
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="C25" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="I24" s="29">
-        <v>750907900020</v>
-      </c>
-      <c r="J24" s="30" t="s">
+      <c r="D25" t="s">
+        <v>249</v>
+      </c>
+      <c r="E25" s="23" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="28" t="s">
+      <c r="F25" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="G25" t="s">
         <v>336</v>
       </c>
-      <c r="D25" t="s">
-        <v>252</v>
-      </c>
-      <c r="E25" s="28" t="s">
+      <c r="H25" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="I25" s="76">
+        <v>750907900021</v>
+      </c>
+      <c r="J25" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="G25" t="s">
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="C26" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="I25" s="29">
-        <v>750907900021</v>
-      </c>
-      <c r="J25" s="30" t="s">
+      <c r="D26" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" s="23" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="28" t="s">
+      <c r="F26" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="G26" t="s">
         <v>343</v>
       </c>
-      <c r="D26" t="s">
-        <v>252</v>
-      </c>
-      <c r="E26" s="28" t="s">
+      <c r="H26" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="I26" s="76">
+        <v>750907900022</v>
+      </c>
+      <c r="J26" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="G26" t="s">
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="C27" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="I26" s="29">
-        <v>750907900022</v>
-      </c>
-      <c r="J26" s="30" t="s">
+      <c r="D27" t="s">
+        <v>249</v>
+      </c>
+      <c r="E27" s="23" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="28" t="s">
+      <c r="F27" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="G27" t="s">
         <v>350</v>
       </c>
-      <c r="D27" t="s">
-        <v>252</v>
-      </c>
-      <c r="E27" s="28" t="s">
+      <c r="H27" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="I27" s="76">
+        <v>750907900023</v>
+      </c>
+      <c r="J27" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="G27" t="s">
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="H27" s="28" t="s">
+      <c r="C28" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="I27" s="29">
-        <v>750907900023</v>
-      </c>
-      <c r="J27" s="30" t="s">
+      <c r="D28" t="s">
+        <v>249</v>
+      </c>
+      <c r="E28" s="23" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="28" t="s">
+      <c r="F28" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="G28" t="s">
         <v>357</v>
       </c>
-      <c r="D28" t="s">
-        <v>252</v>
-      </c>
-      <c r="E28" s="28" t="s">
+      <c r="H28" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="I28" s="76">
+        <v>750907900024</v>
+      </c>
+      <c r="J28" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="G28" t="s">
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="C29" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="I28" s="29">
-        <v>750907900024</v>
-      </c>
-      <c r="J28" s="30" t="s">
+      <c r="D29" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="28" t="s">
+      <c r="E29" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="F29" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29" t="s">
         <v>364</v>
       </c>
-      <c r="D29" t="s">
+      <c r="H29" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="I29" s="76">
+        <v>750907900025</v>
+      </c>
+      <c r="J29" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="F29" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="G29" t="s">
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="C30" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="I29" s="29">
-        <v>750907900025</v>
-      </c>
-      <c r="J29" s="30" t="s">
+      <c r="D30" t="s">
+        <v>362</v>
+      </c>
+      <c r="E30" s="23" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="28" t="s">
+      <c r="F30" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" t="s">
         <v>370</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="H30" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="D30" t="s">
-        <v>365</v>
-      </c>
-      <c r="E30" s="28" t="s">
+      <c r="I30" s="76">
+        <v>750907900026</v>
+      </c>
+      <c r="J30" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="F30" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="G30" t="s">
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="C31" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="I30" s="29">
-        <v>750907900026</v>
-      </c>
-      <c r="J30" s="30" t="s">
+      <c r="D31" t="s">
+        <v>362</v>
+      </c>
+      <c r="E31" s="23" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="28" t="s">
+      <c r="F31" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" t="s">
         <v>376</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="H31" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="D31" t="s">
-        <v>365</v>
-      </c>
-      <c r="E31" s="28" t="s">
+      <c r="I31" s="76">
+        <v>750907900027</v>
+      </c>
+      <c r="J31" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="F31" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="G31" t="s">
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="C32" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="I31" s="29">
-        <v>750907900027</v>
-      </c>
-      <c r="J31" s="30" t="s">
+      <c r="D32" t="s">
+        <v>362</v>
+      </c>
+      <c r="E32" s="23" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="28" t="s">
+      <c r="F32" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="G32" t="s">
         <v>382</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="H32" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="D32" t="s">
-        <v>365</v>
-      </c>
-      <c r="E32" s="28" t="s">
+      <c r="I32" s="76">
+        <v>750907900028</v>
+      </c>
+      <c r="J32" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="F32" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="G32" t="s">
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="H32" s="28" t="s">
+      <c r="C33" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="I32" s="29">
-        <v>750907900028</v>
-      </c>
-      <c r="J32" s="30" t="s">
+      <c r="D33" t="s">
+        <v>362</v>
+      </c>
+      <c r="E33" s="23" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="28" t="s">
+      <c r="F33" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="G33" t="s">
         <v>388</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="H33" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="D33" t="s">
-        <v>365</v>
-      </c>
-      <c r="E33" s="28" t="s">
+      <c r="I33" s="76">
+        <v>750907900029</v>
+      </c>
+      <c r="J33" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="F33" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="G33" t="s">
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="H33" s="28" t="s">
+      <c r="C34" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="I33" s="29">
-        <v>750907900029</v>
-      </c>
-      <c r="J33" s="30" t="s">
+      <c r="D34" t="s">
+        <v>362</v>
+      </c>
+      <c r="E34" s="23" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="28" t="s">
+      <c r="F34" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" t="s">
         <v>394</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="H34" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="D34" t="s">
-        <v>365</v>
-      </c>
-      <c r="E34" s="28" t="s">
+      <c r="I34" s="76">
+        <v>750907900030</v>
+      </c>
+      <c r="J34" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="F34" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G34" t="s">
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="H34" s="28" t="s">
+      <c r="C35" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="I34" s="29">
-        <v>750907900030</v>
-      </c>
-      <c r="J34" s="30" t="s">
+      <c r="D35" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="28" t="s">
+      <c r="E35" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="F35" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G35" t="s">
         <v>401</v>
       </c>
-      <c r="D35" t="s">
+      <c r="H35" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="I35" s="76">
+        <v>750907900031</v>
+      </c>
+      <c r="J35" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="F35" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="G35" t="s">
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="H35" s="28" t="s">
+      <c r="C36" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="I35" s="29">
-        <v>750907900031</v>
-      </c>
-      <c r="J35" s="30" t="s">
+      <c r="D36" t="s">
+        <v>399</v>
+      </c>
+      <c r="E36" s="23" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="28" t="s">
+      <c r="F36" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="G36" t="s">
         <v>407</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="H36" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="D36" t="s">
-        <v>402</v>
-      </c>
-      <c r="E36" s="28" t="s">
+      <c r="I36" s="76">
+        <v>750907900032</v>
+      </c>
+      <c r="J36" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="F36" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="G36" t="s">
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="H36" s="28" t="s">
+      <c r="C37" s="23" t="s">
         <v>411</v>
       </c>
-      <c r="I36" s="29">
-        <v>750907900032</v>
-      </c>
-      <c r="J36" s="30" t="s">
+      <c r="D37" t="s">
+        <v>399</v>
+      </c>
+      <c r="E37" s="23" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="28" t="s">
+      <c r="F37" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G37" t="s">
         <v>413</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="H37" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="D37" t="s">
-        <v>402</v>
-      </c>
-      <c r="E37" s="28" t="s">
+      <c r="I37" s="76">
+        <v>750907900033</v>
+      </c>
+      <c r="J37" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="F37" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="G37" t="s">
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="H37" s="28" t="s">
+      <c r="C38" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="I37" s="29">
-        <v>750907900033</v>
-      </c>
-      <c r="J37" s="30" t="s">
+      <c r="D38" t="s">
+        <v>399</v>
+      </c>
+      <c r="E38" s="23" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="28" t="s">
+      <c r="F38" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G38" t="s">
         <v>419</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="H38" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="D38" t="s">
-        <v>402</v>
-      </c>
-      <c r="E38" s="28" t="s">
+      <c r="I38" s="76">
+        <v>750907900034</v>
+      </c>
+      <c r="J38" s="24"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="F38" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="C39" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="H38" s="28" t="s">
+      <c r="D39" t="s">
+        <v>399</v>
+      </c>
+      <c r="E39" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="I38" s="29">
-        <v>750907900034</v>
-      </c>
-      <c r="J38" s="30"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="28" t="s">
+      <c r="F39" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G39" t="s">
         <v>424</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="H39" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="D39" t="s">
-        <v>402</v>
-      </c>
-      <c r="E39" s="28" t="s">
+      <c r="I39" s="76">
+        <v>750907900035</v>
+      </c>
+      <c r="J39" s="24"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="F39" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="C40" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="H39" s="28" t="s">
+      <c r="D40" t="s">
+        <v>399</v>
+      </c>
+      <c r="E40" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="I39" s="29">
-        <v>750907900035</v>
-      </c>
-      <c r="J39" s="30"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="28" t="s">
+      <c r="F40" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G40" t="s">
         <v>429</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="H40" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="D40" t="s">
-        <v>402</v>
-      </c>
-      <c r="E40" s="28" t="s">
+      <c r="I40" s="76">
+        <v>750907900036</v>
+      </c>
+      <c r="J40" s="24"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="F40" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="C41" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="H40" s="28" t="s">
+      <c r="D41" t="s">
+        <v>399</v>
+      </c>
+      <c r="E41" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="I40" s="29">
-        <v>750907900036</v>
-      </c>
-      <c r="J40" s="30"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="28" t="s">
+      <c r="F41" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="G41" t="s">
         <v>435</v>
       </c>
-      <c r="D41" t="s">
-        <v>402</v>
-      </c>
-      <c r="E41" s="28" t="s">
+      <c r="H41" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="F41" s="28" t="s">
+      <c r="I41" s="76">
+        <v>750907900037</v>
+      </c>
+      <c r="J41" s="24"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="G41" t="s">
+      <c r="C42" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="H41" s="28" t="s">
+      <c r="D42" t="s">
+        <v>399</v>
+      </c>
+      <c r="E42" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="I41" s="29">
-        <v>750907900037</v>
-      </c>
-      <c r="J41" s="30"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="28" t="s">
+      <c r="F42" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="G42" t="s">
         <v>441</v>
       </c>
-      <c r="D42" t="s">
-        <v>402</v>
-      </c>
-      <c r="E42" s="28" t="s">
+      <c r="H42" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="I42" s="76">
+        <v>750907900038</v>
+      </c>
+      <c r="J42" s="24"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="G42" t="s">
+      <c r="C43" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="H42" s="28" t="s">
+      <c r="D43" t="s">
+        <v>399</v>
+      </c>
+      <c r="E43" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="I42" s="29">
-        <v>750907900038</v>
-      </c>
-      <c r="J42" s="30"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="28" t="s">
+      <c r="F43" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="G43" t="s">
+        <v>441</v>
+      </c>
+      <c r="H43" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="I43" s="76">
+        <v>750907900039</v>
+      </c>
+      <c r="J43" s="24"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="23" t="s">
         <v>447</v>
       </c>
-      <c r="D43" t="s">
-        <v>402</v>
-      </c>
-      <c r="E43" s="28" t="s">
+      <c r="C44" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="F43" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G43" t="s">
-        <v>444</v>
-      </c>
-      <c r="H43" s="28" t="s">
+      <c r="D44" t="s">
+        <v>399</v>
+      </c>
+      <c r="E44" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="I43" s="29">
-        <v>750907900039</v>
-      </c>
-      <c r="J43" s="30"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="28" t="s">
+      <c r="F44" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="G44" t="s">
         <v>451</v>
       </c>
-      <c r="D44" t="s">
-        <v>402</v>
-      </c>
-      <c r="E44" s="28" t="s">
+      <c r="H44" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="I44" s="76">
+        <v>750907900040</v>
+      </c>
+      <c r="J44" s="24"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="G44" t="s">
+      <c r="C45" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="H44" s="28" t="s">
+      <c r="D45" t="s">
+        <v>399</v>
+      </c>
+      <c r="E45" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="I44" s="29">
-        <v>750907900040</v>
-      </c>
-      <c r="J44" s="30"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="28" t="s">
+      <c r="F45" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="G45" t="s">
         <v>457</v>
       </c>
-      <c r="D45" t="s">
-        <v>402</v>
-      </c>
-      <c r="E45" s="28" t="s">
+      <c r="H45" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="I45" s="76">
+        <v>750907900041</v>
+      </c>
+      <c r="J45" s="24"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="G45" t="s">
+      <c r="C46" s="23" t="s">
         <v>460</v>
       </c>
-      <c r="H45" s="28" t="s">
+      <c r="D46" t="s">
+        <v>361</v>
+      </c>
+      <c r="E46" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="I45" s="29">
-        <v>750907900041</v>
-      </c>
-      <c r="J45" s="30"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="28" t="s">
+      <c r="F46" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G46" t="s">
         <v>462</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="H46" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="D46" t="s">
-        <v>364</v>
-      </c>
-      <c r="E46" s="28" t="s">
+      <c r="I46" s="76">
+        <v>750907900042</v>
+      </c>
+      <c r="J46" s="24"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="F46" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="C47" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="D47" t="s">
+        <v>361</v>
+      </c>
+      <c r="E47" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="H46" s="28" t="s">
+      <c r="F47" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="G47" t="s">
         <v>466</v>
       </c>
-      <c r="I46" s="29">
-        <v>750907900042</v>
-      </c>
-      <c r="J46" s="30"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="28" t="s">
+      <c r="H47" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="C47" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="D47" t="s">
-        <v>364</v>
-      </c>
-      <c r="E47" s="28" t="s">
+      <c r="I47" s="76">
+        <v>750907900043</v>
+      </c>
+      <c r="J47" s="24"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="F47" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="C48" s="23" t="s">
         <v>469</v>
       </c>
-      <c r="H47" s="28" t="s">
+      <c r="D48" t="s">
+        <v>361</v>
+      </c>
+      <c r="E48" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="I47" s="29">
-        <v>750907900043</v>
-      </c>
-      <c r="J47" s="30"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="28" t="s">
+      <c r="F48" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G48" t="s">
         <v>471</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="H48" s="23" t="s">
         <v>472</v>
       </c>
-      <c r="D48" t="s">
-        <v>364</v>
-      </c>
-      <c r="E48" s="28" t="s">
+      <c r="I48" s="76">
+        <v>750907900044</v>
+      </c>
+      <c r="J48" s="24"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="F48" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="C49" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="H48" s="28" t="s">
+      <c r="D49" t="s">
+        <v>361</v>
+      </c>
+      <c r="E49" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="I48" s="29">
-        <v>750907900044</v>
-      </c>
-      <c r="J48" s="30"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="28" t="s">
+      <c r="F49" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G49" t="s">
         <v>476</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="H49" s="23" t="s">
         <v>477</v>
       </c>
-      <c r="D49" t="s">
-        <v>364</v>
-      </c>
-      <c r="E49" s="28" t="s">
+      <c r="I49" s="76">
+        <v>750907900045</v>
+      </c>
+      <c r="J49" s="24"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="F49" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="C50" s="23" t="s">
         <v>479</v>
       </c>
-      <c r="H49" s="28" t="s">
+      <c r="D50" t="s">
+        <v>361</v>
+      </c>
+      <c r="E50" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="I49" s="29">
-        <v>750907900045</v>
-      </c>
-      <c r="J49" s="30"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="28" t="s">
+      <c r="F50" s="23" t="s">
         <v>481</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="G50" t="s">
         <v>482</v>
       </c>
-      <c r="D50" t="s">
-        <v>364</v>
-      </c>
-      <c r="E50" s="28" t="s">
+      <c r="H50" t="s">
         <v>483</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="I50" s="76">
+        <v>750907900046</v>
+      </c>
+      <c r="J50" s="24"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="G50" t="s">
+      <c r="C51" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="H50" t="s">
+      <c r="D51" t="s">
+        <v>361</v>
+      </c>
+      <c r="E51" s="23" t="s">
         <v>486</v>
       </c>
-      <c r="I50" s="29">
-        <v>750907900046</v>
-      </c>
-      <c r="J50" s="30"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="28" t="s">
+      <c r="F51" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="G51" t="s">
         <v>488</v>
       </c>
-      <c r="D51" t="s">
-        <v>364</v>
-      </c>
-      <c r="E51" s="28" t="s">
+      <c r="H51" s="23" t="s">
         <v>489</v>
       </c>
-      <c r="F51" s="28" t="s">
+      <c r="I51" s="76">
+        <v>750907900047</v>
+      </c>
+      <c r="J51" s="24"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="G51" t="s">
+      <c r="C52" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="H51" s="28" t="s">
+      <c r="D52" t="s">
+        <v>289</v>
+      </c>
+      <c r="E52" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="I51" s="29">
-        <v>750907900047</v>
-      </c>
-      <c r="J51" s="30"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="28" t="s">
+      <c r="F52" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G52" t="s">
         <v>493</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="H52" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="D52" t="s">
-        <v>292</v>
-      </c>
-      <c r="E52" s="28" t="s">
+      <c r="I52" s="76">
+        <v>750907900048</v>
+      </c>
+      <c r="J52" s="24"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="23" t="s">
         <v>495</v>
       </c>
-      <c r="F52" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="C53" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="H52" s="28" t="s">
+      <c r="D53" t="s">
+        <v>289</v>
+      </c>
+      <c r="E53" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="I52" s="29">
-        <v>750907900048</v>
-      </c>
-      <c r="J52" s="30"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="28" t="s">
+      <c r="F53" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="G53" t="s">
         <v>498</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="H53" s="23" t="s">
         <v>499</v>
       </c>
-      <c r="D53" t="s">
-        <v>292</v>
-      </c>
-      <c r="E53" s="28" t="s">
+      <c r="I53" s="76">
+        <v>750907900049</v>
+      </c>
+      <c r="J53" s="24"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="F53" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="C54" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="H53" s="28" t="s">
+      <c r="D54" t="s">
+        <v>289</v>
+      </c>
+      <c r="E54" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="I53" s="29">
-        <v>750907900049</v>
-      </c>
-      <c r="J53" s="30"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="28" t="s">
+      <c r="F54" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G54" t="s">
         <v>503</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="H54" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="D54" t="s">
-        <v>292</v>
-      </c>
-      <c r="E54" s="28" t="s">
+      <c r="I54" s="76">
+        <v>750907900050</v>
+      </c>
+      <c r="J54" s="24"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="23" t="s">
         <v>505</v>
       </c>
-      <c r="F54" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="C55" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="H54" s="28" t="s">
+      <c r="D55" t="s">
+        <v>289</v>
+      </c>
+      <c r="E55" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="I54" s="29">
-        <v>750907900050</v>
-      </c>
-      <c r="J54" s="30"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="28" t="s">
+      <c r="F55" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G55" t="s">
+        <v>503</v>
+      </c>
+      <c r="H55" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="I55" s="76">
+        <v>750907900051</v>
+      </c>
+      <c r="J55" s="24"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="23" t="s">
         <v>509</v>
       </c>
-      <c r="D55" t="s">
-        <v>292</v>
-      </c>
-      <c r="E55" s="28" t="s">
+      <c r="C56" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="F55" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G55" t="s">
-        <v>506</v>
-      </c>
-      <c r="H55" s="28" t="s">
+      <c r="D56" t="s">
+        <v>289</v>
+      </c>
+      <c r="E56" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="I55" s="29">
-        <v>750907900051</v>
-      </c>
-      <c r="J55" s="30"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B56" s="28" t="s">
+      <c r="F56" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="G56" t="s">
+        <v>503</v>
+      </c>
+      <c r="H56" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="I56" s="76">
+        <v>750907900052</v>
+      </c>
+      <c r="J56" s="24"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="D56" t="s">
-        <v>292</v>
-      </c>
-      <c r="E56" s="28" t="s">
+      <c r="C57" s="25">
+        <v>171</v>
+      </c>
+      <c r="D57" t="s">
         <v>514</v>
       </c>
-      <c r="F56" s="28" t="s">
-        <v>484</v>
-      </c>
-      <c r="G56" t="s">
-        <v>506</v>
-      </c>
-      <c r="H56" s="28" t="s">
+      <c r="E57" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="I56" s="29">
-        <v>750907900052</v>
-      </c>
-      <c r="J56" s="30"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="28" t="s">
+      <c r="F57" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G57" t="s">
         <v>516</v>
       </c>
-      <c r="C57" s="31">
-        <v>171</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="H57" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="I57" s="76">
+        <v>750907900053</v>
+      </c>
+      <c r="J57" s="24"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="F57" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="C58" s="23" t="s">
         <v>519</v>
       </c>
-      <c r="H57" s="28" t="s">
+      <c r="D58" t="s">
+        <v>514</v>
+      </c>
+      <c r="E58" s="23" t="s">
         <v>520</v>
       </c>
-      <c r="I57" s="29">
-        <v>750907900053</v>
-      </c>
-      <c r="J57" s="30"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="28" t="s">
+      <c r="F58" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="G58" t="s">
         <v>521</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="H58" s="23" t="s">
         <v>522</v>
       </c>
-      <c r="D58" t="s">
-        <v>517</v>
-      </c>
-      <c r="E58" s="28" t="s">
+      <c r="I58" s="76">
+        <v>750907900054</v>
+      </c>
+      <c r="J58" s="24"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="F58" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="C59" s="23" t="s">
         <v>524</v>
       </c>
-      <c r="H58" s="28" t="s">
+      <c r="D59" t="s">
+        <v>514</v>
+      </c>
+      <c r="E59" s="23" t="s">
         <v>525</v>
       </c>
-      <c r="I58" s="29">
-        <v>750907900054</v>
-      </c>
-      <c r="J58" s="30"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="28" t="s">
+      <c r="F59" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G59" t="s">
         <v>526</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="H59" s="23" t="s">
         <v>527</v>
       </c>
-      <c r="D59" t="s">
-        <v>517</v>
-      </c>
-      <c r="E59" s="28" t="s">
+      <c r="I59" s="76">
+        <v>750907900055</v>
+      </c>
+      <c r="J59" s="24" t="s">
         <v>528</v>
       </c>
-      <c r="F59" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="G59" t="s">
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="H59" s="28" t="s">
+      <c r="C60" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="I59" s="29">
-        <v>750907900055</v>
-      </c>
-      <c r="J59" s="30" t="s">
+      <c r="D60" t="s">
+        <v>514</v>
+      </c>
+      <c r="E60" s="23" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="28" t="s">
+      <c r="F60" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G60" t="s">
         <v>532</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="H60" s="23" t="s">
         <v>533</v>
       </c>
-      <c r="D60" t="s">
-        <v>517</v>
-      </c>
-      <c r="E60" s="28" t="s">
+      <c r="I60" s="76">
+        <v>750907900056</v>
+      </c>
+      <c r="J60" s="24" t="s">
         <v>534</v>
       </c>
-      <c r="F60" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G60" t="s">
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="23" t="s">
         <v>535</v>
       </c>
-      <c r="H60" s="28" t="s">
+      <c r="C61" s="23" t="s">
         <v>536</v>
       </c>
-      <c r="I60" s="29">
-        <v>750907900056</v>
-      </c>
-      <c r="J60" s="30" t="s">
+      <c r="D61" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="28" t="s">
+      <c r="E61" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="F61" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G61" t="s">
         <v>539</v>
       </c>
-      <c r="D61" t="s">
+      <c r="H61" s="23" t="s">
         <v>540</v>
       </c>
-      <c r="E61" s="28" t="s">
+      <c r="I61" s="76">
+        <v>750907900057</v>
+      </c>
+      <c r="J61" s="24" t="s">
         <v>541</v>
       </c>
-      <c r="F61" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="G61" t="s">
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="H61" s="28" t="s">
+      <c r="C62" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="I61" s="29">
-        <v>750907900057</v>
-      </c>
-      <c r="J61" s="30" t="s">
+      <c r="D62" t="s">
+        <v>537</v>
+      </c>
+      <c r="E62" s="23" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="28" t="s">
+      <c r="F62" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="G62" t="s">
         <v>545</v>
       </c>
-      <c r="C62" s="28" t="s">
+      <c r="H62" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="D62" t="s">
-        <v>540</v>
-      </c>
-      <c r="E62" s="28" t="s">
+      <c r="I62" s="76">
+        <v>750907900058</v>
+      </c>
+      <c r="J62" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="F62" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="G62" t="s">
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="23" t="s">
         <v>548</v>
       </c>
-      <c r="H62" s="28" t="s">
+      <c r="C63" s="23" t="s">
         <v>549</v>
       </c>
-      <c r="I62" s="29">
-        <v>750907900058</v>
-      </c>
-      <c r="J62" s="30" t="s">
+      <c r="D63" t="s">
+        <v>537</v>
+      </c>
+      <c r="E63" s="23" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="28" t="s">
+      <c r="F63" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G63" t="s">
         <v>551</v>
       </c>
-      <c r="C63" s="28" t="s">
+      <c r="H63" s="23" t="s">
         <v>552</v>
       </c>
-      <c r="D63" t="s">
-        <v>540</v>
-      </c>
-      <c r="E63" s="28" t="s">
+      <c r="I63" s="76">
+        <v>750907900059</v>
+      </c>
+      <c r="J63" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="F63" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="G63" t="s">
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="23" t="s">
         <v>554</v>
       </c>
-      <c r="H63" s="28" t="s">
+      <c r="C64" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="I63" s="29">
-        <v>750907900059</v>
-      </c>
-      <c r="J63" s="30" t="s">
+      <c r="D64" t="s">
+        <v>537</v>
+      </c>
+      <c r="E64" s="23" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B64" s="28" t="s">
+      <c r="F64" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G64" t="s">
+        <v>551</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>552</v>
+      </c>
+      <c r="I64" s="76">
+        <v>750907900060</v>
+      </c>
+      <c r="J64" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="C64" s="28" t="s">
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B65" s="23" t="s">
         <v>558</v>
       </c>
-      <c r="D64" t="s">
-        <v>540</v>
-      </c>
-      <c r="E64" s="28" t="s">
+      <c r="C65" s="23" t="s">
         <v>559</v>
       </c>
-      <c r="F64" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G64" t="s">
-        <v>554</v>
-      </c>
-      <c r="H64" s="28" t="s">
-        <v>555</v>
-      </c>
-      <c r="I64" s="29">
-        <v>750907900060</v>
-      </c>
-      <c r="J64" s="30" t="s">
+      <c r="D65" t="s">
+        <v>537</v>
+      </c>
+      <c r="E65" s="23" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B65" s="28" t="s">
+      <c r="F65" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G65" t="s">
         <v>561</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="H65" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="D65" t="s">
-        <v>540</v>
-      </c>
-      <c r="E65" s="28" t="s">
+      <c r="I65" s="76">
+        <v>750907900061</v>
+      </c>
+      <c r="J65" s="24"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B66" s="23" t="s">
         <v>563</v>
       </c>
-      <c r="F65" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="C66" s="23" t="s">
         <v>564</v>
       </c>
-      <c r="H65" s="28" t="s">
+      <c r="D66" t="s">
+        <v>537</v>
+      </c>
+      <c r="E66" s="23" t="s">
         <v>565</v>
       </c>
-      <c r="I65" s="29">
-        <v>750907900061</v>
-      </c>
-      <c r="J65" s="30"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B66" s="28" t="s">
+      <c r="F66" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G66" t="s">
         <v>566</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="H66" s="23" t="s">
         <v>567</v>
       </c>
-      <c r="D66" t="s">
-        <v>540</v>
-      </c>
-      <c r="E66" s="28" t="s">
+      <c r="I66" s="76">
+        <v>750907900062</v>
+      </c>
+      <c r="J66" s="24"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B67" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F66" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="C67" s="23" t="s">
         <v>569</v>
       </c>
-      <c r="H66" s="28" t="s">
+      <c r="D67" t="s">
+        <v>537</v>
+      </c>
+      <c r="E67" s="23" t="s">
         <v>570</v>
       </c>
-      <c r="I66" s="29">
-        <v>750907900062</v>
-      </c>
-      <c r="J66" s="30"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B67" s="28" t="s">
+      <c r="F67" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="G67" t="s">
         <v>571</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="H67" s="23" t="s">
         <v>572</v>
       </c>
-      <c r="D67" t="s">
-        <v>540</v>
-      </c>
-      <c r="E67" s="28" t="s">
+      <c r="I67" s="76">
+        <v>750907900063</v>
+      </c>
+      <c r="J67" s="24"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B68" s="23" t="s">
         <v>573</v>
       </c>
-      <c r="F67" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="C68" s="23" t="s">
         <v>574</v>
       </c>
-      <c r="H67" s="28" t="s">
+      <c r="D68" t="s">
+        <v>537</v>
+      </c>
+      <c r="E68" s="23" t="s">
         <v>575</v>
       </c>
-      <c r="I67" s="29">
-        <v>750907900063</v>
-      </c>
-      <c r="J67" s="30"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="28" t="s">
+      <c r="F68" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="G68" t="s">
         <v>576</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="H68" s="23" t="s">
         <v>577</v>
       </c>
-      <c r="D68" t="s">
-        <v>540</v>
-      </c>
-      <c r="E68" s="28" t="s">
+      <c r="I68" s="76">
+        <v>750907900064</v>
+      </c>
+      <c r="J68" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="F68" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="G68" t="s">
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B69" s="23" t="s">
         <v>579</v>
       </c>
-      <c r="H68" s="28" t="s">
+      <c r="C69" s="23" t="s">
         <v>580</v>
       </c>
-      <c r="I68" s="29">
-        <v>750907900064</v>
-      </c>
-      <c r="J68" s="30" t="s">
+      <c r="D69" t="s">
+        <v>537</v>
+      </c>
+      <c r="E69" s="23" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="28" t="s">
+      <c r="F69" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="G69" t="s">
         <v>582</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="H69" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="D69" t="s">
-        <v>540</v>
-      </c>
-      <c r="E69" s="28" t="s">
+      <c r="I69" s="76">
+        <v>750907900065</v>
+      </c>
+      <c r="J69" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="F69" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="G69" t="s">
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B70" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="H69" s="28" t="s">
+      <c r="C70" s="23" t="s">
         <v>586</v>
       </c>
-      <c r="I69" s="29">
-        <v>750907900065</v>
-      </c>
-      <c r="J69" s="30" t="s">
+      <c r="D70" t="s">
+        <v>537</v>
+      </c>
+      <c r="E70" s="23" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="28" t="s">
+      <c r="F70" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="G70" t="s">
         <v>588</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="H70" s="23" t="s">
         <v>589</v>
       </c>
-      <c r="D70" t="s">
-        <v>540</v>
-      </c>
-      <c r="E70" s="28" t="s">
+      <c r="I70" s="76">
+        <v>750907900066</v>
+      </c>
+      <c r="J70" s="24" t="s">
         <v>590</v>
       </c>
-      <c r="F70" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="G70" t="s">
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B71" s="23" t="s">
         <v>591</v>
       </c>
-      <c r="H70" s="28" t="s">
+      <c r="C71" s="23" t="s">
         <v>592</v>
       </c>
-      <c r="I70" s="29">
-        <v>750907900066</v>
-      </c>
-      <c r="J70" s="30" t="s">
+      <c r="D71" t="s">
+        <v>537</v>
+      </c>
+      <c r="E71" s="23" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B71" s="28" t="s">
+      <c r="F71" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="G71" t="s">
         <v>594</v>
       </c>
-      <c r="C71" s="28" t="s">
+      <c r="H71" s="23" t="s">
         <v>595</v>
       </c>
-      <c r="D71" t="s">
-        <v>540</v>
-      </c>
-      <c r="E71" s="28" t="s">
+      <c r="I71" s="76">
+        <v>750907900067</v>
+      </c>
+      <c r="J71" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="F71" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="G71" t="s">
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B72" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="H71" s="28" t="s">
+      <c r="C72" s="23" t="s">
         <v>598</v>
       </c>
-      <c r="I71" s="29">
-        <v>750907900067</v>
-      </c>
-      <c r="J71" s="30" t="s">
+      <c r="D72" t="s">
+        <v>537</v>
+      </c>
+      <c r="E72" s="23" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="28" t="s">
+      <c r="F72" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="G72" t="s">
         <v>600</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="H72" s="23" t="s">
         <v>601</v>
       </c>
-      <c r="D72" t="s">
-        <v>540</v>
-      </c>
-      <c r="E72" s="28" t="s">
+      <c r="I72" s="76">
+        <v>750907900068</v>
+      </c>
+      <c r="J72" s="24" t="s">
         <v>602</v>
       </c>
-      <c r="F72" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G72" t="s">
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B73" s="23" t="s">
         <v>603</v>
       </c>
-      <c r="H72" s="28" t="s">
+      <c r="C73" s="23" t="s">
         <v>604</v>
       </c>
-      <c r="I72" s="29">
-        <v>750907900068</v>
-      </c>
-      <c r="J72" s="30" t="s">
+      <c r="D73" t="s">
+        <v>537</v>
+      </c>
+      <c r="E73" s="23" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="28" t="s">
+      <c r="F73" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="G73" t="s">
         <v>606</v>
       </c>
-      <c r="C73" s="28" t="s">
+      <c r="H73" s="23" t="s">
         <v>607</v>
       </c>
-      <c r="D73" t="s">
-        <v>540</v>
-      </c>
-      <c r="E73" s="28" t="s">
+      <c r="I73" s="76">
+        <v>750907900069</v>
+      </c>
+      <c r="J73" s="24" t="s">
         <v>608</v>
       </c>
-      <c r="F73" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="G73" t="s">
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B74" s="23" t="s">
         <v>609</v>
       </c>
-      <c r="H73" s="28" t="s">
+      <c r="C74" s="23" t="s">
         <v>610</v>
       </c>
-      <c r="I73" s="29">
-        <v>750907900069</v>
-      </c>
-      <c r="J73" s="30" t="s">
+      <c r="D74" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="28" t="s">
+      <c r="E74" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="C74" s="28" t="s">
+      <c r="F74" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G74" t="s">
         <v>613</v>
       </c>
-      <c r="D74" t="s">
+      <c r="H74" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="E74" s="28" t="s">
+      <c r="I74" s="76">
+        <v>750907900070</v>
+      </c>
+      <c r="J74" s="24" t="s">
         <v>615</v>
       </c>
-      <c r="F74" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="G74" t="s">
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B75" s="23" t="s">
         <v>616</v>
       </c>
-      <c r="H74" s="28" t="s">
+      <c r="C75" s="23" t="s">
         <v>617</v>
       </c>
-      <c r="I74" s="29">
-        <v>750907900070</v>
-      </c>
-      <c r="J74" s="30" t="s">
+      <c r="D75" t="s">
+        <v>611</v>
+      </c>
+      <c r="E75" s="23" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B75" s="28" t="s">
+      <c r="F75" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="G75" t="s">
         <v>619</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="H75" s="23" t="s">
         <v>620</v>
       </c>
-      <c r="D75" t="s">
-        <v>614</v>
-      </c>
-      <c r="E75" s="28" t="s">
+      <c r="I75" s="76">
+        <v>750907900071</v>
+      </c>
+      <c r="J75" s="24" t="s">
         <v>621</v>
       </c>
-      <c r="F75" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="G75" t="s">
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B76" s="23" t="s">
         <v>622</v>
       </c>
-      <c r="H75" s="28" t="s">
+      <c r="C76" s="23" t="s">
         <v>623</v>
       </c>
-      <c r="I75" s="29">
-        <v>750907900071</v>
-      </c>
-      <c r="J75" s="30" t="s">
+      <c r="D76" t="s">
+        <v>611</v>
+      </c>
+      <c r="E76" s="23" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="28" t="s">
+      <c r="F76" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G76" t="s">
         <v>625</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="H76" s="23" t="s">
         <v>626</v>
       </c>
-      <c r="D76" t="s">
-        <v>614</v>
-      </c>
-      <c r="E76" s="28" t="s">
+      <c r="I76" s="76">
+        <v>750907900072</v>
+      </c>
+      <c r="J76" s="24" t="s">
         <v>627</v>
       </c>
-      <c r="F76" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="G76" t="s">
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B77" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="H76" s="28" t="s">
+      <c r="C77" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="D77" t="s">
+        <v>611</v>
+      </c>
+      <c r="E77" s="23" t="s">
         <v>629</v>
       </c>
-      <c r="I76" s="29">
-        <v>750907900072</v>
-      </c>
-      <c r="J76" s="30" t="s">
+      <c r="F77" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G77" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="28" t="s">
+      <c r="H77" s="23" t="s">
         <v>631</v>
       </c>
-      <c r="C77" s="28" t="s">
-        <v>517</v>
-      </c>
-      <c r="D77" t="s">
-        <v>614</v>
-      </c>
-      <c r="E77" s="28" t="s">
+      <c r="I77" s="76">
+        <v>750907900073</v>
+      </c>
+      <c r="J77" s="24" t="s">
         <v>632</v>
       </c>
-      <c r="F77" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G77" t="s">
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B78" s="23" t="s">
         <v>633</v>
       </c>
-      <c r="H77" s="28" t="s">
+      <c r="C78" s="23" t="s">
         <v>634</v>
       </c>
-      <c r="I77" s="29">
-        <v>750907900073</v>
-      </c>
-      <c r="J77" s="30" t="s">
+      <c r="D78" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="28" t="s">
+      <c r="E78" s="23" t="s">
         <v>636</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="F78" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G78" t="s">
         <v>637</v>
       </c>
-      <c r="D78" t="s">
+      <c r="H78" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="E78" s="28" t="s">
+      <c r="I78" s="76">
+        <v>750907900074</v>
+      </c>
+      <c r="J78" s="24" t="s">
         <v>639</v>
       </c>
-      <c r="F78" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="G78" t="s">
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B79" s="23" t="s">
         <v>640</v>
       </c>
-      <c r="H78" s="28" t="s">
+      <c r="C79" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="I78" s="29">
-        <v>750907900074</v>
-      </c>
-      <c r="J78" s="30" t="s">
+      <c r="D79" t="s">
+        <v>635</v>
+      </c>
+      <c r="E79" s="23" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B79" s="28" t="s">
+      <c r="F79" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="G79" t="s">
         <v>643</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="H79" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="D79" t="s">
-        <v>638</v>
-      </c>
-      <c r="E79" s="28" t="s">
+      <c r="I79" s="76">
+        <v>750907900075</v>
+      </c>
+      <c r="J79" s="24" t="s">
         <v>645</v>
       </c>
-      <c r="F79" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="G79" t="s">
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B80" s="23" t="s">
         <v>646</v>
       </c>
-      <c r="H79" s="28" t="s">
+      <c r="C80" s="23" t="s">
         <v>647</v>
       </c>
-      <c r="I79" s="29">
-        <v>750907900075</v>
-      </c>
-      <c r="J79" s="30" t="s">
+      <c r="D80" t="s">
+        <v>635</v>
+      </c>
+      <c r="E80" s="23" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="28" t="s">
+      <c r="F80" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G80" t="s">
         <v>649</v>
       </c>
-      <c r="C80" s="28" t="s">
+      <c r="H80" s="23" t="s">
         <v>650</v>
       </c>
-      <c r="D80" t="s">
-        <v>638</v>
-      </c>
-      <c r="E80" s="28" t="s">
+      <c r="I80" s="76">
+        <v>750907900076</v>
+      </c>
+      <c r="J80" s="24"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B81" s="23" t="s">
         <v>651</v>
       </c>
-      <c r="F80" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="C81" s="23" t="s">
         <v>652</v>
       </c>
-      <c r="H80" s="28" t="s">
+      <c r="D81" t="s">
+        <v>635</v>
+      </c>
+      <c r="E81" s="23" t="s">
         <v>653</v>
       </c>
-      <c r="I80" s="29">
-        <v>750907900076</v>
-      </c>
-      <c r="J80" s="30"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="28" t="s">
+      <c r="F81" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G81" t="s">
         <v>654</v>
       </c>
-      <c r="C81" s="28" t="s">
+      <c r="H81" s="23" t="s">
         <v>655</v>
       </c>
-      <c r="D81" t="s">
-        <v>638</v>
-      </c>
-      <c r="E81" s="28" t="s">
+      <c r="I81" s="76">
+        <v>750907900077</v>
+      </c>
+      <c r="J81" s="24" t="s">
         <v>656</v>
       </c>
-      <c r="F81" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G81" t="s">
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B82" s="23" t="s">
         <v>657</v>
       </c>
-      <c r="H81" s="28" t="s">
+      <c r="C82" s="23" t="s">
         <v>658</v>
       </c>
-      <c r="I81" s="29">
-        <v>750907900077</v>
-      </c>
-      <c r="J81" s="30" t="s">
+      <c r="D82" t="s">
+        <v>320</v>
+      </c>
+      <c r="E82" s="23" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="28" t="s">
+      <c r="F82" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G82" t="s">
         <v>660</v>
       </c>
-      <c r="C82" s="28" t="s">
+      <c r="H82" s="23" t="s">
         <v>661</v>
       </c>
-      <c r="D82" t="s">
-        <v>323</v>
-      </c>
-      <c r="E82" s="28" t="s">
+      <c r="I82" s="76">
+        <v>750907900078</v>
+      </c>
+      <c r="J82" s="24"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B83" s="23" t="s">
         <v>662</v>
       </c>
-      <c r="F82" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="C83" s="25">
+        <v>180</v>
+      </c>
+      <c r="D83" t="s">
+        <v>320</v>
+      </c>
+      <c r="E83" s="23" t="s">
         <v>663</v>
       </c>
-      <c r="H82" s="28" t="s">
+      <c r="F83" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="G83" t="s">
         <v>664</v>
       </c>
-      <c r="I82" s="29">
-        <v>750907900078</v>
-      </c>
-      <c r="J82" s="30"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B83" s="28" t="s">
+      <c r="H83" s="23" t="s">
         <v>665</v>
       </c>
-      <c r="C83" s="31">
-        <v>180</v>
-      </c>
-      <c r="D83" t="s">
-        <v>323</v>
-      </c>
-      <c r="E83" s="28" t="s">
+      <c r="I83" s="76">
+        <v>750221203789</v>
+      </c>
+      <c r="J83" s="24" t="s">
         <v>666</v>
       </c>
-      <c r="F83" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="G83" t="s">
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B84" s="23" t="s">
         <v>667</v>
       </c>
-      <c r="H83" s="28" t="s">
+      <c r="C84" s="23" t="s">
         <v>668</v>
       </c>
-      <c r="I83" s="29">
-        <v>750221203789</v>
-      </c>
-      <c r="J83" s="30" t="s">
+      <c r="D84" t="s">
+        <v>320</v>
+      </c>
+      <c r="E84" s="23" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="28" t="s">
+      <c r="F84" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G84" t="s">
         <v>670</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="H84" s="23" t="s">
         <v>671</v>
       </c>
-      <c r="D84" t="s">
-        <v>323</v>
-      </c>
-      <c r="E84" s="28" t="s">
+      <c r="I84" s="76"/>
+      <c r="J84" s="24"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B85" s="23" t="s">
         <v>672</v>
       </c>
-      <c r="F84" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="C85" s="23" t="s">
         <v>673</v>
       </c>
-      <c r="H84" s="28" t="s">
+      <c r="D85" t="s">
+        <v>320</v>
+      </c>
+      <c r="E85" s="23" t="s">
         <v>674</v>
       </c>
-      <c r="I84" s="29"/>
-      <c r="J84" s="30"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B85" s="28" t="s">
+      <c r="F85" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G85" t="s">
         <v>675</v>
       </c>
-      <c r="C85" s="28" t="s">
+      <c r="H85" s="23" t="s">
         <v>676</v>
       </c>
-      <c r="D85" t="s">
-        <v>323</v>
-      </c>
-      <c r="E85" s="28" t="s">
+      <c r="I85" s="76"/>
+      <c r="J85" s="24"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B86" s="23" t="s">
         <v>677</v>
       </c>
-      <c r="F85" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="C86" s="23" t="s">
         <v>678</v>
       </c>
-      <c r="H85" s="28" t="s">
+      <c r="D86" t="s">
+        <v>320</v>
+      </c>
+      <c r="E86" s="23" t="s">
         <v>679</v>
       </c>
-      <c r="I85" s="29"/>
-      <c r="J85" s="30"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B86" s="28" t="s">
+      <c r="F86" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G86" t="s">
         <v>680</v>
       </c>
-      <c r="C86" s="28" t="s">
+      <c r="H86" s="23" t="s">
         <v>681</v>
       </c>
-      <c r="D86" t="s">
-        <v>323</v>
-      </c>
-      <c r="E86" s="28" t="s">
+      <c r="I86" s="76"/>
+      <c r="J86" s="24"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B87" s="23" t="s">
         <v>682</v>
       </c>
-      <c r="F86" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="C87" s="23" t="s">
         <v>683</v>
       </c>
-      <c r="H86" s="28" t="s">
+      <c r="D87" t="s">
+        <v>320</v>
+      </c>
+      <c r="E87" s="23" t="s">
         <v>684</v>
       </c>
-      <c r="I86" s="29"/>
-      <c r="J86" s="30"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B87" s="28" t="s">
+      <c r="F87" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G87" t="s">
         <v>685</v>
       </c>
-      <c r="C87" s="28" t="s">
+      <c r="H87" s="23" t="s">
         <v>686</v>
       </c>
-      <c r="D87" t="s">
-        <v>323</v>
-      </c>
-      <c r="E87" s="28" t="s">
+      <c r="I87" s="76"/>
+      <c r="J87" s="24"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B88" s="23" t="s">
         <v>687</v>
       </c>
-      <c r="F87" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="C88" s="23" t="s">
         <v>688</v>
       </c>
-      <c r="H87" s="28" t="s">
+      <c r="D88" t="s">
+        <v>320</v>
+      </c>
+      <c r="E88" s="23" t="s">
         <v>689</v>
       </c>
-      <c r="I87" s="29"/>
-      <c r="J87" s="30"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B88" s="28" t="s">
+      <c r="F88" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G88" t="s">
         <v>690</v>
       </c>
-      <c r="C88" s="28" t="s">
+      <c r="H88" s="23" t="s">
         <v>691</v>
       </c>
-      <c r="D88" t="s">
-        <v>323</v>
-      </c>
-      <c r="E88" s="28" t="s">
+      <c r="I88" s="76"/>
+      <c r="J88" s="24"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B89" s="23" t="s">
         <v>692</v>
       </c>
-      <c r="F88" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="C89" s="23" t="s">
         <v>693</v>
       </c>
-      <c r="H88" s="28" t="s">
+      <c r="D89" t="s">
+        <v>320</v>
+      </c>
+      <c r="E89" s="23" t="s">
         <v>694</v>
       </c>
-      <c r="I88" s="29"/>
-      <c r="J88" s="30"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B89" s="28" t="s">
+      <c r="F89" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="G89" t="s">
         <v>695</v>
       </c>
-      <c r="C89" s="28" t="s">
+      <c r="H89" s="23" t="s">
         <v>696</v>
       </c>
-      <c r="D89" t="s">
-        <v>323</v>
-      </c>
-      <c r="E89" s="28" t="s">
+      <c r="I89" s="76"/>
+      <c r="J89" s="24"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B90" s="23" t="s">
         <v>697</v>
       </c>
-      <c r="F89" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="C90" s="23" t="s">
         <v>698</v>
       </c>
-      <c r="H89" s="28" t="s">
+      <c r="D90" t="s">
+        <v>320</v>
+      </c>
+      <c r="E90" s="23" t="s">
         <v>699</v>
       </c>
-      <c r="I89" s="29"/>
-      <c r="J89" s="30"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="28" t="s">
+      <c r="F90" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="G90" t="s">
         <v>700</v>
       </c>
-      <c r="C90" s="28" t="s">
+      <c r="H90" s="23" t="s">
         <v>701</v>
       </c>
-      <c r="D90" t="s">
-        <v>323</v>
-      </c>
-      <c r="E90" s="28" t="s">
+      <c r="I90" s="76"/>
+      <c r="J90" s="24"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B91" s="23" t="s">
         <v>702</v>
       </c>
-      <c r="F90" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="C91" s="23" t="s">
         <v>703</v>
       </c>
-      <c r="H90" s="28" t="s">
+      <c r="D91" t="s">
+        <v>320</v>
+      </c>
+      <c r="E91" s="23" t="s">
         <v>704</v>
       </c>
-      <c r="I90" s="29"/>
-      <c r="J90" s="30"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B91" s="28" t="s">
+      <c r="F91" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="G91" t="s">
         <v>705</v>
       </c>
-      <c r="C91" s="28" t="s">
+      <c r="H91" s="23" t="s">
         <v>706</v>
       </c>
-      <c r="D91" t="s">
-        <v>323</v>
-      </c>
-      <c r="E91" s="28" t="s">
+      <c r="I91" s="76"/>
+      <c r="J91" s="24"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B92" s="23" t="s">
         <v>707</v>
       </c>
-      <c r="F91" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="C92" s="23" t="s">
         <v>708</v>
       </c>
-      <c r="H91" s="28" t="s">
+      <c r="D92" t="s">
+        <v>320</v>
+      </c>
+      <c r="E92" s="23" t="s">
         <v>709</v>
       </c>
-      <c r="I91" s="29"/>
-      <c r="J91" s="30"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B92" s="28" t="s">
+      <c r="F92" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="G92" t="s">
         <v>710</v>
       </c>
-      <c r="C92" s="28" t="s">
+      <c r="H92" s="23" t="s">
         <v>711</v>
       </c>
-      <c r="D92" t="s">
-        <v>323</v>
-      </c>
-      <c r="E92" s="28" t="s">
+      <c r="I92" s="76"/>
+      <c r="J92" s="24"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B93" s="23" t="s">
         <v>712</v>
       </c>
-      <c r="F92" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="C93" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="H92" s="28" t="s">
+      <c r="D93" t="s">
+        <v>320</v>
+      </c>
+      <c r="E93" s="23" t="s">
         <v>714</v>
       </c>
-      <c r="I92" s="29"/>
-      <c r="J92" s="30"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B93" s="28" t="s">
+      <c r="F93" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="G93" t="s">
         <v>715</v>
       </c>
-      <c r="C93" s="28" t="s">
+      <c r="H93" s="23" t="s">
         <v>716</v>
       </c>
-      <c r="D93" t="s">
-        <v>323</v>
-      </c>
-      <c r="E93" s="28" t="s">
+      <c r="I93" s="76"/>
+      <c r="J93" s="24"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B94" s="23" t="s">
         <v>717</v>
       </c>
-      <c r="F93" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="C94" s="23" t="s">
         <v>718</v>
       </c>
-      <c r="H93" s="28" t="s">
+      <c r="D94" t="s">
+        <v>320</v>
+      </c>
+      <c r="E94" s="23" t="s">
         <v>719</v>
       </c>
-      <c r="I93" s="29"/>
-      <c r="J93" s="30"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B94" s="28" t="s">
+      <c r="F94" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="G94" t="s">
         <v>720</v>
       </c>
-      <c r="C94" s="28" t="s">
+      <c r="H94" s="23" t="s">
         <v>721</v>
       </c>
-      <c r="D94" t="s">
-        <v>323</v>
-      </c>
-      <c r="E94" s="28" t="s">
+      <c r="I94" s="76"/>
+      <c r="J94" s="24"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B95" s="23" t="s">
         <v>722</v>
       </c>
-      <c r="F94" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="C95" s="23" t="s">
         <v>723</v>
       </c>
-      <c r="H94" s="28" t="s">
+      <c r="D95" t="s">
+        <v>320</v>
+      </c>
+      <c r="E95" s="23" t="s">
         <v>724</v>
       </c>
-      <c r="I94" s="29"/>
-      <c r="J94" s="30"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B95" s="28" t="s">
+      <c r="F95" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="G95" t="s">
         <v>725</v>
       </c>
-      <c r="C95" s="28" t="s">
+      <c r="H95" s="23" t="s">
         <v>726</v>
       </c>
-      <c r="D95" t="s">
-        <v>323</v>
-      </c>
-      <c r="E95" s="28" t="s">
+      <c r="I95" s="76"/>
+      <c r="J95" s="24"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B96" s="23" t="s">
         <v>727</v>
       </c>
-      <c r="F95" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="C96" s="23" t="s">
         <v>728</v>
       </c>
-      <c r="H95" s="28" t="s">
+      <c r="D96" t="s">
+        <v>320</v>
+      </c>
+      <c r="E96" s="23" t="s">
         <v>729</v>
       </c>
-      <c r="I95" s="29"/>
-      <c r="J95" s="30"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B96" s="28" t="s">
+      <c r="F96" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="G96" t="s">
         <v>730</v>
       </c>
-      <c r="C96" s="28" t="s">
+      <c r="H96" s="23" t="s">
         <v>731</v>
       </c>
-      <c r="D96" t="s">
-        <v>323</v>
-      </c>
-      <c r="E96" s="28" t="s">
+      <c r="I96" s="76"/>
+      <c r="J96" s="24"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B97" s="23" t="s">
         <v>732</v>
       </c>
-      <c r="F96" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="C97" s="23" t="s">
         <v>733</v>
       </c>
-      <c r="H96" s="28" t="s">
+      <c r="D97" t="s">
+        <v>320</v>
+      </c>
+      <c r="E97" s="23" t="s">
         <v>734</v>
       </c>
-      <c r="I96" s="29"/>
-      <c r="J96" s="30"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B97" s="28" t="s">
+      <c r="F97" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="G97" t="s">
         <v>735</v>
       </c>
-      <c r="C97" s="28" t="s">
+      <c r="H97" s="23" t="s">
         <v>736</v>
       </c>
-      <c r="D97" t="s">
-        <v>323</v>
-      </c>
-      <c r="E97" s="28" t="s">
+      <c r="I97" s="76"/>
+      <c r="J97" s="24"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B98" s="23" t="s">
         <v>737</v>
       </c>
-      <c r="F97" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="C98" s="23" t="s">
         <v>738</v>
       </c>
-      <c r="H97" s="28" t="s">
+      <c r="D98" t="s">
+        <v>320</v>
+      </c>
+      <c r="E98" s="23" t="s">
         <v>739</v>
       </c>
-      <c r="I97" s="29"/>
-      <c r="J97" s="30"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B98" s="28" t="s">
+      <c r="F98" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="G98" t="s">
         <v>740</v>
       </c>
-      <c r="C98" s="28" t="s">
+      <c r="H98" s="23" t="s">
         <v>741</v>
       </c>
-      <c r="D98" t="s">
-        <v>323</v>
-      </c>
-      <c r="E98" s="28" t="s">
+      <c r="I98" s="76"/>
+      <c r="J98" s="24"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B99" s="23" t="s">
         <v>742</v>
       </c>
-      <c r="F98" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="C99" s="23" t="s">
         <v>743</v>
       </c>
-      <c r="H98" s="28" t="s">
+      <c r="D99" t="s">
         <v>744</v>
       </c>
-      <c r="I98" s="29"/>
-      <c r="J98" s="30"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B99" s="28" t="s">
+      <c r="E99" s="23" t="s">
         <v>745</v>
       </c>
-      <c r="C99" s="28" t="s">
+      <c r="F99" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G99" t="s">
         <v>746</v>
       </c>
-      <c r="D99" t="s">
+      <c r="H99" s="23" t="s">
         <v>747</v>
       </c>
-      <c r="E99" s="28" t="s">
+      <c r="I99" s="76"/>
+      <c r="J99" s="24"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B100" s="23" t="s">
         <v>748</v>
       </c>
-      <c r="F99" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="C100" s="23" t="s">
         <v>749</v>
       </c>
-      <c r="H99" s="28" t="s">
+      <c r="D100" t="s">
+        <v>744</v>
+      </c>
+      <c r="E100" s="23" t="s">
         <v>750</v>
       </c>
-      <c r="I99" s="29"/>
-      <c r="J99" s="30"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B100" s="28" t="s">
+      <c r="F100" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="G100" t="s">
         <v>751</v>
       </c>
-      <c r="C100" s="28" t="s">
+      <c r="H100" s="23" t="s">
         <v>752</v>
       </c>
-      <c r="D100" t="s">
-        <v>747</v>
-      </c>
-      <c r="E100" s="28" t="s">
+      <c r="I100" s="76"/>
+      <c r="J100" s="24"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B101" s="23" t="s">
         <v>753</v>
       </c>
-      <c r="F100" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="C101" s="23" t="s">
         <v>754</v>
       </c>
-      <c r="H100" s="28" t="s">
+      <c r="D101" t="s">
+        <v>744</v>
+      </c>
+      <c r="E101" s="23" t="s">
         <v>755</v>
       </c>
-      <c r="I100" s="29"/>
-      <c r="J100" s="30"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B101" s="28" t="s">
+      <c r="F101" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G101" t="s">
         <v>756</v>
       </c>
-      <c r="C101" s="28" t="s">
+      <c r="H101" s="23" t="s">
         <v>757</v>
       </c>
-      <c r="D101" t="s">
-        <v>747</v>
-      </c>
-      <c r="E101" s="28" t="s">
+      <c r="I101" s="76"/>
+      <c r="J101" s="24"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B102" s="23" t="s">
         <v>758</v>
       </c>
-      <c r="F101" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="G101" t="s">
+      <c r="C102" s="23" t="s">
         <v>759</v>
       </c>
-      <c r="H101" s="28" t="s">
+      <c r="D102" t="s">
+        <v>744</v>
+      </c>
+      <c r="E102" s="23" t="s">
         <v>760</v>
       </c>
-      <c r="I101" s="29"/>
-      <c r="J101" s="30"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B102" s="28" t="s">
+      <c r="F102" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G102" t="s">
         <v>761</v>
       </c>
-      <c r="C102" s="28" t="s">
+      <c r="H102" s="23" t="s">
         <v>762</v>
       </c>
-      <c r="D102" t="s">
-        <v>747</v>
-      </c>
-      <c r="E102" s="28" t="s">
+      <c r="I102" s="76"/>
+      <c r="J102" s="24"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B103" s="23" t="s">
         <v>763</v>
       </c>
-      <c r="F102" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="C103" s="23" t="s">
+        <v>635</v>
+      </c>
+      <c r="D103" t="s">
+        <v>744</v>
+      </c>
+      <c r="E103" s="23" t="s">
         <v>764</v>
       </c>
-      <c r="H102" s="28" t="s">
+      <c r="F103" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G103" t="s">
         <v>765</v>
       </c>
-      <c r="I102" s="29"/>
-      <c r="J102" s="30"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B103" s="28" t="s">
+      <c r="H103" s="23" t="s">
         <v>766</v>
       </c>
-      <c r="C103" s="28" t="s">
-        <v>638</v>
-      </c>
-      <c r="D103" t="s">
-        <v>747</v>
-      </c>
-      <c r="E103" s="28" t="s">
+      <c r="I103" s="76"/>
+      <c r="J103" s="24"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B104" s="23" t="s">
         <v>767</v>
       </c>
-      <c r="F103" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="C104" s="23" t="s">
         <v>768</v>
       </c>
-      <c r="H103" s="28" t="s">
+      <c r="D104" t="s">
+        <v>744</v>
+      </c>
+      <c r="E104" s="23" t="s">
         <v>769</v>
       </c>
-      <c r="I103" s="29"/>
-      <c r="J103" s="30"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B104" s="28" t="s">
+      <c r="F104" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G104" t="s">
         <v>770</v>
       </c>
-      <c r="C104" s="28" t="s">
+      <c r="H104" s="23" t="s">
         <v>771</v>
       </c>
-      <c r="D104" t="s">
-        <v>747</v>
-      </c>
-      <c r="E104" s="28" t="s">
+      <c r="I104" s="76"/>
+      <c r="J104" s="24"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B105" s="23" t="s">
         <v>772</v>
       </c>
-      <c r="F104" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="C105" s="23" t="s">
         <v>773</v>
       </c>
-      <c r="H104" s="28" t="s">
+      <c r="D105" t="s">
+        <v>744</v>
+      </c>
+      <c r="E105" s="23" t="s">
         <v>774</v>
       </c>
-      <c r="I104" s="29"/>
-      <c r="J104" s="30"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B105" s="28" t="s">
+      <c r="F105" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="G105" t="s">
         <v>775</v>
       </c>
-      <c r="C105" s="28" t="s">
+      <c r="H105" s="23" t="s">
         <v>776</v>
       </c>
-      <c r="D105" t="s">
-        <v>747</v>
-      </c>
-      <c r="E105" s="28" t="s">
+      <c r="I105" s="76"/>
+      <c r="J105" s="24"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B106" s="23" t="s">
         <v>777</v>
       </c>
-      <c r="F105" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="C106" s="23" t="s">
         <v>778</v>
       </c>
-      <c r="H105" s="28" t="s">
+      <c r="D106" t="s">
+        <v>744</v>
+      </c>
+      <c r="E106" s="23" t="s">
         <v>779</v>
       </c>
-      <c r="I105" s="29"/>
-      <c r="J105" s="30"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B106" s="28" t="s">
+      <c r="F106" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="G106" t="s">
         <v>780</v>
       </c>
-      <c r="C106" s="28" t="s">
+      <c r="H106" s="23" t="s">
         <v>781</v>
       </c>
-      <c r="D106" t="s">
-        <v>747</v>
-      </c>
-      <c r="E106" s="28" t="s">
+      <c r="I106" s="76"/>
+      <c r="J106" s="24"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B107" s="23" t="s">
         <v>782</v>
       </c>
-      <c r="F106" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="G106" t="s">
+      <c r="C107" s="23" t="s">
         <v>783</v>
       </c>
-      <c r="H106" s="28" t="s">
+      <c r="D107" t="s">
+        <v>744</v>
+      </c>
+      <c r="E107" s="23" t="s">
         <v>784</v>
       </c>
-      <c r="I106" s="29"/>
-      <c r="J106" s="30"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B107" s="28" t="s">
+      <c r="F107" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="G107" t="s">
         <v>785</v>
       </c>
-      <c r="C107" s="28" t="s">
+      <c r="H107" s="23" t="s">
         <v>786</v>
       </c>
-      <c r="D107" t="s">
-        <v>747</v>
-      </c>
-      <c r="E107" s="28" t="s">
+      <c r="I107" s="76"/>
+      <c r="J107" s="24"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B108" s="23" t="s">
         <v>787</v>
       </c>
-      <c r="F107" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="C108" s="23" t="s">
         <v>788</v>
       </c>
-      <c r="H107" s="28" t="s">
+      <c r="D108" t="s">
+        <v>744</v>
+      </c>
+      <c r="E108" s="23" t="s">
         <v>789</v>
       </c>
-      <c r="I107" s="29"/>
-      <c r="J107" s="30"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B108" s="28" t="s">
+      <c r="F108" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="G108" t="s">
         <v>790</v>
       </c>
-      <c r="C108" s="28" t="s">
+      <c r="H108" s="23" t="s">
         <v>791</v>
       </c>
-      <c r="D108" t="s">
-        <v>747</v>
-      </c>
-      <c r="E108" s="28" t="s">
+      <c r="I108" s="76"/>
+      <c r="J108" s="24"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B109" s="23" t="s">
         <v>792</v>
       </c>
-      <c r="F108" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G108" t="s">
+      <c r="C109" s="23" t="s">
         <v>793</v>
       </c>
-      <c r="H108" s="28" t="s">
+      <c r="D109" t="s">
+        <v>744</v>
+      </c>
+      <c r="E109" s="23" t="s">
         <v>794</v>
       </c>
-      <c r="I108" s="29"/>
-      <c r="J108" s="30"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B109" s="28" t="s">
+      <c r="F109" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="G109" t="s">
         <v>795</v>
       </c>
-      <c r="C109" s="28" t="s">
+      <c r="H109" s="23" t="s">
         <v>796</v>
       </c>
-      <c r="D109" t="s">
-        <v>747</v>
-      </c>
-      <c r="E109" s="28" t="s">
+      <c r="I109" s="76"/>
+      <c r="J109" s="24"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B110" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="F109" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="G109" t="s">
+      <c r="C110" s="23" t="s">
         <v>798</v>
       </c>
-      <c r="H109" s="28" t="s">
+      <c r="D110" t="s">
+        <v>744</v>
+      </c>
+      <c r="E110" s="23" t="s">
         <v>799</v>
       </c>
-      <c r="I109" s="29"/>
-      <c r="J109" s="30"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B110" s="28" t="s">
+      <c r="F110" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="G110" t="s">
         <v>800</v>
       </c>
-      <c r="C110" s="28" t="s">
+      <c r="H110" s="23" t="s">
         <v>801</v>
       </c>
-      <c r="D110" t="s">
-        <v>747</v>
-      </c>
-      <c r="E110" s="28" t="s">
+      <c r="I110" s="76"/>
+      <c r="J110" s="24"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B111" s="23" t="s">
         <v>802</v>
       </c>
-      <c r="F110" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="C111" s="23" t="s">
         <v>803</v>
       </c>
-      <c r="H110" s="28" t="s">
+      <c r="D111" t="s">
+        <v>333</v>
+      </c>
+      <c r="E111" s="23" t="s">
         <v>804</v>
       </c>
-      <c r="I110" s="29"/>
-      <c r="J110" s="30"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B111" s="28" t="s">
+      <c r="F111" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G111" t="s">
         <v>805</v>
       </c>
-      <c r="C111" s="28" t="s">
+      <c r="H111" s="23" t="s">
         <v>806</v>
       </c>
-      <c r="D111" t="s">
-        <v>336</v>
-      </c>
-      <c r="E111" s="28" t="s">
+      <c r="I111" s="76"/>
+      <c r="J111" s="24"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B112" s="23" t="s">
         <v>807</v>
       </c>
-      <c r="F111" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="C112" s="23" t="s">
         <v>808</v>
       </c>
-      <c r="H111" s="28" t="s">
+      <c r="D112" t="s">
+        <v>333</v>
+      </c>
+      <c r="E112" s="23" t="s">
         <v>809</v>
       </c>
-      <c r="I111" s="29"/>
-      <c r="J111" s="30"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B112" s="28" t="s">
+      <c r="F112" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="G112" t="s">
         <v>810</v>
       </c>
-      <c r="C112" s="28" t="s">
+      <c r="H112" s="23" t="s">
         <v>811</v>
       </c>
-      <c r="D112" t="s">
-        <v>336</v>
-      </c>
-      <c r="E112" s="28" t="s">
+      <c r="I112" s="76"/>
+      <c r="J112" s="24"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B113" s="23" t="s">
         <v>812</v>
       </c>
-      <c r="F112" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="G112" t="s">
+      <c r="C113" s="23" t="s">
         <v>813</v>
       </c>
-      <c r="H112" s="28" t="s">
+      <c r="D113" t="s">
+        <v>333</v>
+      </c>
+      <c r="E113" s="23" t="s">
         <v>814</v>
       </c>
-      <c r="I112" s="29"/>
-      <c r="J112" s="30"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B113" s="28" t="s">
+      <c r="F113" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G113" t="s">
         <v>815</v>
       </c>
-      <c r="C113" s="28" t="s">
+      <c r="H113" s="23" t="s">
         <v>816</v>
       </c>
-      <c r="D113" t="s">
-        <v>336</v>
-      </c>
-      <c r="E113" s="28" t="s">
+      <c r="I113" s="76"/>
+      <c r="J113" s="24"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B114" s="23" t="s">
         <v>817</v>
       </c>
-      <c r="F113" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="C114" s="23" t="s">
         <v>818</v>
       </c>
-      <c r="H113" s="28" t="s">
+      <c r="D114" t="s">
+        <v>333</v>
+      </c>
+      <c r="E114" s="23" t="s">
         <v>819</v>
       </c>
-      <c r="I113" s="29"/>
-      <c r="J113" s="30"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B114" s="28" t="s">
+      <c r="F114" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G114" t="s">
         <v>820</v>
       </c>
-      <c r="C114" s="28" t="s">
+      <c r="H114" s="23" t="s">
         <v>821</v>
       </c>
-      <c r="D114" t="s">
-        <v>336</v>
-      </c>
-      <c r="E114" s="28" t="s">
+      <c r="I114" s="76"/>
+      <c r="J114" s="24"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B115" s="23" t="s">
         <v>822</v>
       </c>
-      <c r="F114" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="C115" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="D115" t="s">
         <v>823</v>
       </c>
-      <c r="H114" s="28" t="s">
+      <c r="E115" s="23" t="s">
         <v>824</v>
       </c>
-      <c r="I114" s="29"/>
-      <c r="J114" s="30"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B115" s="28" t="s">
+      <c r="F115" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G115" t="s">
         <v>825</v>
       </c>
-      <c r="C115" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="H115" s="23" t="s">
         <v>826</v>
       </c>
-      <c r="E115" s="28" t="s">
+      <c r="I115" s="76"/>
+      <c r="J115" s="24"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B116" s="23" t="s">
         <v>827</v>
       </c>
-      <c r="F115" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="C116" s="23" t="s">
         <v>828</v>
       </c>
-      <c r="H115" s="28" t="s">
+      <c r="D116" t="s">
+        <v>823</v>
+      </c>
+      <c r="E116" s="23" t="s">
         <v>829</v>
       </c>
-      <c r="I115" s="29"/>
-      <c r="J115" s="30"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B116" s="28" t="s">
+      <c r="F116" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="G116" t="s">
         <v>830</v>
       </c>
-      <c r="C116" s="28" t="s">
+      <c r="H116" s="23" t="s">
         <v>831</v>
       </c>
-      <c r="D116" t="s">
-        <v>826</v>
-      </c>
-      <c r="E116" s="28" t="s">
+      <c r="I116" s="76"/>
+      <c r="J116" s="24"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B117" s="23" t="s">
         <v>832</v>
       </c>
-      <c r="F116" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="G116" t="s">
+      <c r="C117" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D117" t="s">
+        <v>823</v>
+      </c>
+      <c r="E117" s="23" t="s">
         <v>833</v>
       </c>
-      <c r="H116" s="28" t="s">
+      <c r="F117" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G117" t="s">
         <v>834</v>
       </c>
-      <c r="I116" s="29"/>
-      <c r="J116" s="30"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B117" s="28" t="s">
+      <c r="H117" s="23" t="s">
         <v>835</v>
       </c>
-      <c r="C117" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="D117" t="s">
-        <v>826</v>
-      </c>
-      <c r="E117" s="28" t="s">
+      <c r="I117" s="76"/>
+      <c r="J117" s="24"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B118" s="23" t="s">
         <v>836</v>
       </c>
-      <c r="F117" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="G117" t="s">
+      <c r="C118" s="23" t="s">
+        <v>744</v>
+      </c>
+      <c r="D118" t="s">
+        <v>823</v>
+      </c>
+      <c r="E118" s="23" t="s">
         <v>837</v>
       </c>
-      <c r="H117" s="28" t="s">
+      <c r="F118" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G118" t="s">
         <v>838</v>
       </c>
-      <c r="I117" s="29"/>
-      <c r="J117" s="30"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B118" s="28" t="s">
+      <c r="H118" s="23" t="s">
         <v>839</v>
       </c>
-      <c r="C118" s="28" t="s">
-        <v>747</v>
-      </c>
-      <c r="D118" t="s">
-        <v>826</v>
-      </c>
-      <c r="E118" s="28" t="s">
+      <c r="I118" s="76"/>
+      <c r="J118" s="24"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B119" s="23" t="s">
         <v>840</v>
       </c>
-      <c r="F118" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G118" t="s">
+      <c r="C119" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="H118" s="28" t="s">
+      <c r="D119" t="s">
+        <v>823</v>
+      </c>
+      <c r="E119" s="23" t="s">
         <v>842</v>
       </c>
-      <c r="I118" s="29"/>
-      <c r="J118" s="30"/>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B119" s="28" t="s">
+      <c r="F119" s="23" t="s">
         <v>843</v>
       </c>
-      <c r="C119" s="28" t="s">
+      <c r="G119" t="s">
         <v>844</v>
       </c>
-      <c r="D119" t="s">
-        <v>826</v>
-      </c>
-      <c r="E119" s="28" t="s">
+      <c r="H119" s="23" t="s">
         <v>845</v>
       </c>
-      <c r="F119" s="28" t="s">
+      <c r="I119" s="76"/>
+      <c r="J119" s="24"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B120" s="23" t="s">
         <v>846</v>
       </c>
-      <c r="G119" t="s">
+      <c r="C120" s="23" t="s">
         <v>847</v>
       </c>
-      <c r="H119" s="28" t="s">
+      <c r="D120" t="s">
         <v>848</v>
       </c>
-      <c r="I119" s="29"/>
-      <c r="J119" s="30"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B120" s="28" t="s">
+      <c r="E120" s="23" t="s">
         <v>849</v>
       </c>
-      <c r="C120" s="28" t="s">
+      <c r="F120" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G120" t="s">
         <v>850</v>
       </c>
-      <c r="D120" t="s">
+      <c r="H120" s="23" t="s">
         <v>851</v>
       </c>
-      <c r="E120" s="28" t="s">
+      <c r="I120" s="76"/>
+      <c r="J120" s="24"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B121" s="23" t="s">
         <v>852</v>
       </c>
-      <c r="F120" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="G120" t="s">
+      <c r="C121" s="23" t="s">
         <v>853</v>
       </c>
-      <c r="H120" s="28" t="s">
+      <c r="D121" t="s">
+        <v>848</v>
+      </c>
+      <c r="E121" s="23" t="s">
         <v>854</v>
       </c>
-      <c r="I120" s="29"/>
-      <c r="J120" s="30"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B121" s="28" t="s">
+      <c r="F121" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="G121" t="s">
         <v>855</v>
       </c>
-      <c r="C121" s="28" t="s">
+      <c r="H121" s="23" t="s">
         <v>856</v>
       </c>
-      <c r="D121" t="s">
-        <v>851</v>
-      </c>
-      <c r="E121" s="28" t="s">
+      <c r="I121" s="76"/>
+      <c r="J121" s="24"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B122" s="23" t="s">
         <v>857</v>
       </c>
-      <c r="F121" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="G121" t="s">
+      <c r="C122" s="23" t="s">
         <v>858</v>
       </c>
-      <c r="H121" s="28" t="s">
+      <c r="D122" t="s">
+        <v>848</v>
+      </c>
+      <c r="E122" s="23" t="s">
         <v>859</v>
       </c>
-      <c r="I121" s="29"/>
-      <c r="J121" s="30"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B122" s="28" t="s">
+      <c r="F122" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G122" t="s">
         <v>860</v>
       </c>
-      <c r="C122" s="28" t="s">
+      <c r="H122" s="23" t="s">
         <v>861</v>
       </c>
-      <c r="D122" t="s">
-        <v>851</v>
-      </c>
-      <c r="E122" s="28" t="s">
+      <c r="I122" s="76"/>
+      <c r="J122" s="24"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B123" s="23" t="s">
         <v>862</v>
       </c>
-      <c r="F122" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="G122" t="s">
+      <c r="C123" s="23" t="s">
         <v>863</v>
       </c>
-      <c r="H122" s="28" t="s">
+      <c r="D123" t="s">
+        <v>848</v>
+      </c>
+      <c r="E123" s="23" t="s">
         <v>864</v>
       </c>
-      <c r="I122" s="29"/>
-      <c r="J122" s="30"/>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B123" s="28" t="s">
+      <c r="F123" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G123" t="s">
         <v>865</v>
       </c>
-      <c r="C123" s="28" t="s">
+      <c r="H123" s="23" t="s">
         <v>866</v>
       </c>
-      <c r="D123" t="s">
-        <v>851</v>
-      </c>
-      <c r="E123" s="28" t="s">
+      <c r="I123" s="76"/>
+      <c r="J123" s="24"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B124" s="23" t="s">
         <v>867</v>
       </c>
-      <c r="F123" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G123" t="s">
+      <c r="C124" s="23" t="s">
         <v>868</v>
       </c>
-      <c r="H123" s="28" t="s">
+      <c r="D124" t="s">
+        <v>853</v>
+      </c>
+      <c r="E124" s="23" t="s">
         <v>869</v>
       </c>
-      <c r="I123" s="29"/>
-      <c r="J123" s="30"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B124" s="28" t="s">
+      <c r="F124" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G124" t="s">
         <v>870</v>
       </c>
-      <c r="C124" s="28" t="s">
+      <c r="H124" s="23" t="s">
         <v>871</v>
       </c>
-      <c r="D124" t="s">
-        <v>856</v>
-      </c>
-      <c r="E124" s="28" t="s">
+      <c r="I124" s="76"/>
+      <c r="J124" s="24"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B125" s="23" t="s">
         <v>872</v>
       </c>
-      <c r="F124" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="G124" t="s">
+      <c r="C125" s="23" t="s">
         <v>873</v>
       </c>
-      <c r="H124" s="28" t="s">
+      <c r="D125" t="s">
+        <v>853</v>
+      </c>
+      <c r="E125" s="23" t="s">
         <v>874</v>
       </c>
-      <c r="I124" s="29"/>
-      <c r="J124" s="30"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B125" s="28" t="s">
+      <c r="F125" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="G125" t="s">
         <v>875</v>
       </c>
-      <c r="C125" s="28" t="s">
+      <c r="H125" s="23" t="s">
         <v>876</v>
       </c>
-      <c r="D125" t="s">
-        <v>856</v>
-      </c>
-      <c r="E125" s="28" t="s">
+      <c r="I125" s="76"/>
+      <c r="J125" s="24"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B126" s="23" t="s">
         <v>877</v>
       </c>
-      <c r="F125" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="G125" t="s">
+      <c r="C126" s="23" t="s">
         <v>878</v>
       </c>
-      <c r="H125" s="28" t="s">
+      <c r="D126" t="s">
+        <v>853</v>
+      </c>
+      <c r="E126" s="23" t="s">
         <v>879</v>
       </c>
-      <c r="I125" s="29"/>
-      <c r="J125" s="30"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B126" s="28" t="s">
+      <c r="F126" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G126" t="s">
         <v>880</v>
       </c>
-      <c r="C126" s="28" t="s">
+      <c r="H126" s="23" t="s">
         <v>881</v>
       </c>
-      <c r="D126" t="s">
-        <v>856</v>
-      </c>
-      <c r="E126" s="28" t="s">
+      <c r="I126" s="76"/>
+      <c r="J126" s="24"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B127" s="23" t="s">
         <v>882</v>
       </c>
-      <c r="F126" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="G126" t="s">
+      <c r="C127" s="23" t="s">
         <v>883</v>
       </c>
-      <c r="H126" s="28" t="s">
+      <c r="D127" t="s">
+        <v>853</v>
+      </c>
+      <c r="E127" s="23" t="s">
         <v>884</v>
       </c>
-      <c r="I126" s="29"/>
-      <c r="J126" s="30"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B127" s="28" t="s">
+      <c r="F127" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G127" t="s">
         <v>885</v>
       </c>
-      <c r="C127" s="28" t="s">
+      <c r="H127" s="23" t="s">
         <v>886</v>
       </c>
-      <c r="D127" t="s">
-        <v>856</v>
-      </c>
-      <c r="E127" s="28" t="s">
+      <c r="I127" s="76"/>
+      <c r="J127" s="24"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B128" s="23" t="s">
         <v>887</v>
       </c>
-      <c r="F127" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="C128" s="23" t="s">
         <v>888</v>
       </c>
-      <c r="H127" s="28" t="s">
+      <c r="D128" t="s">
+        <v>853</v>
+      </c>
+      <c r="E128" s="23" t="s">
         <v>889</v>
       </c>
-      <c r="I127" s="29"/>
-      <c r="J127" s="30"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B128" s="28" t="s">
+      <c r="F128" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="G128" t="s">
         <v>890</v>
       </c>
-      <c r="C128" s="28" t="s">
+      <c r="H128" s="23" t="s">
         <v>891</v>
       </c>
-      <c r="D128" t="s">
-        <v>856</v>
-      </c>
-      <c r="E128" s="28" t="s">
+      <c r="I128" s="76"/>
+      <c r="J128" s="24"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B129" s="23" t="s">
         <v>892</v>
       </c>
-      <c r="F128" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="G128" t="s">
+      <c r="C129" s="23" t="s">
         <v>893</v>
       </c>
-      <c r="H128" s="28" t="s">
+      <c r="D129" t="s">
+        <v>853</v>
+      </c>
+      <c r="E129" s="23" t="s">
         <v>894</v>
       </c>
-      <c r="I128" s="29"/>
-      <c r="J128" s="30"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B129" s="28" t="s">
+      <c r="F129" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="C129" s="28" t="s">
+      <c r="G129" t="s">
         <v>896</v>
       </c>
-      <c r="D129" t="s">
-        <v>856</v>
-      </c>
-      <c r="E129" s="28" t="s">
+      <c r="H129" s="23" t="s">
         <v>897</v>
       </c>
-      <c r="F129" s="28" t="s">
+      <c r="I129" s="76"/>
+      <c r="J129" s="24"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B130" s="23" t="s">
         <v>898</v>
       </c>
-      <c r="G129" t="s">
+      <c r="C130" s="23" t="s">
         <v>899</v>
       </c>
-      <c r="H129" s="28" t="s">
+      <c r="D130" t="s">
+        <v>853</v>
+      </c>
+      <c r="E130" s="23" t="s">
         <v>900</v>
       </c>
-      <c r="I129" s="29"/>
-      <c r="J129" s="30"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B130" s="28" t="s">
+      <c r="F130" s="23" t="s">
         <v>901</v>
       </c>
-      <c r="C130" s="28" t="s">
+      <c r="G130" t="s">
         <v>902</v>
       </c>
-      <c r="D130" t="s">
-        <v>856</v>
-      </c>
-      <c r="E130" s="28" t="s">
+      <c r="H130" s="23" t="s">
         <v>903</v>
       </c>
-      <c r="F130" s="28" t="s">
+      <c r="I130" s="76"/>
+      <c r="J130" s="24"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B131" s="23" t="s">
         <v>904</v>
       </c>
-      <c r="G130" t="s">
+      <c r="C131" s="23" t="s">
         <v>905</v>
       </c>
-      <c r="H130" s="28" t="s">
+      <c r="D131" t="s">
+        <v>354</v>
+      </c>
+      <c r="E131" s="23" t="s">
         <v>906</v>
       </c>
-      <c r="I130" s="29"/>
-      <c r="J130" s="30"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B131" s="28" t="s">
+      <c r="F131" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G131" t="s">
         <v>907</v>
       </c>
-      <c r="C131" s="28" t="s">
+      <c r="H131" s="23" t="s">
         <v>908</v>
       </c>
-      <c r="D131" t="s">
-        <v>357</v>
-      </c>
-      <c r="E131" s="28" t="s">
+      <c r="I131" s="76"/>
+      <c r="J131" s="24"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B132" s="23" t="s">
         <v>909</v>
       </c>
-      <c r="F131" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="G131" t="s">
+      <c r="C132" s="23" t="s">
         <v>910</v>
       </c>
-      <c r="H131" s="28" t="s">
+      <c r="D132" t="s">
+        <v>354</v>
+      </c>
+      <c r="E132" s="23" t="s">
         <v>911</v>
       </c>
-      <c r="I131" s="29"/>
-      <c r="J131" s="30"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B132" s="28" t="s">
+      <c r="F132" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G132" t="s">
         <v>912</v>
       </c>
-      <c r="C132" s="28" t="s">
+      <c r="H132" s="23" t="s">
         <v>913</v>
       </c>
-      <c r="D132" t="s">
-        <v>357</v>
-      </c>
-      <c r="E132" s="28" t="s">
+      <c r="I132" s="76"/>
+      <c r="J132" s="24"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B133" s="23" t="s">
         <v>914</v>
       </c>
-      <c r="F132" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="G132" t="s">
+      <c r="C133" s="23" t="s">
+        <v>537</v>
+      </c>
+      <c r="D133" t="s">
+        <v>354</v>
+      </c>
+      <c r="E133" s="23" t="s">
         <v>915</v>
       </c>
-      <c r="H132" s="28" t="s">
+      <c r="F133" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="G133" t="s">
         <v>916</v>
       </c>
-      <c r="I132" s="29"/>
-      <c r="J132" s="30"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B133" s="28" t="s">
+      <c r="H133" s="23" t="s">
         <v>917</v>
       </c>
-      <c r="C133" s="28" t="s">
-        <v>540</v>
-      </c>
-      <c r="D133" t="s">
-        <v>357</v>
-      </c>
-      <c r="E133" s="28" t="s">
+      <c r="I133" s="76"/>
+      <c r="J133" s="24"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B134" s="23" t="s">
         <v>918</v>
       </c>
-      <c r="F133" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G133" t="s">
+      <c r="C134" s="23" t="s">
         <v>919</v>
       </c>
-      <c r="H133" s="28" t="s">
+      <c r="D134" t="s">
+        <v>524</v>
+      </c>
+      <c r="E134" s="23" t="s">
         <v>920</v>
       </c>
-      <c r="I133" s="29"/>
-      <c r="J133" s="30"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B134" s="28" t="s">
+      <c r="F134" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G134" t="s">
         <v>921</v>
       </c>
-      <c r="C134" s="28" t="s">
+      <c r="H134" s="23" t="s">
         <v>922</v>
       </c>
-      <c r="D134" t="s">
-        <v>527</v>
-      </c>
-      <c r="E134" s="28" t="s">
+      <c r="I134" s="76"/>
+      <c r="J134" s="24"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B135" s="23" t="s">
         <v>923</v>
       </c>
-      <c r="F134" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="G134" t="s">
+      <c r="C135" s="23" t="s">
+        <v>848</v>
+      </c>
+      <c r="D135" t="s">
+        <v>524</v>
+      </c>
+      <c r="E135" s="23" t="s">
         <v>924</v>
       </c>
-      <c r="H134" s="28" t="s">
+      <c r="F135" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G135" t="s">
         <v>925</v>
       </c>
-      <c r="I134" s="29"/>
-      <c r="J134" s="30"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B135" s="28" t="s">
+      <c r="H135" s="23" t="s">
         <v>926</v>
       </c>
-      <c r="C135" s="28" t="s">
-        <v>851</v>
-      </c>
-      <c r="D135" t="s">
-        <v>527</v>
-      </c>
-      <c r="E135" s="28" t="s">
+      <c r="I135" s="76"/>
+      <c r="J135" s="24"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B136" s="23" t="s">
         <v>927</v>
       </c>
-      <c r="F135" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="G135" t="s">
+      <c r="C136" s="23" t="s">
         <v>928</v>
       </c>
-      <c r="H135" s="28" t="s">
+      <c r="D136" t="s">
+        <v>524</v>
+      </c>
+      <c r="E136" s="23" t="s">
         <v>929</v>
       </c>
-      <c r="I135" s="29"/>
-      <c r="J135" s="30"/>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B136" s="28" t="s">
+      <c r="F136" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="G136" t="s">
         <v>930</v>
       </c>
-      <c r="C136" s="28" t="s">
+      <c r="H136" s="23" t="s">
         <v>931</v>
       </c>
-      <c r="D136" t="s">
-        <v>527</v>
-      </c>
-      <c r="E136" s="28" t="s">
+      <c r="I136" s="76"/>
+      <c r="J136" s="24"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B137" s="23" t="s">
         <v>932</v>
       </c>
-      <c r="F136" s="28" t="s">
-        <v>484</v>
-      </c>
-      <c r="G136" t="s">
+      <c r="C137" s="23" t="s">
         <v>933</v>
       </c>
-      <c r="H136" s="28" t="s">
+      <c r="D137" t="s">
+        <v>524</v>
+      </c>
+      <c r="E137" s="23" t="s">
         <v>934</v>
       </c>
-      <c r="I136" s="29"/>
-      <c r="J136" s="30"/>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B137" s="28" t="s">
+      <c r="F137" s="23" t="s">
         <v>935</v>
       </c>
-      <c r="C137" s="28" t="s">
+      <c r="G137" t="s">
         <v>936</v>
       </c>
-      <c r="D137" t="s">
-        <v>527</v>
-      </c>
-      <c r="E137" s="28" t="s">
+      <c r="H137" s="23" t="s">
         <v>937</v>
       </c>
-      <c r="F137" s="28" t="s">
+      <c r="I137" s="76"/>
+      <c r="J137" s="24"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B138" s="23" t="s">
         <v>938</v>
       </c>
-      <c r="G137" t="s">
+      <c r="C138" s="23" t="s">
         <v>939</v>
       </c>
-      <c r="H137" s="28" t="s">
+      <c r="D138" t="s">
+        <v>524</v>
+      </c>
+      <c r="E138" s="23" t="s">
         <v>940</v>
       </c>
-      <c r="I137" s="29"/>
-      <c r="J137" s="30"/>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B138" s="28" t="s">
+      <c r="F138" s="23" t="s">
         <v>941</v>
       </c>
-      <c r="C138" s="28" t="s">
+      <c r="G138" t="s">
         <v>942</v>
       </c>
-      <c r="D138" t="s">
-        <v>527</v>
-      </c>
-      <c r="E138" s="28" t="s">
+      <c r="H138" s="23" t="s">
         <v>943</v>
       </c>
-      <c r="F138" s="28" t="s">
+      <c r="I138" s="76"/>
+      <c r="J138" s="24"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B139" s="23" t="s">
         <v>944</v>
       </c>
-      <c r="G138" t="s">
+      <c r="C139" s="23" t="s">
         <v>945</v>
       </c>
-      <c r="H138" s="28" t="s">
+      <c r="D139" t="s">
+        <v>524</v>
+      </c>
+      <c r="E139" s="23" t="s">
         <v>946</v>
       </c>
-      <c r="I138" s="29"/>
-      <c r="J138" s="30"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B139" s="28" t="s">
+      <c r="F139" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="G139" t="s">
         <v>947</v>
       </c>
-      <c r="C139" s="28" t="s">
+      <c r="H139" s="23" t="s">
         <v>948</v>
       </c>
-      <c r="D139" t="s">
-        <v>527</v>
-      </c>
-      <c r="E139" s="28" t="s">
+      <c r="I139" s="76"/>
+      <c r="J139" s="24"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B140" s="23" t="s">
         <v>949</v>
       </c>
-      <c r="F139" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G139" t="s">
+      <c r="C140" s="23" t="s">
         <v>950</v>
       </c>
-      <c r="H139" s="28" t="s">
+      <c r="D140" t="s">
+        <v>524</v>
+      </c>
+      <c r="E140" s="23" t="s">
         <v>951</v>
       </c>
-      <c r="I139" s="29"/>
-      <c r="J139" s="30"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B140" s="28" t="s">
+      <c r="F140" s="23" t="s">
         <v>952</v>
       </c>
-      <c r="C140" s="28" t="s">
+      <c r="G140" t="s">
         <v>953</v>
       </c>
-      <c r="D140" t="s">
-        <v>527</v>
-      </c>
-      <c r="E140" s="28" t="s">
+      <c r="H140" s="23" t="s">
         <v>954</v>
       </c>
-      <c r="F140" s="28" t="s">
+      <c r="I140" s="76"/>
+      <c r="J140" s="24"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B141" s="23" t="s">
         <v>955</v>
       </c>
-      <c r="G140" t="s">
+      <c r="C141" s="23" t="s">
         <v>956</v>
       </c>
-      <c r="H140" s="28" t="s">
+      <c r="D141" t="s">
+        <v>524</v>
+      </c>
+      <c r="E141" s="23" t="s">
         <v>957</v>
       </c>
-      <c r="I140" s="29"/>
-      <c r="J140" s="30"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B141" s="28" t="s">
+      <c r="F141" s="23" t="s">
         <v>958</v>
       </c>
-      <c r="C141" s="28" t="s">
+      <c r="G141" t="s">
         <v>959</v>
       </c>
-      <c r="D141" t="s">
-        <v>527</v>
-      </c>
-      <c r="E141" s="28" t="s">
+      <c r="H141" s="23" t="s">
         <v>960</v>
       </c>
-      <c r="F141" s="28" t="s">
+      <c r="I141" s="76"/>
+      <c r="J141" s="24"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B142" s="23" t="s">
         <v>961</v>
       </c>
-      <c r="G141" t="s">
+      <c r="C142" s="23" t="s">
         <v>962</v>
       </c>
-      <c r="H141" s="28" t="s">
+      <c r="D142" t="s">
+        <v>524</v>
+      </c>
+      <c r="E142" s="23" t="s">
         <v>963</v>
       </c>
-      <c r="I141" s="29"/>
-      <c r="J141" s="30"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B142" s="28" t="s">
+      <c r="F142" s="23" t="s">
         <v>964</v>
       </c>
-      <c r="C142" s="28" t="s">
+      <c r="G142" t="s">
         <v>965</v>
       </c>
-      <c r="D142" t="s">
-        <v>527</v>
-      </c>
-      <c r="E142" s="28" t="s">
+      <c r="H142" s="23" t="s">
         <v>966</v>
       </c>
-      <c r="F142" s="28" t="s">
+      <c r="I142" s="76"/>
+      <c r="J142" s="24"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B143" s="23" t="s">
         <v>967</v>
       </c>
-      <c r="G142" t="s">
+      <c r="C143" s="23" t="s">
         <v>968</v>
       </c>
-      <c r="H142" s="28" t="s">
+      <c r="D143" t="s">
+        <v>485</v>
+      </c>
+      <c r="E143" s="23" t="s">
         <v>969</v>
       </c>
-      <c r="I142" s="29"/>
-      <c r="J142" s="30"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B143" s="28" t="s">
+      <c r="F143" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G143" t="s">
         <v>970</v>
       </c>
-      <c r="C143" s="28" t="s">
+      <c r="H143" s="23" t="s">
         <v>971</v>
       </c>
-      <c r="D143" t="s">
-        <v>488</v>
-      </c>
-      <c r="E143" s="28" t="s">
+      <c r="I143" s="76"/>
+      <c r="J143" s="24"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B144" s="23" t="s">
         <v>972</v>
       </c>
-      <c r="F143" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="G143" t="s">
+      <c r="C144" s="23" t="s">
         <v>973</v>
       </c>
-      <c r="H143" s="28" t="s">
+      <c r="D144" t="s">
+        <v>485</v>
+      </c>
+      <c r="E144" s="23" t="s">
         <v>974</v>
       </c>
-      <c r="I143" s="29"/>
-      <c r="J143" s="30"/>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B144" s="28" t="s">
+      <c r="F144" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G144" t="s">
         <v>975</v>
       </c>
-      <c r="C144" s="28" t="s">
+      <c r="H144" s="23" t="s">
         <v>976</v>
       </c>
-      <c r="D144" t="s">
-        <v>488</v>
-      </c>
-      <c r="E144" s="28" t="s">
+      <c r="I144" s="76"/>
+      <c r="J144" s="24"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B145" s="23" t="s">
         <v>977</v>
       </c>
-      <c r="F144" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="G144" t="s">
+      <c r="C145" s="25">
+        <v>181</v>
+      </c>
+      <c r="D145" t="s">
+        <v>485</v>
+      </c>
+      <c r="E145" s="23" t="s">
         <v>978</v>
       </c>
-      <c r="H144" s="28" t="s">
+      <c r="F145" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G145" t="s">
         <v>979</v>
       </c>
-      <c r="I144" s="29"/>
-      <c r="J144" s="30"/>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B145" s="28" t="s">
+      <c r="H145" s="23" t="s">
         <v>980</v>
       </c>
-      <c r="C145" s="31">
-        <v>181</v>
-      </c>
-      <c r="D145" t="s">
-        <v>488</v>
-      </c>
-      <c r="E145" s="28" t="s">
+      <c r="I145" s="76"/>
+      <c r="J145" s="24"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B146" s="23" t="s">
         <v>981</v>
       </c>
-      <c r="F145" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="G145" t="s">
+      <c r="C146" s="23" t="s">
         <v>982</v>
       </c>
-      <c r="H145" s="28" t="s">
+      <c r="D146" t="s">
+        <v>485</v>
+      </c>
+      <c r="E146" s="23" t="s">
         <v>983</v>
       </c>
-      <c r="I145" s="29"/>
-      <c r="J145" s="30"/>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B146" s="28" t="s">
+      <c r="F146" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="G146" t="s">
         <v>984</v>
       </c>
-      <c r="C146" s="28" t="s">
+      <c r="H146" s="23" t="s">
         <v>985</v>
       </c>
-      <c r="D146" t="s">
-        <v>488</v>
-      </c>
-      <c r="E146" s="28" t="s">
+      <c r="I146" s="76"/>
+      <c r="J146" s="24"/>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B147" s="23" t="s">
         <v>986</v>
       </c>
-      <c r="F146" s="28" t="s">
-        <v>484</v>
-      </c>
-      <c r="G146" t="s">
+      <c r="C147" s="23" t="s">
+        <v>823</v>
+      </c>
+      <c r="D147" t="s">
+        <v>485</v>
+      </c>
+      <c r="E147" s="23" t="s">
         <v>987</v>
       </c>
-      <c r="H146" s="28" t="s">
+      <c r="F147" s="23" t="s">
+        <v>935</v>
+      </c>
+      <c r="G147" t="s">
         <v>988</v>
       </c>
-      <c r="I146" s="29"/>
-      <c r="J146" s="30"/>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B147" s="28" t="s">
+      <c r="H147" s="23" t="s">
         <v>989</v>
       </c>
-      <c r="C147" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="D147" t="s">
-        <v>488</v>
-      </c>
-      <c r="E147" s="28" t="s">
+      <c r="I147" s="76"/>
+      <c r="J147" s="24"/>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B148" s="23" t="s">
         <v>990</v>
       </c>
-      <c r="F147" s="28" t="s">
-        <v>938</v>
-      </c>
-      <c r="G147" t="s">
+      <c r="C148" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="D148" t="s">
+        <v>485</v>
+      </c>
+      <c r="E148" s="23" t="s">
         <v>991</v>
       </c>
-      <c r="H147" s="28" t="s">
+      <c r="F148" s="23" t="s">
+        <v>941</v>
+      </c>
+      <c r="G148" t="s">
         <v>992</v>
       </c>
-      <c r="I147" s="29"/>
-      <c r="J147" s="30"/>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B148" s="28" t="s">
+      <c r="H148" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="C148" s="28" t="s">
-        <v>614</v>
-      </c>
-      <c r="D148" t="s">
-        <v>488</v>
-      </c>
-      <c r="E148" s="28" t="s">
+      <c r="I148" s="76"/>
+      <c r="J148" s="24"/>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B149" s="23" t="s">
         <v>994</v>
       </c>
-      <c r="F148" s="28" t="s">
-        <v>944</v>
-      </c>
-      <c r="G148" t="s">
+      <c r="C149" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="D149" t="s">
+        <v>485</v>
+      </c>
+      <c r="E149" s="23" t="s">
         <v>995</v>
       </c>
-      <c r="H148" s="28" t="s">
+      <c r="F149" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="G149" t="s">
         <v>996</v>
       </c>
-      <c r="I148" s="29"/>
-      <c r="J148" s="30"/>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B149" s="28" t="s">
+      <c r="H149" s="23" t="s">
         <v>997</v>
       </c>
-      <c r="C149" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="D149" t="s">
-        <v>488</v>
-      </c>
-      <c r="E149" s="28" t="s">
+      <c r="I149" s="76"/>
+      <c r="J149" s="24"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B150" s="23" t="s">
         <v>998</v>
       </c>
-      <c r="F149" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="G149" t="s">
+      <c r="C150" s="23" t="s">
         <v>999</v>
       </c>
-      <c r="H149" s="28" t="s">
+      <c r="D150" t="s">
+        <v>485</v>
+      </c>
+      <c r="E150" s="23" t="s">
         <v>1000</v>
       </c>
-      <c r="I149" s="29"/>
-      <c r="J149" s="30"/>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B150" s="28" t="s">
+      <c r="F150" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="G150" t="s">
         <v>1001</v>
       </c>
-      <c r="C150" s="28" t="s">
+      <c r="H150" s="23" t="s">
         <v>1002</v>
       </c>
-      <c r="D150" t="s">
-        <v>488</v>
-      </c>
-      <c r="E150" s="28" t="s">
+      <c r="I150" s="76"/>
+      <c r="J150" s="24"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B151" s="23" t="s">
         <v>1003</v>
       </c>
-      <c r="F150" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="G150" t="s">
+      <c r="C151" s="23" t="s">
         <v>1004</v>
       </c>
-      <c r="H150" s="28" t="s">
+      <c r="D151" t="s">
+        <v>485</v>
+      </c>
+      <c r="E151" s="23" t="s">
         <v>1005</v>
       </c>
-      <c r="I150" s="29"/>
-      <c r="J150" s="30"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B151" s="28" t="s">
+      <c r="F151" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="G151" t="s">
         <v>1006</v>
       </c>
-      <c r="C151" s="28" t="s">
+      <c r="H151" s="23" t="s">
         <v>1007</v>
       </c>
-      <c r="D151" t="s">
-        <v>488</v>
-      </c>
-      <c r="E151" s="28" t="s">
+      <c r="I151" s="76"/>
+      <c r="J151" s="24"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B152" s="23" t="s">
         <v>1008</v>
       </c>
-      <c r="F151" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G151" t="s">
+      <c r="C152" s="23" t="s">
         <v>1009</v>
       </c>
-      <c r="H151" s="28" t="s">
+      <c r="D152" t="s">
+        <v>485</v>
+      </c>
+      <c r="E152" s="23" t="s">
         <v>1010</v>
       </c>
-      <c r="I151" s="29"/>
-      <c r="J151" s="30"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B152" s="28" t="s">
+      <c r="F152" s="23" t="s">
+        <v>952</v>
+      </c>
+      <c r="G152" t="s">
         <v>1011</v>
       </c>
-      <c r="C152" s="28" t="s">
+      <c r="H152" s="23" t="s">
         <v>1012</v>
       </c>
-      <c r="D152" t="s">
-        <v>488</v>
-      </c>
-      <c r="E152" s="28" t="s">
+      <c r="I152" s="76"/>
+      <c r="J152" s="24"/>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B153" s="23" t="s">
         <v>1013</v>
       </c>
-      <c r="F152" s="28" t="s">
-        <v>955</v>
-      </c>
-      <c r="G152" t="s">
+      <c r="C153" s="23" t="s">
         <v>1014</v>
       </c>
-      <c r="H152" s="28" t="s">
+      <c r="D153" t="s">
+        <v>485</v>
+      </c>
+      <c r="E153" s="23" t="s">
         <v>1015</v>
       </c>
-      <c r="I152" s="29"/>
-      <c r="J152" s="30"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B153" s="28" t="s">
+      <c r="F153" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="G153" t="s">
         <v>1016</v>
       </c>
-      <c r="C153" s="28" t="s">
+      <c r="H153" s="23" t="s">
         <v>1017</v>
       </c>
-      <c r="D153" t="s">
-        <v>488</v>
-      </c>
-      <c r="E153" s="28" t="s">
+      <c r="I153" s="76"/>
+      <c r="J153" s="24"/>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B154" s="23" t="s">
         <v>1018</v>
       </c>
-      <c r="F153" s="28" t="s">
-        <v>961</v>
-      </c>
-      <c r="G153" t="s">
+      <c r="C154" s="23" t="s">
         <v>1019</v>
       </c>
-      <c r="H153" s="28" t="s">
+      <c r="D154" t="s">
+        <v>485</v>
+      </c>
+      <c r="E154" s="23" t="s">
         <v>1020</v>
       </c>
-      <c r="I153" s="29"/>
-      <c r="J153" s="30"/>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B154" s="28" t="s">
+      <c r="F154" s="23" t="s">
         <v>1021</v>
       </c>
-      <c r="C154" s="28" t="s">
+      <c r="G154" t="s">
         <v>1022</v>
       </c>
-      <c r="D154" t="s">
-        <v>488</v>
-      </c>
-      <c r="E154" s="28" t="s">
+      <c r="H154" s="23" t="s">
         <v>1023</v>
       </c>
-      <c r="F154" s="28" t="s">
+      <c r="I154" s="76"/>
+      <c r="J154" s="24"/>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B155" s="23" t="s">
         <v>1024</v>
       </c>
-      <c r="G154" t="s">
+      <c r="C155" s="23" t="s">
         <v>1025</v>
       </c>
-      <c r="H154" s="28" t="s">
+      <c r="D155" t="s">
+        <v>485</v>
+      </c>
+      <c r="E155" s="23" t="s">
         <v>1026</v>
       </c>
-      <c r="I154" s="29"/>
-      <c r="J154" s="30"/>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B155" s="28" t="s">
+      <c r="F155" s="23" t="s">
+        <v>964</v>
+      </c>
+      <c r="G155" t="s">
         <v>1027</v>
       </c>
-      <c r="C155" s="28" t="s">
+      <c r="H155" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="D155" t="s">
-        <v>488</v>
-      </c>
-      <c r="E155" s="28" t="s">
+      <c r="I155" s="76"/>
+      <c r="J155" s="24"/>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B156" s="23" t="s">
         <v>1029</v>
       </c>
-      <c r="F155" s="28" t="s">
-        <v>967</v>
-      </c>
-      <c r="G155" t="s">
+      <c r="C156" s="23" t="s">
         <v>1030</v>
       </c>
-      <c r="H155" s="28" t="s">
+      <c r="D156" t="s">
+        <v>485</v>
+      </c>
+      <c r="E156" s="23" t="s">
         <v>1031</v>
       </c>
-      <c r="I155" s="29"/>
-      <c r="J155" s="30"/>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B156" s="28" t="s">
+      <c r="F156" s="23" t="s">
         <v>1032</v>
       </c>
-      <c r="C156" s="28" t="s">
+      <c r="G156" t="s">
         <v>1033</v>
       </c>
-      <c r="D156" t="s">
-        <v>488</v>
-      </c>
-      <c r="E156" s="28" t="s">
+      <c r="H156" s="23" t="s">
         <v>1034</v>
       </c>
-      <c r="F156" s="28" t="s">
+      <c r="I156" s="76"/>
+      <c r="J156" s="24"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B157" s="23" t="s">
         <v>1035</v>
       </c>
-      <c r="G156" t="s">
+      <c r="C157" s="23" t="s">
         <v>1036</v>
       </c>
-      <c r="H156" s="28" t="s">
+      <c r="D157" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E157" s="23" t="s">
         <v>1037</v>
       </c>
-      <c r="I156" s="29"/>
-      <c r="J156" s="30"/>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B157" s="28" t="s">
+      <c r="F157" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G157" t="s">
         <v>1038</v>
       </c>
-      <c r="C157" s="28" t="s">
+      <c r="H157" s="23" t="s">
         <v>1039</v>
       </c>
-      <c r="D157" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E157" s="28" t="s">
+      <c r="I157" s="76"/>
+      <c r="J157" s="24"/>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B158" s="23" t="s">
         <v>1040</v>
       </c>
-      <c r="F157" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="G157" t="s">
+      <c r="C158" s="23" t="s">
         <v>1041</v>
       </c>
-      <c r="H157" s="28" t="s">
+      <c r="D158" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E158" s="23" t="s">
         <v>1042</v>
       </c>
-      <c r="I157" s="29"/>
-      <c r="J157" s="30"/>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B158" s="28" t="s">
+      <c r="F158" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="G158" t="s">
         <v>1043</v>
       </c>
-      <c r="C158" s="28" t="s">
+      <c r="H158" s="23" t="s">
         <v>1044</v>
       </c>
-      <c r="D158" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E158" s="28" t="s">
+      <c r="I158" s="76"/>
+      <c r="J158" s="24"/>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B159" s="23" t="s">
         <v>1045</v>
       </c>
-      <c r="F158" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="G158" t="s">
+      <c r="C159" s="23" t="s">
         <v>1046</v>
       </c>
-      <c r="H158" s="28" t="s">
+      <c r="D159" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E159" s="23" t="s">
         <v>1047</v>
       </c>
-      <c r="I158" s="29"/>
-      <c r="J158" s="30"/>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B159" s="28" t="s">
+      <c r="F159" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G159" t="s">
         <v>1048</v>
       </c>
-      <c r="C159" s="28" t="s">
+      <c r="H159" s="23" t="s">
         <v>1049</v>
       </c>
-      <c r="D159" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E159" s="28" t="s">
+      <c r="I159" s="76"/>
+      <c r="J159" s="24"/>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B160" s="23" t="s">
         <v>1050</v>
       </c>
-      <c r="F159" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="G159" t="s">
+      <c r="C160" s="23" t="s">
         <v>1051</v>
       </c>
-      <c r="H159" s="28" t="s">
+      <c r="D160" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E160" s="23" t="s">
         <v>1052</v>
       </c>
-      <c r="I159" s="29"/>
-      <c r="J159" s="30"/>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B160" s="28" t="s">
+      <c r="F160" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="G160" t="s">
         <v>1053</v>
       </c>
-      <c r="C160" s="28" t="s">
+      <c r="H160" s="23" t="s">
         <v>1054</v>
       </c>
-      <c r="D160" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E160" s="28" t="s">
+      <c r="I160" s="76"/>
+      <c r="J160" s="24"/>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B161" s="23" t="s">
         <v>1055</v>
       </c>
-      <c r="F160" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="G160" t="s">
+      <c r="C161" s="23" t="s">
         <v>1056</v>
       </c>
-      <c r="H160" s="28" t="s">
+      <c r="D161" t="s">
+        <v>283</v>
+      </c>
+      <c r="E161" s="23" t="s">
         <v>1057</v>
       </c>
-      <c r="I160" s="29"/>
-      <c r="J160" s="30"/>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B161" s="28" t="s">
+      <c r="F161" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G161" t="s">
         <v>1058</v>
       </c>
-      <c r="C161" s="28" t="s">
+      <c r="H161" s="23" t="s">
         <v>1059</v>
       </c>
-      <c r="D161" t="s">
-        <v>286</v>
-      </c>
-      <c r="E161" s="28" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F161" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="G161" t="s">
-        <v>1061</v>
-      </c>
-      <c r="H161" s="28" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I161" s="29"/>
-      <c r="J161" s="30"/>
+      <c r="I161" s="76"/>
+      <c r="J161" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JEFES & RS.xlsx
+++ b/JEFES & RS.xlsx
@@ -3602,7 +3602,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3713,6 +3713,55 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3731,85 +3780,23 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3817,49 +3804,6 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4092,19 +4036,62 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="medium">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
           <color indexed="64"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -4274,20 +4261,24 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D826755A-EDB6-45E3-A2EC-EF30B26ABD3C}" name="Tabla1" displayName="Tabla1" ref="A4:F70" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D826755A-EDB6-45E3-A2EC-EF30B26ABD3C}" name="Tabla1" displayName="Tabla1" ref="A4:F70" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
   <autoFilter ref="A4:F70" xr:uid="{D826755A-EDB6-45E3-A2EC-EF30B26ABD3C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:F70">
     <sortCondition ref="D5:D70"/>
     <sortCondition ref="E5:E70"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E69625EC-FD2C-454E-BE75-C8324D8D5DCF}" name="Inicia" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{4C883071-1657-4628-86E4-2281766A4AAA}" name="Finaliza" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{B5DB4BE5-BFA2-47DB-9400-F880D3C76506}" name="Años" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{46216E29-8214-4E8C-9A79-4CC988152F4F}" name="Colaborador" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{7BC910EA-1116-4E5C-AFF9-755BC94DF7DB}" name="Area" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{8A17EDCD-5BD3-4762-8D37-1DA72E8C8D43}" name="Notas" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E69625EC-FD2C-454E-BE75-C8324D8D5DCF}" name="Inicia" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{4C883071-1657-4628-86E4-2281766A4AAA}" name="Finaliza" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{B5DB4BE5-BFA2-47DB-9400-F880D3C76506}" name="Años" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{46216E29-8214-4E8C-9A79-4CC988152F4F}" name="Colaborador" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{7BC910EA-1116-4E5C-AFF9-755BC94DF7DB}" name="Area" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{8A17EDCD-5BD3-4762-8D37-1DA72E8C8D43}" name="Notas" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4574,34 +4565,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46">
+      <c r="A3" s="62">
         <v>43550</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
@@ -5309,952 +5300,951 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.140625" style="72" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="53" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="53" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" style="53" customWidth="1"/>
-    <col min="6" max="6" width="64.140625" style="73" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="53"/>
+    <col min="1" max="2" width="12.140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="64.140625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="56">
+      <c r="A3" s="68">
         <v>43186</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="44" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="49" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="49" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="66"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="49" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63" t="s">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="49" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63" t="s">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" s="49" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63" t="s">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="49" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="I12" s="66"/>
-      <c r="K12" s="66"/>
+      <c r="I12" s="10"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="I13" s="66"/>
-      <c r="K13" s="66"/>
+      <c r="F13" s="49"/>
+      <c r="I13" s="10"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="49" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63" t="s">
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="49" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63" t="s">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47" t="s">
         <v>1095</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="48" t="s">
         <v>1096</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="49" t="s">
         <v>1097</v>
       </c>
-      <c r="I16" s="66"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="74" t="s">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="55" t="s">
         <v>1082</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="65"/>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="61">
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="45">
         <v>41244</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63" t="s">
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47" t="s">
         <v>1111</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="48" t="s">
         <v>1109</v>
       </c>
-      <c r="F18" s="65" t="s">
+      <c r="F18" s="49" t="s">
         <v>1110</v>
       </c>
-      <c r="I18" s="66"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63" t="s">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="F19" s="49" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63" t="s">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E20" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="65" t="s">
+      <c r="F20" s="49" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63" t="s">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="E21" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="F21" s="49" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="61"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="E22" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="65"/>
+      <c r="F22" s="49"/>
     </row>
     <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="63" t="s">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47" t="s">
         <v>1098</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="65" t="s">
+      <c r="F23" s="49" t="s">
         <v>1112</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="61"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="63" t="s">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="64" t="s">
+      <c r="E24" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="49" t="s">
         <v>1113</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="61"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63" t="s">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F25" s="49" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="61"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63" t="s">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="64" t="s">
+      <c r="E26" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="49" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="63" t="s">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="E27" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="65" t="s">
+      <c r="F27" s="49" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="61"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="64" t="s">
+      <c r="E28" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="65" t="s">
+      <c r="F28" s="49" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="61"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="74" t="s">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="55" t="s">
         <v>1081</v>
       </c>
-      <c r="E29" s="64"/>
-      <c r="F29" s="65"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
     </row>
     <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="61"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63" t="s">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="E30" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="65" t="s">
+      <c r="F30" s="49" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="61"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="63" t="s">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="F31" s="65" t="s">
+      <c r="F31" s="49" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="61"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="63" t="s">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="E32" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="65" t="s">
+      <c r="F32" s="49" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="63" t="s">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="64" t="s">
+      <c r="E33" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="65" t="s">
+      <c r="F33" s="49" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="63" t="s">
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="64" t="s">
+      <c r="E34" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="65" t="s">
+      <c r="F34" s="49" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="61"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63" t="s">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="64" t="s">
+      <c r="E35" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="65" t="s">
+      <c r="F35" s="49" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="61"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="63" t="s">
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="64" t="s">
+      <c r="E36" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="65" t="s">
+      <c r="F36" s="49" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="61"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="63" t="s">
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47" t="s">
         <v>1092</v>
       </c>
-      <c r="E37" s="64" t="s">
+      <c r="E37" s="48" t="s">
         <v>1093</v>
       </c>
-      <c r="F37" s="65" t="s">
+      <c r="F37" s="49" t="s">
         <v>1094</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="61"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="63" t="s">
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="64" t="s">
+      <c r="E38" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="F38" s="65" t="s">
+      <c r="F38" s="49" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A39" s="61"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="63" t="s">
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="E39" s="64" t="s">
+      <c r="E39" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="65" t="s">
+      <c r="F39" s="49" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="61"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="63" t="s">
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="F40" s="65" t="s">
+      <c r="F40" s="49" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="61"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="63" t="s">
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="E41" s="64" t="s">
+      <c r="E41" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="65" t="s">
+      <c r="F41" s="49" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="63" t="s">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="64" t="s">
+      <c r="E42" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="65" t="s">
+      <c r="F42" s="49" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="61"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="63" t="s">
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E43" s="64" t="s">
+      <c r="E43" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="65" t="s">
+      <c r="F43" s="49" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="61"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="63" t="s">
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="64" t="s">
+      <c r="E44" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="F44" s="65"/>
+      <c r="F44" s="49"/>
     </row>
     <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="61"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="63" t="s">
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="64" t="s">
+      <c r="E45" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F45" s="65" t="s">
+      <c r="F45" s="49" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A46" s="61"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="63" t="s">
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="64" t="s">
+      <c r="E46" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="65" t="s">
+      <c r="F46" s="49" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="61"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="63" t="s">
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="E47" s="64" t="s">
+      <c r="E47" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="F47" s="65" t="s">
+      <c r="F47" s="49" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A48" s="61"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="63" t="s">
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="E48" s="64" t="s">
+      <c r="E48" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="65" t="s">
+      <c r="F48" s="49" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A49" s="61"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="63" t="s">
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="E49" s="64" t="s">
+      <c r="E49" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="F49" s="65" t="s">
+      <c r="F49" s="49" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="61"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="63" t="s">
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="64" t="s">
+      <c r="E50" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F50" s="65" t="s">
+      <c r="F50" s="49" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="61"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="63" t="s">
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="E51" s="64" t="s">
+      <c r="E51" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="F51" s="65"/>
+      <c r="F51" s="49"/>
     </row>
     <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="61"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="63" t="s">
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="64" t="s">
+      <c r="E52" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="F52" s="65" t="s">
+      <c r="F52" s="49" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A53" s="61"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="63" t="s">
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="E53" s="64" t="s">
+      <c r="E53" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="F53" s="65" t="s">
+      <c r="F53" s="49" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A54" s="61"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="63" t="s">
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="47" t="s">
         <v>1089</v>
       </c>
-      <c r="E54" s="64" t="s">
+      <c r="E54" s="48" t="s">
         <v>1090</v>
       </c>
-      <c r="F54" s="65" t="s">
+      <c r="F54" s="49" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="61"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="63" t="s">
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="E55" s="64" t="s">
+      <c r="E55" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="F55" s="65" t="s">
+      <c r="F55" s="49" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="61"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="63" t="s">
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="E56" s="64" t="s">
+      <c r="E56" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="65" t="s">
+      <c r="F56" s="49" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="61"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="63" t="s">
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="E57" s="64" t="s">
+      <c r="E57" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="F57" s="65" t="s">
+      <c r="F57" s="49" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="61"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="63" t="s">
+      <c r="A58" s="45"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="E58" s="64" t="s">
+      <c r="E58" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="F58" s="65" t="s">
+      <c r="F58" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="61"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="63" t="s">
+      <c r="A59" s="45"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="E59" s="64" t="s">
+      <c r="E59" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="F59" s="65"/>
+      <c r="F59" s="49"/>
     </row>
     <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="61"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="75" t="s">
+      <c r="A60" s="45"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="E60" s="64" t="s">
+      <c r="E60" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="F60" s="65" t="s">
+      <c r="F60" s="49" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A61" s="61"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="75" t="s">
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="E61" s="64" t="s">
+      <c r="E61" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="65" t="s">
+      <c r="F61" s="49" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="61"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="63" t="s">
+      <c r="A62" s="45"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="E62" s="64" t="s">
+      <c r="E62" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="F62" s="65" t="s">
+      <c r="F62" s="49" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="61"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="63" t="s">
+      <c r="A63" s="45"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E63" s="64" t="s">
+      <c r="E63" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="F63" s="65" t="s">
+      <c r="F63" s="49" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="61"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="63" t="s">
+      <c r="A64" s="45"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="E64" s="64" t="s">
+      <c r="E64" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="F64" s="65"/>
+      <c r="F64" s="49"/>
     </row>
     <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="61"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="62"/>
-      <c r="D65" s="63" t="s">
+      <c r="A65" s="45"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="E65" s="64" t="s">
+      <c r="E65" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="F65" s="65" t="s">
+      <c r="F65" s="49" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="61"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="63" t="s">
+      <c r="A66" s="45"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="E66" s="64" t="s">
+      <c r="E66" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="F66" s="65" t="s">
+      <c r="F66" s="49" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="61"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="65"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="49"/>
     </row>
     <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="61"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="65"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="49"/>
     </row>
     <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="61"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="65"/>
+      <c r="A69" s="45"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="49"/>
     </row>
     <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="67"/>
-      <c r="B70" s="67"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="71"/>
+      <c r="A70" s="50"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6293,34 +6283,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="2" spans="2:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="67" t="s">
         <v>1064</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="50">
+      <c r="B3" s="69">
         <v>44683</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
@@ -6530,8 +6520,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="B2:J161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6572,7 +6562,7 @@
       <c r="H4" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="57" t="s">
         <v>197</v>
       </c>
       <c r="J4" s="24" t="s">
@@ -6601,7 +6591,7 @@
       <c r="H5" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="I5" s="76">
+      <c r="I5" s="57">
         <v>750907900001</v>
       </c>
       <c r="J5" s="24" t="s">
@@ -6630,7 +6620,7 @@
       <c r="H6" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="I6" s="76">
+      <c r="I6" s="57">
         <v>750907900002</v>
       </c>
       <c r="J6" s="24" t="s">
@@ -6659,7 +6649,7 @@
       <c r="H7" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="I7" s="76">
+      <c r="I7" s="57">
         <v>750907900003</v>
       </c>
       <c r="J7" s="24" t="s">
@@ -6688,7 +6678,7 @@
       <c r="H8" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="I8" s="76">
+      <c r="I8" s="57">
         <v>750907900004</v>
       </c>
       <c r="J8" s="24" t="s">
@@ -6717,7 +6707,7 @@
       <c r="H9" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="57">
         <v>750907900005</v>
       </c>
       <c r="J9" s="24" t="s">
@@ -6746,7 +6736,7 @@
       <c r="H10" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="I10" s="76">
+      <c r="I10" s="57">
         <v>750907900006</v>
       </c>
       <c r="J10" s="24" t="s">
@@ -6775,7 +6765,7 @@
       <c r="H11" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="57">
         <v>750907900007</v>
       </c>
       <c r="J11" s="24" t="s">
@@ -6804,7 +6794,7 @@
       <c r="H12" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="I12" s="76">
+      <c r="I12" s="57">
         <v>750907900008</v>
       </c>
       <c r="J12" s="23" t="s">
@@ -6833,7 +6823,7 @@
       <c r="H13" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="57">
         <v>750907900009</v>
       </c>
       <c r="J13" s="24" t="s">
@@ -6862,7 +6852,7 @@
       <c r="H14" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="I14" s="76">
+      <c r="I14" s="57">
         <v>750907900010</v>
       </c>
       <c r="J14" s="24" t="s">
@@ -6891,7 +6881,7 @@
       <c r="H15" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="I15" s="76">
+      <c r="I15" s="57">
         <v>750907900011</v>
       </c>
       <c r="J15" s="24" t="s">
@@ -6920,7 +6910,7 @@
       <c r="H16" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="I16" s="76">
+      <c r="I16" s="57">
         <v>750907900012</v>
       </c>
       <c r="J16" s="24" t="s">
@@ -6949,7 +6939,7 @@
       <c r="H17" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="I17" s="76">
+      <c r="I17" s="57">
         <v>750907900013</v>
       </c>
       <c r="J17" s="24" t="s">
@@ -6978,7 +6968,7 @@
       <c r="H18" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="I18" s="76">
+      <c r="I18" s="57">
         <v>750907900014</v>
       </c>
       <c r="J18" s="24" t="s">
@@ -7007,7 +6997,7 @@
       <c r="H19" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="I19" s="76">
+      <c r="I19" s="57">
         <v>750907900015</v>
       </c>
       <c r="J19" s="24" t="s">
@@ -7036,7 +7026,7 @@
       <c r="H20" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="I20" s="76">
+      <c r="I20" s="57">
         <v>750907900016</v>
       </c>
       <c r="J20" s="24" t="s">
@@ -7065,7 +7055,7 @@
       <c r="H21" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="I21" s="76">
+      <c r="I21" s="57">
         <v>750907900017</v>
       </c>
       <c r="J21" s="24" t="s">
@@ -7094,7 +7084,7 @@
       <c r="H22" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="I22" s="76">
+      <c r="I22" s="57">
         <v>750907900018</v>
       </c>
       <c r="J22" s="24" t="s">
@@ -7123,7 +7113,7 @@
       <c r="H23" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="I23" s="76">
+      <c r="I23" s="57">
         <v>750907900019</v>
       </c>
       <c r="J23" s="24" t="s">
@@ -7152,7 +7142,7 @@
       <c r="H24" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="I24" s="76">
+      <c r="I24" s="57">
         <v>750907900020</v>
       </c>
       <c r="J24" s="24" t="s">
@@ -7181,7 +7171,7 @@
       <c r="H25" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="I25" s="76">
+      <c r="I25" s="57">
         <v>750907900021</v>
       </c>
       <c r="J25" s="24" t="s">
@@ -7210,7 +7200,7 @@
       <c r="H26" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="I26" s="76">
+      <c r="I26" s="57">
         <v>750907900022</v>
       </c>
       <c r="J26" s="24" t="s">
@@ -7239,7 +7229,7 @@
       <c r="H27" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="I27" s="76">
+      <c r="I27" s="57">
         <v>750907900023</v>
       </c>
       <c r="J27" s="24" t="s">
@@ -7268,7 +7258,7 @@
       <c r="H28" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="I28" s="76">
+      <c r="I28" s="57">
         <v>750907900024</v>
       </c>
       <c r="J28" s="24" t="s">
@@ -7297,7 +7287,7 @@
       <c r="H29" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="I29" s="76">
+      <c r="I29" s="57">
         <v>750907900025</v>
       </c>
       <c r="J29" s="24" t="s">
@@ -7326,7 +7316,7 @@
       <c r="H30" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="I30" s="76">
+      <c r="I30" s="57">
         <v>750907900026</v>
       </c>
       <c r="J30" s="24" t="s">
@@ -7355,7 +7345,7 @@
       <c r="H31" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="I31" s="76">
+      <c r="I31" s="57">
         <v>750907900027</v>
       </c>
       <c r="J31" s="24" t="s">
@@ -7384,7 +7374,7 @@
       <c r="H32" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="I32" s="76">
+      <c r="I32" s="57">
         <v>750907900028</v>
       </c>
       <c r="J32" s="24" t="s">
@@ -7413,7 +7403,7 @@
       <c r="H33" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="I33" s="76">
+      <c r="I33" s="57">
         <v>750907900029</v>
       </c>
       <c r="J33" s="24" t="s">
@@ -7442,7 +7432,7 @@
       <c r="H34" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="I34" s="76">
+      <c r="I34" s="57">
         <v>750907900030</v>
       </c>
       <c r="J34" s="24" t="s">
@@ -7471,7 +7461,7 @@
       <c r="H35" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="I35" s="76">
+      <c r="I35" s="57">
         <v>750907900031</v>
       </c>
       <c r="J35" s="24" t="s">
@@ -7500,7 +7490,7 @@
       <c r="H36" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="I36" s="76">
+      <c r="I36" s="57">
         <v>750907900032</v>
       </c>
       <c r="J36" s="24" t="s">
@@ -7529,7 +7519,7 @@
       <c r="H37" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="I37" s="76">
+      <c r="I37" s="57">
         <v>750907900033</v>
       </c>
       <c r="J37" s="24" t="s">
@@ -7558,7 +7548,7 @@
       <c r="H38" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="I38" s="76">
+      <c r="I38" s="57">
         <v>750907900034</v>
       </c>
       <c r="J38" s="24"/>
@@ -7585,7 +7575,7 @@
       <c r="H39" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="I39" s="76">
+      <c r="I39" s="57">
         <v>750907900035</v>
       </c>
       <c r="J39" s="24"/>
@@ -7612,7 +7602,7 @@
       <c r="H40" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="I40" s="76">
+      <c r="I40" s="57">
         <v>750907900036</v>
       </c>
       <c r="J40" s="24"/>
@@ -7639,7 +7629,7 @@
       <c r="H41" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="I41" s="76">
+      <c r="I41" s="57">
         <v>750907900037</v>
       </c>
       <c r="J41" s="24"/>
@@ -7666,7 +7656,7 @@
       <c r="H42" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="I42" s="76">
+      <c r="I42" s="57">
         <v>750907900038</v>
       </c>
       <c r="J42" s="24"/>
@@ -7693,7 +7683,7 @@
       <c r="H43" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="I43" s="76">
+      <c r="I43" s="57">
         <v>750907900039</v>
       </c>
       <c r="J43" s="24"/>
@@ -7720,7 +7710,7 @@
       <c r="H44" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="I44" s="76">
+      <c r="I44" s="57">
         <v>750907900040</v>
       </c>
       <c r="J44" s="24"/>
@@ -7747,7 +7737,7 @@
       <c r="H45" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="I45" s="76">
+      <c r="I45" s="57">
         <v>750907900041</v>
       </c>
       <c r="J45" s="24"/>
@@ -7774,7 +7764,7 @@
       <c r="H46" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="I46" s="76">
+      <c r="I46" s="57">
         <v>750907900042</v>
       </c>
       <c r="J46" s="24"/>
@@ -7801,7 +7791,7 @@
       <c r="H47" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="I47" s="76">
+      <c r="I47" s="57">
         <v>750907900043</v>
       </c>
       <c r="J47" s="24"/>
@@ -7828,7 +7818,7 @@
       <c r="H48" s="23" t="s">
         <v>472</v>
       </c>
-      <c r="I48" s="76">
+      <c r="I48" s="57">
         <v>750907900044</v>
       </c>
       <c r="J48" s="24"/>
@@ -7855,7 +7845,7 @@
       <c r="H49" s="23" t="s">
         <v>477</v>
       </c>
-      <c r="I49" s="76">
+      <c r="I49" s="57">
         <v>750907900045</v>
       </c>
       <c r="J49" s="24"/>
@@ -7882,7 +7872,7 @@
       <c r="H50" t="s">
         <v>483</v>
       </c>
-      <c r="I50" s="76">
+      <c r="I50" s="57">
         <v>750907900046</v>
       </c>
       <c r="J50" s="24"/>
@@ -7909,7 +7899,7 @@
       <c r="H51" s="23" t="s">
         <v>489</v>
       </c>
-      <c r="I51" s="76">
+      <c r="I51" s="57">
         <v>750907900047</v>
       </c>
       <c r="J51" s="24"/>
@@ -7936,7 +7926,7 @@
       <c r="H52" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="I52" s="76">
+      <c r="I52" s="57">
         <v>750907900048</v>
       </c>
       <c r="J52" s="24"/>
@@ -7963,7 +7953,7 @@
       <c r="H53" s="23" t="s">
         <v>499</v>
       </c>
-      <c r="I53" s="76">
+      <c r="I53" s="57">
         <v>750907900049</v>
       </c>
       <c r="J53" s="24"/>
@@ -7990,7 +7980,7 @@
       <c r="H54" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="I54" s="76">
+      <c r="I54" s="57">
         <v>750907900050</v>
       </c>
       <c r="J54" s="24"/>
@@ -8017,7 +8007,7 @@
       <c r="H55" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="I55" s="76">
+      <c r="I55" s="57">
         <v>750907900051</v>
       </c>
       <c r="J55" s="24"/>
@@ -8044,7 +8034,7 @@
       <c r="H56" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="I56" s="76">
+      <c r="I56" s="57">
         <v>750907900052</v>
       </c>
       <c r="J56" s="24"/>
@@ -8071,7 +8061,7 @@
       <c r="H57" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="I57" s="76">
+      <c r="I57" s="57">
         <v>750907900053</v>
       </c>
       <c r="J57" s="24"/>
@@ -8098,7 +8088,7 @@
       <c r="H58" s="23" t="s">
         <v>522</v>
       </c>
-      <c r="I58" s="76">
+      <c r="I58" s="57">
         <v>750907900054</v>
       </c>
       <c r="J58" s="24"/>
@@ -8125,7 +8115,7 @@
       <c r="H59" s="23" t="s">
         <v>527</v>
       </c>
-      <c r="I59" s="76">
+      <c r="I59" s="57">
         <v>750907900055</v>
       </c>
       <c r="J59" s="24" t="s">
@@ -8154,7 +8144,7 @@
       <c r="H60" s="23" t="s">
         <v>533</v>
       </c>
-      <c r="I60" s="76">
+      <c r="I60" s="57">
         <v>750907900056</v>
       </c>
       <c r="J60" s="24" t="s">
@@ -8183,7 +8173,7 @@
       <c r="H61" s="23" t="s">
         <v>540</v>
       </c>
-      <c r="I61" s="76">
+      <c r="I61" s="57">
         <v>750907900057</v>
       </c>
       <c r="J61" s="24" t="s">
@@ -8212,7 +8202,7 @@
       <c r="H62" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="I62" s="76">
+      <c r="I62" s="57">
         <v>750907900058</v>
       </c>
       <c r="J62" s="24" t="s">
@@ -8241,7 +8231,7 @@
       <c r="H63" s="23" t="s">
         <v>552</v>
       </c>
-      <c r="I63" s="76">
+      <c r="I63" s="57">
         <v>750907900059</v>
       </c>
       <c r="J63" s="24" t="s">
@@ -8270,7 +8260,7 @@
       <c r="H64" s="23" t="s">
         <v>552</v>
       </c>
-      <c r="I64" s="76">
+      <c r="I64" s="57">
         <v>750907900060</v>
       </c>
       <c r="J64" s="24" t="s">
@@ -8299,7 +8289,7 @@
       <c r="H65" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="I65" s="76">
+      <c r="I65" s="57">
         <v>750907900061</v>
       </c>
       <c r="J65" s="24"/>
@@ -8326,7 +8316,7 @@
       <c r="H66" s="23" t="s">
         <v>567</v>
       </c>
-      <c r="I66" s="76">
+      <c r="I66" s="57">
         <v>750907900062</v>
       </c>
       <c r="J66" s="24"/>
@@ -8353,7 +8343,7 @@
       <c r="H67" s="23" t="s">
         <v>572</v>
       </c>
-      <c r="I67" s="76">
+      <c r="I67" s="57">
         <v>750907900063</v>
       </c>
       <c r="J67" s="24"/>
@@ -8380,7 +8370,7 @@
       <c r="H68" s="23" t="s">
         <v>577</v>
       </c>
-      <c r="I68" s="76">
+      <c r="I68" s="57">
         <v>750907900064</v>
       </c>
       <c r="J68" s="24" t="s">
@@ -8409,7 +8399,7 @@
       <c r="H69" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="I69" s="76">
+      <c r="I69" s="57">
         <v>750907900065</v>
       </c>
       <c r="J69" s="24" t="s">
@@ -8438,7 +8428,7 @@
       <c r="H70" s="23" t="s">
         <v>589</v>
       </c>
-      <c r="I70" s="76">
+      <c r="I70" s="57">
         <v>750907900066</v>
       </c>
       <c r="J70" s="24" t="s">
@@ -8467,7 +8457,7 @@
       <c r="H71" s="23" t="s">
         <v>595</v>
       </c>
-      <c r="I71" s="76">
+      <c r="I71" s="57">
         <v>750907900067</v>
       </c>
       <c r="J71" s="24" t="s">
@@ -8496,7 +8486,7 @@
       <c r="H72" s="23" t="s">
         <v>601</v>
       </c>
-      <c r="I72" s="76">
+      <c r="I72" s="57">
         <v>750907900068</v>
       </c>
       <c r="J72" s="24" t="s">
@@ -8525,7 +8515,7 @@
       <c r="H73" s="23" t="s">
         <v>607</v>
       </c>
-      <c r="I73" s="76">
+      <c r="I73" s="57">
         <v>750907900069</v>
       </c>
       <c r="J73" s="24" t="s">
@@ -8554,7 +8544,7 @@
       <c r="H74" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="I74" s="76">
+      <c r="I74" s="57">
         <v>750907900070</v>
       </c>
       <c r="J74" s="24" t="s">
@@ -8583,7 +8573,7 @@
       <c r="H75" s="23" t="s">
         <v>620</v>
       </c>
-      <c r="I75" s="76">
+      <c r="I75" s="57">
         <v>750907900071</v>
       </c>
       <c r="J75" s="24" t="s">
@@ -8612,7 +8602,7 @@
       <c r="H76" s="23" t="s">
         <v>626</v>
       </c>
-      <c r="I76" s="76">
+      <c r="I76" s="57">
         <v>750907900072</v>
       </c>
       <c r="J76" s="24" t="s">
@@ -8641,7 +8631,7 @@
       <c r="H77" s="23" t="s">
         <v>631</v>
       </c>
-      <c r="I77" s="76">
+      <c r="I77" s="57">
         <v>750907900073</v>
       </c>
       <c r="J77" s="24" t="s">
@@ -8670,7 +8660,7 @@
       <c r="H78" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="I78" s="76">
+      <c r="I78" s="57">
         <v>750907900074</v>
       </c>
       <c r="J78" s="24" t="s">
@@ -8699,7 +8689,7 @@
       <c r="H79" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="I79" s="76">
+      <c r="I79" s="57">
         <v>750907900075</v>
       </c>
       <c r="J79" s="24" t="s">
@@ -8728,7 +8718,7 @@
       <c r="H80" s="23" t="s">
         <v>650</v>
       </c>
-      <c r="I80" s="76">
+      <c r="I80" s="57">
         <v>750907900076</v>
       </c>
       <c r="J80" s="24"/>
@@ -8755,7 +8745,7 @@
       <c r="H81" s="23" t="s">
         <v>655</v>
       </c>
-      <c r="I81" s="76">
+      <c r="I81" s="57">
         <v>750907900077</v>
       </c>
       <c r="J81" s="24" t="s">
@@ -8784,7 +8774,7 @@
       <c r="H82" s="23" t="s">
         <v>661</v>
       </c>
-      <c r="I82" s="76">
+      <c r="I82" s="57">
         <v>750907900078</v>
       </c>
       <c r="J82" s="24"/>
@@ -8811,7 +8801,7 @@
       <c r="H83" s="23" t="s">
         <v>665</v>
       </c>
-      <c r="I83" s="76">
+      <c r="I83" s="57">
         <v>750221203789</v>
       </c>
       <c r="J83" s="24" t="s">
@@ -8840,7 +8830,7 @@
       <c r="H84" s="23" t="s">
         <v>671</v>
       </c>
-      <c r="I84" s="76"/>
+      <c r="I84" s="57"/>
       <c r="J84" s="24"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.2">
@@ -8865,7 +8855,7 @@
       <c r="H85" s="23" t="s">
         <v>676</v>
       </c>
-      <c r="I85" s="76"/>
+      <c r="I85" s="57"/>
       <c r="J85" s="24"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
@@ -8890,7 +8880,7 @@
       <c r="H86" s="23" t="s">
         <v>681</v>
       </c>
-      <c r="I86" s="76"/>
+      <c r="I86" s="57"/>
       <c r="J86" s="24"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.2">
@@ -8915,7 +8905,7 @@
       <c r="H87" s="23" t="s">
         <v>686</v>
       </c>
-      <c r="I87" s="76"/>
+      <c r="I87" s="57"/>
       <c r="J87" s="24"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.2">
@@ -8940,7 +8930,7 @@
       <c r="H88" s="23" t="s">
         <v>691</v>
       </c>
-      <c r="I88" s="76"/>
+      <c r="I88" s="57"/>
       <c r="J88" s="24"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
@@ -8965,7 +8955,7 @@
       <c r="H89" s="23" t="s">
         <v>696</v>
       </c>
-      <c r="I89" s="76"/>
+      <c r="I89" s="57"/>
       <c r="J89" s="24"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
@@ -8990,7 +8980,7 @@
       <c r="H90" s="23" t="s">
         <v>701</v>
       </c>
-      <c r="I90" s="76"/>
+      <c r="I90" s="57"/>
       <c r="J90" s="24"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.2">
@@ -9015,7 +9005,7 @@
       <c r="H91" s="23" t="s">
         <v>706</v>
       </c>
-      <c r="I91" s="76"/>
+      <c r="I91" s="57"/>
       <c r="J91" s="24"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.2">
@@ -9040,7 +9030,7 @@
       <c r="H92" s="23" t="s">
         <v>711</v>
       </c>
-      <c r="I92" s="76"/>
+      <c r="I92" s="57"/>
       <c r="J92" s="24"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.2">
@@ -9065,7 +9055,7 @@
       <c r="H93" s="23" t="s">
         <v>716</v>
       </c>
-      <c r="I93" s="76"/>
+      <c r="I93" s="57"/>
       <c r="J93" s="24"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.2">
@@ -9090,7 +9080,7 @@
       <c r="H94" s="23" t="s">
         <v>721</v>
       </c>
-      <c r="I94" s="76"/>
+      <c r="I94" s="57"/>
       <c r="J94" s="24"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.2">
@@ -9115,7 +9105,7 @@
       <c r="H95" s="23" t="s">
         <v>726</v>
       </c>
-      <c r="I95" s="76"/>
+      <c r="I95" s="57"/>
       <c r="J95" s="24"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.2">
@@ -9140,7 +9130,7 @@
       <c r="H96" s="23" t="s">
         <v>731</v>
       </c>
-      <c r="I96" s="76"/>
+      <c r="I96" s="57"/>
       <c r="J96" s="24"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.2">
@@ -9165,7 +9155,7 @@
       <c r="H97" s="23" t="s">
         <v>736</v>
       </c>
-      <c r="I97" s="76"/>
+      <c r="I97" s="57"/>
       <c r="J97" s="24"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.2">
@@ -9190,7 +9180,7 @@
       <c r="H98" s="23" t="s">
         <v>741</v>
       </c>
-      <c r="I98" s="76"/>
+      <c r="I98" s="57"/>
       <c r="J98" s="24"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.2">
@@ -9215,7 +9205,7 @@
       <c r="H99" s="23" t="s">
         <v>747</v>
       </c>
-      <c r="I99" s="76"/>
+      <c r="I99" s="57"/>
       <c r="J99" s="24"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.2">
@@ -9240,7 +9230,7 @@
       <c r="H100" s="23" t="s">
         <v>752</v>
       </c>
-      <c r="I100" s="76"/>
+      <c r="I100" s="57"/>
       <c r="J100" s="24"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.2">
@@ -9265,7 +9255,7 @@
       <c r="H101" s="23" t="s">
         <v>757</v>
       </c>
-      <c r="I101" s="76"/>
+      <c r="I101" s="57"/>
       <c r="J101" s="24"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.2">
@@ -9290,7 +9280,7 @@
       <c r="H102" s="23" t="s">
         <v>762</v>
       </c>
-      <c r="I102" s="76"/>
+      <c r="I102" s="57"/>
       <c r="J102" s="24"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.2">
@@ -9315,7 +9305,7 @@
       <c r="H103" s="23" t="s">
         <v>766</v>
       </c>
-      <c r="I103" s="76"/>
+      <c r="I103" s="57"/>
       <c r="J103" s="24"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.2">
@@ -9340,7 +9330,7 @@
       <c r="H104" s="23" t="s">
         <v>771</v>
       </c>
-      <c r="I104" s="76"/>
+      <c r="I104" s="57"/>
       <c r="J104" s="24"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.2">
@@ -9365,7 +9355,7 @@
       <c r="H105" s="23" t="s">
         <v>776</v>
       </c>
-      <c r="I105" s="76"/>
+      <c r="I105" s="57"/>
       <c r="J105" s="24"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.2">
@@ -9390,7 +9380,7 @@
       <c r="H106" s="23" t="s">
         <v>781</v>
       </c>
-      <c r="I106" s="76"/>
+      <c r="I106" s="57"/>
       <c r="J106" s="24"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.2">
@@ -9415,7 +9405,7 @@
       <c r="H107" s="23" t="s">
         <v>786</v>
       </c>
-      <c r="I107" s="76"/>
+      <c r="I107" s="57"/>
       <c r="J107" s="24"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.2">
@@ -9440,7 +9430,7 @@
       <c r="H108" s="23" t="s">
         <v>791</v>
       </c>
-      <c r="I108" s="76"/>
+      <c r="I108" s="57"/>
       <c r="J108" s="24"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.2">
@@ -9465,7 +9455,7 @@
       <c r="H109" s="23" t="s">
         <v>796</v>
       </c>
-      <c r="I109" s="76"/>
+      <c r="I109" s="57"/>
       <c r="J109" s="24"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.2">
@@ -9490,7 +9480,7 @@
       <c r="H110" s="23" t="s">
         <v>801</v>
       </c>
-      <c r="I110" s="76"/>
+      <c r="I110" s="57"/>
       <c r="J110" s="24"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.2">
@@ -9515,7 +9505,7 @@
       <c r="H111" s="23" t="s">
         <v>806</v>
       </c>
-      <c r="I111" s="76"/>
+      <c r="I111" s="57"/>
       <c r="J111" s="24"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.2">
@@ -9540,7 +9530,7 @@
       <c r="H112" s="23" t="s">
         <v>811</v>
       </c>
-      <c r="I112" s="76"/>
+      <c r="I112" s="57"/>
       <c r="J112" s="24"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.2">
@@ -9565,7 +9555,7 @@
       <c r="H113" s="23" t="s">
         <v>816</v>
       </c>
-      <c r="I113" s="76"/>
+      <c r="I113" s="57"/>
       <c r="J113" s="24"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.2">
@@ -9590,7 +9580,7 @@
       <c r="H114" s="23" t="s">
         <v>821</v>
       </c>
-      <c r="I114" s="76"/>
+      <c r="I114" s="57"/>
       <c r="J114" s="24"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.2">
@@ -9615,7 +9605,7 @@
       <c r="H115" s="23" t="s">
         <v>826</v>
       </c>
-      <c r="I115" s="76"/>
+      <c r="I115" s="57"/>
       <c r="J115" s="24"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.2">
@@ -9640,7 +9630,7 @@
       <c r="H116" s="23" t="s">
         <v>831</v>
       </c>
-      <c r="I116" s="76"/>
+      <c r="I116" s="57"/>
       <c r="J116" s="24"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.2">
@@ -9665,7 +9655,7 @@
       <c r="H117" s="23" t="s">
         <v>835</v>
       </c>
-      <c r="I117" s="76"/>
+      <c r="I117" s="57"/>
       <c r="J117" s="24"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.2">
@@ -9690,7 +9680,7 @@
       <c r="H118" s="23" t="s">
         <v>839</v>
       </c>
-      <c r="I118" s="76"/>
+      <c r="I118" s="57"/>
       <c r="J118" s="24"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.2">
@@ -9715,7 +9705,7 @@
       <c r="H119" s="23" t="s">
         <v>845</v>
       </c>
-      <c r="I119" s="76"/>
+      <c r="I119" s="57"/>
       <c r="J119" s="24"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.2">
@@ -9740,7 +9730,7 @@
       <c r="H120" s="23" t="s">
         <v>851</v>
       </c>
-      <c r="I120" s="76"/>
+      <c r="I120" s="57"/>
       <c r="J120" s="24"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.2">
@@ -9765,7 +9755,7 @@
       <c r="H121" s="23" t="s">
         <v>856</v>
       </c>
-      <c r="I121" s="76"/>
+      <c r="I121" s="57"/>
       <c r="J121" s="24"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.2">
@@ -9790,7 +9780,7 @@
       <c r="H122" s="23" t="s">
         <v>861</v>
       </c>
-      <c r="I122" s="76"/>
+      <c r="I122" s="57"/>
       <c r="J122" s="24"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.2">
@@ -9815,7 +9805,7 @@
       <c r="H123" s="23" t="s">
         <v>866</v>
       </c>
-      <c r="I123" s="76"/>
+      <c r="I123" s="57"/>
       <c r="J123" s="24"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.2">
@@ -9840,7 +9830,7 @@
       <c r="H124" s="23" t="s">
         <v>871</v>
       </c>
-      <c r="I124" s="76"/>
+      <c r="I124" s="57"/>
       <c r="J124" s="24"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.2">
@@ -9865,7 +9855,7 @@
       <c r="H125" s="23" t="s">
         <v>876</v>
       </c>
-      <c r="I125" s="76"/>
+      <c r="I125" s="57"/>
       <c r="J125" s="24"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.2">
@@ -9890,7 +9880,7 @@
       <c r="H126" s="23" t="s">
         <v>881</v>
       </c>
-      <c r="I126" s="76"/>
+      <c r="I126" s="57"/>
       <c r="J126" s="24"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.2">
@@ -9915,7 +9905,7 @@
       <c r="H127" s="23" t="s">
         <v>886</v>
       </c>
-      <c r="I127" s="76"/>
+      <c r="I127" s="57"/>
       <c r="J127" s="24"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.2">
@@ -9940,7 +9930,7 @@
       <c r="H128" s="23" t="s">
         <v>891</v>
       </c>
-      <c r="I128" s="76"/>
+      <c r="I128" s="57"/>
       <c r="J128" s="24"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.2">
@@ -9965,7 +9955,7 @@
       <c r="H129" s="23" t="s">
         <v>897</v>
       </c>
-      <c r="I129" s="76"/>
+      <c r="I129" s="57"/>
       <c r="J129" s="24"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.2">
@@ -9990,7 +9980,7 @@
       <c r="H130" s="23" t="s">
         <v>903</v>
       </c>
-      <c r="I130" s="76"/>
+      <c r="I130" s="57"/>
       <c r="J130" s="24"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.2">
@@ -10015,7 +10005,7 @@
       <c r="H131" s="23" t="s">
         <v>908</v>
       </c>
-      <c r="I131" s="76"/>
+      <c r="I131" s="57"/>
       <c r="J131" s="24"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.2">
@@ -10040,7 +10030,7 @@
       <c r="H132" s="23" t="s">
         <v>913</v>
       </c>
-      <c r="I132" s="76"/>
+      <c r="I132" s="57"/>
       <c r="J132" s="24"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.2">
@@ -10065,7 +10055,7 @@
       <c r="H133" s="23" t="s">
         <v>917</v>
       </c>
-      <c r="I133" s="76"/>
+      <c r="I133" s="57"/>
       <c r="J133" s="24"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.2">
@@ -10090,7 +10080,7 @@
       <c r="H134" s="23" t="s">
         <v>922</v>
       </c>
-      <c r="I134" s="76"/>
+      <c r="I134" s="57"/>
       <c r="J134" s="24"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.2">
@@ -10115,7 +10105,7 @@
       <c r="H135" s="23" t="s">
         <v>926</v>
       </c>
-      <c r="I135" s="76"/>
+      <c r="I135" s="57"/>
       <c r="J135" s="24"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.2">
@@ -10140,7 +10130,7 @@
       <c r="H136" s="23" t="s">
         <v>931</v>
       </c>
-      <c r="I136" s="76"/>
+      <c r="I136" s="57"/>
       <c r="J136" s="24"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.2">
@@ -10165,7 +10155,7 @@
       <c r="H137" s="23" t="s">
         <v>937</v>
       </c>
-      <c r="I137" s="76"/>
+      <c r="I137" s="57"/>
       <c r="J137" s="24"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.2">
@@ -10190,7 +10180,7 @@
       <c r="H138" s="23" t="s">
         <v>943</v>
       </c>
-      <c r="I138" s="76"/>
+      <c r="I138" s="57"/>
       <c r="J138" s="24"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.2">
@@ -10215,7 +10205,7 @@
       <c r="H139" s="23" t="s">
         <v>948</v>
       </c>
-      <c r="I139" s="76"/>
+      <c r="I139" s="57"/>
       <c r="J139" s="24"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.2">
@@ -10240,7 +10230,7 @@
       <c r="H140" s="23" t="s">
         <v>954</v>
       </c>
-      <c r="I140" s="76"/>
+      <c r="I140" s="57"/>
       <c r="J140" s="24"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.2">
@@ -10265,7 +10255,7 @@
       <c r="H141" s="23" t="s">
         <v>960</v>
       </c>
-      <c r="I141" s="76"/>
+      <c r="I141" s="57"/>
       <c r="J141" s="24"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.2">
@@ -10290,7 +10280,7 @@
       <c r="H142" s="23" t="s">
         <v>966</v>
       </c>
-      <c r="I142" s="76"/>
+      <c r="I142" s="57"/>
       <c r="J142" s="24"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.2">
@@ -10315,7 +10305,7 @@
       <c r="H143" s="23" t="s">
         <v>971</v>
       </c>
-      <c r="I143" s="76"/>
+      <c r="I143" s="57"/>
       <c r="J143" s="24"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.2">
@@ -10340,7 +10330,7 @@
       <c r="H144" s="23" t="s">
         <v>976</v>
       </c>
-      <c r="I144" s="76"/>
+      <c r="I144" s="57"/>
       <c r="J144" s="24"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.2">
@@ -10365,7 +10355,7 @@
       <c r="H145" s="23" t="s">
         <v>980</v>
       </c>
-      <c r="I145" s="76"/>
+      <c r="I145" s="57"/>
       <c r="J145" s="24"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.2">
@@ -10390,7 +10380,7 @@
       <c r="H146" s="23" t="s">
         <v>985</v>
       </c>
-      <c r="I146" s="76"/>
+      <c r="I146" s="57"/>
       <c r="J146" s="24"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.2">
@@ -10415,7 +10405,7 @@
       <c r="H147" s="23" t="s">
         <v>989</v>
       </c>
-      <c r="I147" s="76"/>
+      <c r="I147" s="57"/>
       <c r="J147" s="24"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.2">
@@ -10440,7 +10430,7 @@
       <c r="H148" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="I148" s="76"/>
+      <c r="I148" s="57"/>
       <c r="J148" s="24"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.2">
@@ -10465,7 +10455,7 @@
       <c r="H149" s="23" t="s">
         <v>997</v>
       </c>
-      <c r="I149" s="76"/>
+      <c r="I149" s="57"/>
       <c r="J149" s="24"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.2">
@@ -10490,7 +10480,7 @@
       <c r="H150" s="23" t="s">
         <v>1002</v>
       </c>
-      <c r="I150" s="76"/>
+      <c r="I150" s="57"/>
       <c r="J150" s="24"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.2">
@@ -10515,7 +10505,7 @@
       <c r="H151" s="23" t="s">
         <v>1007</v>
       </c>
-      <c r="I151" s="76"/>
+      <c r="I151" s="57"/>
       <c r="J151" s="24"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.2">
@@ -10540,7 +10530,7 @@
       <c r="H152" s="23" t="s">
         <v>1012</v>
       </c>
-      <c r="I152" s="76"/>
+      <c r="I152" s="57"/>
       <c r="J152" s="24"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.2">
@@ -10565,7 +10555,7 @@
       <c r="H153" s="23" t="s">
         <v>1017</v>
       </c>
-      <c r="I153" s="76"/>
+      <c r="I153" s="57"/>
       <c r="J153" s="24"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.2">
@@ -10590,7 +10580,7 @@
       <c r="H154" s="23" t="s">
         <v>1023</v>
       </c>
-      <c r="I154" s="76"/>
+      <c r="I154" s="57"/>
       <c r="J154" s="24"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.2">
@@ -10615,7 +10605,7 @@
       <c r="H155" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="I155" s="76"/>
+      <c r="I155" s="57"/>
       <c r="J155" s="24"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.2">
@@ -10640,7 +10630,7 @@
       <c r="H156" s="23" t="s">
         <v>1034</v>
       </c>
-      <c r="I156" s="76"/>
+      <c r="I156" s="57"/>
       <c r="J156" s="24"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.2">
@@ -10665,7 +10655,7 @@
       <c r="H157" s="23" t="s">
         <v>1039</v>
       </c>
-      <c r="I157" s="76"/>
+      <c r="I157" s="57"/>
       <c r="J157" s="24"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.2">
@@ -10690,7 +10680,7 @@
       <c r="H158" s="23" t="s">
         <v>1044</v>
       </c>
-      <c r="I158" s="76"/>
+      <c r="I158" s="57"/>
       <c r="J158" s="24"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.2">
@@ -10715,7 +10705,7 @@
       <c r="H159" s="23" t="s">
         <v>1049</v>
       </c>
-      <c r="I159" s="76"/>
+      <c r="I159" s="57"/>
       <c r="J159" s="24"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.2">
@@ -10740,7 +10730,7 @@
       <c r="H160" s="23" t="s">
         <v>1054</v>
       </c>
-      <c r="I160" s="76"/>
+      <c r="I160" s="57"/>
       <c r="J160" s="24"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.2">
@@ -10765,7 +10755,7 @@
       <c r="H161" s="23" t="s">
         <v>1059</v>
       </c>
-      <c r="I161" s="76"/>
+      <c r="I161" s="57"/>
       <c r="J161" s="24"/>
     </row>
   </sheetData>
